--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="213">
   <si>
     <t>P1</t>
   </si>
@@ -433,9 +433,6 @@
   </si>
   <si>
     <t>Professionnelle</t>
-  </si>
-  <si>
-    <t>Amicale,Professionnelle</t>
   </si>
   <si>
     <t>Négative dès 118</t>
@@ -1155,7 +1152,7 @@
         <v>123</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>81</v>
@@ -1167,7 +1164,7 @@
         <v>113</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>83</v>
@@ -1176,7 +1173,7 @@
         <v>84</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>85</v>
@@ -1299,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
         <v>116</v>
@@ -1314,7 +1311,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
         <v>66</v>
@@ -1323,10 +1320,10 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" t="s">
         <v>150</v>
-      </c>
-      <c r="L4" t="s">
-        <v>151</v>
       </c>
       <c r="M4" t="s">
         <v>70</v>
@@ -1605,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L10" t="s">
         <v>74</v>
@@ -1628,7 +1625,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
         <v>117</v>
@@ -1643,7 +1640,7 @@
         <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" t="s">
         <v>66</v>
@@ -1652,7 +1649,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s">
         <v>74</v>
@@ -1746,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s">
         <v>74</v>
@@ -1769,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
         <v>117</v>
@@ -1784,7 +1781,7 @@
         <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I14" t="s">
         <v>66</v>
@@ -1793,7 +1790,7 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
         <v>74</v>
@@ -1831,7 +1828,7 @@
         <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I15" t="s">
         <v>66</v>
@@ -1840,7 +1837,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
         <v>74</v>
@@ -1887,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
         <v>80</v>
@@ -1934,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s">
         <v>80</v>
@@ -1981,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
         <v>74</v>
@@ -2040,7 +2037,7 @@
         <v>67</v>
       </c>
       <c r="O19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P19" t="s">
         <v>67</v>
@@ -2051,7 +2048,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
         <v>118</v>
@@ -2066,7 +2063,7 @@
         <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I20" t="s">
         <v>66</v>
@@ -2075,7 +2072,7 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
         <v>74</v>
@@ -2098,7 +2095,7 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D21" t="s">
         <v>116</v>
@@ -2122,7 +2119,7 @@
         <v>3</v>
       </c>
       <c r="K21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L21" t="s">
         <v>74</v>
@@ -2145,7 +2142,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
         <v>118</v>
@@ -2160,7 +2157,7 @@
         <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I22" t="s">
         <v>66</v>
@@ -2169,7 +2166,7 @@
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s">
         <v>74</v>
@@ -2198,7 +2195,7 @@
         <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2207,7 +2204,7 @@
         <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
         <v>66</v>
@@ -2216,10 +2213,10 @@
         <v>3</v>
       </c>
       <c r="K23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" t="s">
         <v>172</v>
-      </c>
-      <c r="L23" t="s">
-        <v>173</v>
       </c>
       <c r="M23" t="s">
         <v>75</v>
@@ -2263,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s">
         <v>80</v>
@@ -2286,7 +2283,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s">
         <v>116</v>
@@ -2310,10 +2307,10 @@
         <v>3</v>
       </c>
       <c r="K25" t="s">
+        <v>174</v>
+      </c>
+      <c r="L25" t="s">
         <v>175</v>
-      </c>
-      <c r="L25" t="s">
-        <v>176</v>
       </c>
       <c r="M25" t="s">
         <v>75</v>
@@ -2380,7 +2377,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D27" t="s">
         <v>116</v>
@@ -2436,7 +2433,7 @@
         <v>112</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G28" t="s">
         <v>67</v>
@@ -2451,7 +2448,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s">
         <v>74</v>
@@ -2498,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L29" t="s">
         <v>80</v>
@@ -2530,7 +2527,7 @@
         <v>114</v>
       </c>
       <c r="F30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G30" t="s">
         <v>67</v>
@@ -2545,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s">
         <v>74</v>
@@ -2639,10 +2636,10 @@
         <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M32" t="s">
         <v>75</v>
@@ -2662,7 +2659,7 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D33" t="s">
         <v>116</v>
@@ -2677,7 +2674,7 @@
         <v>67</v>
       </c>
       <c r="H33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I33" t="s">
         <v>66</v>
@@ -2686,7 +2683,7 @@
         <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L33" t="s">
         <v>74</v>
@@ -2780,7 +2777,7 @@
         <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L35" t="s">
         <v>74</v>
@@ -2803,7 +2800,7 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D36" t="s">
         <v>118</v>
@@ -2827,7 +2824,7 @@
         <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L36" t="s">
         <v>74</v>
@@ -2897,7 +2894,7 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D38" t="s">
         <v>117</v>
@@ -3053,7 +3050,7 @@
         <v>67</v>
       </c>
       <c r="H41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I41" t="s">
         <v>66</v>
@@ -3062,7 +3059,7 @@
         <v>4</v>
       </c>
       <c r="K41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L41" t="s">
         <v>74</v>
@@ -3179,7 +3176,7 @@
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
         <v>116</v>
@@ -3250,7 +3247,7 @@
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L45" t="s">
         <v>74</v>
@@ -3391,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L48" t="s">
         <v>74</v>
@@ -3429,7 +3426,7 @@
         <v>67</v>
       </c>
       <c r="H49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I49" t="s">
         <v>66</v>
@@ -3438,7 +3435,7 @@
         <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s">
         <v>74</v>
@@ -3532,10 +3529,10 @@
         <v>3</v>
       </c>
       <c r="K51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M51" t="s">
         <v>89</v>
@@ -3579,10 +3576,10 @@
         <v>2</v>
       </c>
       <c r="K52" t="s">
+        <v>190</v>
+      </c>
+      <c r="L52" t="s">
         <v>191</v>
-      </c>
-      <c r="L52" t="s">
-        <v>192</v>
       </c>
       <c r="M52" t="s">
         <v>89</v>
@@ -3602,7 +3599,7 @@
         <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D53" t="s">
         <v>116</v>
@@ -3617,7 +3614,7 @@
         <v>67</v>
       </c>
       <c r="H53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I53" t="s">
         <v>66</v>
@@ -3626,10 +3623,10 @@
         <v>3</v>
       </c>
       <c r="K53" t="s">
+        <v>193</v>
+      </c>
+      <c r="L53" t="s">
         <v>194</v>
-      </c>
-      <c r="L53" t="s">
-        <v>195</v>
       </c>
       <c r="M53" t="s">
         <v>90</v>
@@ -3649,7 +3646,7 @@
         <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
         <v>118</v>
@@ -3673,10 +3670,10 @@
         <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M54" t="s">
         <v>90</v>
@@ -3711,7 +3708,7 @@
         <v>71</v>
       </c>
       <c r="H55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I55" t="s">
         <v>66</v>
@@ -3720,10 +3717,10 @@
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M55" t="s">
         <v>90</v>
@@ -3767,7 +3764,7 @@
         <v>2</v>
       </c>
       <c r="K56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L56" t="s">
         <v>80</v>
@@ -3837,7 +3834,7 @@
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D58" t="s">
         <v>118</v>
@@ -3852,7 +3849,7 @@
         <v>71</v>
       </c>
       <c r="H58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I58" t="s">
         <v>66</v>
@@ -3861,10 +3858,10 @@
         <v>4</v>
       </c>
       <c r="K58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M58" t="s">
         <v>90</v>
@@ -3946,7 +3943,7 @@
         <v>67</v>
       </c>
       <c r="H60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I60" t="s">
         <v>66</v>
@@ -3955,10 +3952,10 @@
         <v>3</v>
       </c>
       <c r="K60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M60" t="s">
         <v>90</v>
@@ -4025,7 +4022,7 @@
         <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" t="s">
         <v>119</v>
@@ -4049,10 +4046,10 @@
         <v>4</v>
       </c>
       <c r="K62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M62" t="s">
         <v>90</v>
@@ -4202,7 +4199,7 @@
         <v>67</v>
       </c>
       <c r="O65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P65" t="s">
         <v>67</v>
@@ -4275,7 +4272,7 @@
         <v>67</v>
       </c>
       <c r="H67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I67" t="s">
         <v>66</v>
@@ -4287,7 +4284,7 @@
         <v>98</v>
       </c>
       <c r="L67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M67" t="s">
         <v>90</v>
@@ -4316,7 +4313,7 @@
         <v>66</v>
       </c>
       <c r="F68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G68" t="s">
         <v>71</v>
@@ -4331,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L68" t="s">
         <v>106</v>
@@ -4374,10 +4371,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>144</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>124</v>
@@ -4481,7 +4478,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
         <v>129</v>
@@ -4495,7 +4492,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
         <v>129</v>
@@ -4509,7 +4506,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
         <v>129</v>
@@ -4523,7 +4520,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
         <v>129</v>
@@ -4537,7 +4534,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
         <v>129</v>
@@ -4551,7 +4548,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" t="s">
         <v>129</v>
@@ -4565,7 +4562,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" t="s">
         <v>129</v>
@@ -4579,7 +4576,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D15" t="s">
         <v>129</v>
@@ -4593,7 +4590,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D16" t="s">
         <v>129</v>
@@ -4607,7 +4604,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D17" t="s">
         <v>129</v>
@@ -4635,7 +4632,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s">
         <v>129</v>
@@ -4649,7 +4646,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s">
         <v>129</v>
@@ -4663,7 +4660,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D21" t="s">
         <v>129</v>
@@ -4677,13 +4674,13 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D22" t="s">
         <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4694,7 +4691,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D23" t="s">
         <v>129</v>
@@ -4708,7 +4705,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D24" t="s">
         <v>129</v>
@@ -4722,7 +4719,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25" t="s">
         <v>129</v>
@@ -4736,7 +4733,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D26" t="s">
         <v>129</v>
@@ -4750,7 +4747,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D27" t="s">
         <v>129</v>
@@ -4764,7 +4761,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D28" t="s">
         <v>129</v>
@@ -4778,7 +4775,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D29" t="s">
         <v>129</v>
@@ -4792,7 +4789,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D30" t="s">
         <v>129</v>
@@ -4806,13 +4803,13 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D31" t="s">
         <v>129</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4823,7 +4820,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D32" t="s">
         <v>129</v>
@@ -4837,7 +4834,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D33" t="s">
         <v>129</v>
@@ -4851,7 +4848,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D34" t="s">
         <v>129</v>
@@ -4865,7 +4862,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35" t="s">
         <v>129</v>
@@ -4913,7 +4910,7 @@
         <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -5106,7 +5103,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D52" t="s">
         <v>129</v>
@@ -5168,7 +5165,7 @@
         <v>129</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5291,7 +5288,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D65" t="s">
         <v>129</v>
@@ -5333,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>129</v>
@@ -5379,7 +5376,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" t="s">
         <v>66</v>
@@ -5506,7 +5503,7 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
         <v>66</v>
@@ -5520,13 +5517,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D81" t="s">
         <v>129</v>
       </c>
       <c r="E81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -5551,7 +5548,7 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D83" t="s">
         <v>129</v>
@@ -5565,7 +5562,7 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D84" t="s">
         <v>129</v>
@@ -5593,7 +5590,7 @@
         <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D86" t="s">
         <v>129</v>
@@ -5607,7 +5604,7 @@
         <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D87" t="s">
         <v>129</v>
@@ -5635,7 +5632,7 @@
         <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D89" t="s">
         <v>129</v>
@@ -5725,7 +5722,7 @@
         <v>129</v>
       </c>
       <c r="E95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5756,7 +5753,7 @@
         <v>129</v>
       </c>
       <c r="E97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -5809,7 +5806,7 @@
         <v>48</v>
       </c>
       <c r="C101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D101" t="s">
         <v>129</v>
@@ -5851,7 +5848,7 @@
         <v>55</v>
       </c>
       <c r="C104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D104" t="s">
         <v>129</v>
@@ -5865,7 +5862,7 @@
         <v>56</v>
       </c>
       <c r="C105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D105" t="s">
         <v>129</v>
@@ -5893,13 +5890,13 @@
         <v>62</v>
       </c>
       <c r="C107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D107" t="s">
         <v>129</v>
       </c>
       <c r="E107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -5953,7 +5950,7 @@
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D111" t="s">
         <v>66</v>
@@ -5967,7 +5964,7 @@
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D112" t="s">
         <v>66</v>
@@ -6010,7 +6007,7 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D115" t="s">
         <v>66</v>
@@ -6038,7 +6035,7 @@
         <v>5</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>66</v>
@@ -6087,7 +6084,7 @@
         <v>129</v>
       </c>
       <c r="E120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -6098,7 +6095,7 @@
         <v>6</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>66</v>
@@ -6213,7 +6210,7 @@
         <v>15</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>129</v>
@@ -6242,7 +6239,7 @@
         <v>18</v>
       </c>
       <c r="C131" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D131" t="s">
         <v>129</v>
@@ -6256,7 +6253,7 @@
         <v>26</v>
       </c>
       <c r="C132" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D132" t="s">
         <v>129</v>
@@ -6270,7 +6267,7 @@
         <v>52</v>
       </c>
       <c r="C133" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D133" t="s">
         <v>129</v>
@@ -6328,7 +6325,7 @@
         <v>18</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D137" s="11" t="s">
         <v>129</v>
@@ -6343,7 +6340,7 @@
         <v>26</v>
       </c>
       <c r="C138" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D138" t="s">
         <v>129</v>
@@ -6357,7 +6354,7 @@
         <v>52</v>
       </c>
       <c r="C139" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D139" t="s">
         <v>129</v>
@@ -6443,7 +6440,7 @@
         <v>26</v>
       </c>
       <c r="C145" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D145" t="s">
         <v>129</v>
@@ -6543,7 +6540,7 @@
         <v>26</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D152" s="11" t="s">
         <v>129</v>
@@ -6799,7 +6796,7 @@
         <v>52</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D170" s="11" t="s">
         <v>129</v>

--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Eclipse\workspaces\Networks\TrajanNet\data\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Documents\Ecrits\_Projets\Trajan\2. Données\2. Réseau\02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="attributs" sheetId="1" r:id="rId1"/>
     <sheet name="relations" sheetId="2" r:id="rId2"/>
+    <sheet name="postes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="327">
   <si>
     <t>P1</t>
   </si>
@@ -249,9 +250,6 @@
     <t>Oui</t>
   </si>
   <si>
-    <t>Syre</t>
-  </si>
-  <si>
     <t>Bithynie</t>
   </si>
   <si>
@@ -312,9 +310,6 @@
     <t>Arabie</t>
   </si>
   <si>
-    <t>Pathie</t>
-  </si>
-  <si>
     <t>Mésie inférieure</t>
   </si>
   <si>
@@ -357,30 +352,18 @@
     <t>Destinations</t>
   </si>
   <si>
-    <t>Chef d'unités auxiliaires</t>
-  </si>
-  <si>
-    <t>Tribun militaire</t>
-  </si>
-  <si>
     <t>Préfet du prétoire</t>
   </si>
   <si>
     <t>Préfet des vigiles</t>
   </si>
   <si>
-    <t>Procurateur</t>
-  </si>
-  <si>
     <t>Poste politique équestre connu</t>
   </si>
   <si>
     <t>Préfet de l'annone</t>
   </si>
   <si>
-    <t>Préfet des ouvriers</t>
-  </si>
-  <si>
     <t>Consul</t>
   </si>
   <si>
@@ -489,9 +472,6 @@
     <t>Cilicie;Syrie</t>
   </si>
   <si>
-    <t>Questeur;Édile;Consul suffect</t>
-  </si>
-  <si>
     <t>Légat de légion;Légat d'Auguste propréteur</t>
   </si>
   <si>
@@ -501,9 +481,6 @@
     <t>Grèce;Dacie;Mésie</t>
   </si>
   <si>
-    <t>Questeur;Tribun de la plèbe;Préteur;Consul suffect;Consul</t>
-  </si>
-  <si>
     <t>Germanie;Asie;Cappadoce;Arménie;Syrie;Afrique</t>
   </si>
   <si>
@@ -528,24 +505,15 @@
     <t>Dacie;Cappadoce;Galatie;Judée;Syrie;Germanie</t>
   </si>
   <si>
-    <t>Préteur;Consul suffect</t>
-  </si>
-  <si>
     <t>Germanie;Pannonie;Dacie</t>
   </si>
   <si>
-    <t>Préteur;Consul</t>
-  </si>
-  <si>
     <t>Légat de légion;Proconsul</t>
   </si>
   <si>
     <t>Mésie;Dacie;Germanie supérieure</t>
   </si>
   <si>
-    <t>Procurateur;Préfet de l'annone</t>
-  </si>
-  <si>
     <t>Judée;Dacie;Mésie inférieure</t>
   </si>
   <si>
@@ -561,33 +529,21 @@
     <t>Personnel;Politico-militaire</t>
   </si>
   <si>
-    <t>Questeur;Tribun de la plèbe;Préteur;Consul suffect</t>
-  </si>
-  <si>
     <t>Dacie;Parthie</t>
   </si>
   <si>
     <t>Dacie;Parthie;Syrie</t>
   </si>
   <si>
-    <t>Questeur;Préteur;Consul</t>
-  </si>
-  <si>
     <t>Belgique;Germanie;Mésie supérieure</t>
   </si>
   <si>
-    <t>Questeur;Tribun de la plèbe</t>
-  </si>
-  <si>
     <t>Macédoine;Dacie</t>
   </si>
   <si>
     <t>Consul suffect;Consul</t>
   </si>
   <si>
-    <t>Proconsul;Légat d'Auguste propréteur</t>
-  </si>
-  <si>
     <t>Mésie inférieure;Pannonie;Afrique;Dacie</t>
   </si>
   <si>
@@ -597,9 +553,6 @@
     <t>Arménie;Arabie</t>
   </si>
   <si>
-    <t>Proconsul;Légat d'Auguste propréteur;Légat de légion</t>
-  </si>
-  <si>
     <t>Achaïe;Mésie supérieure</t>
   </si>
   <si>
@@ -609,9 +562,6 @@
     <t>Politico-militaire;Militaire</t>
   </si>
   <si>
-    <t>Édile;Consul suffect</t>
-  </si>
-  <si>
     <t>Bretagne;Germanie inférieure;Asie</t>
   </si>
   <si>
@@ -627,9 +577,6 @@
     <t>Pathie;Mésopotamie</t>
   </si>
   <si>
-    <t>Légat d'Auguste propréteur;Proconsul;Légat de légion</t>
-  </si>
-  <si>
     <t>Dacie;Numidie;Afrique;Pannonie supérieure</t>
   </si>
   <si>
@@ -670,6 +617,402 @@
   </si>
   <si>
     <t>Achaïe;Syrie;Égypte</t>
+  </si>
+  <si>
+    <t>Poste</t>
+  </si>
+  <si>
+    <t>Sphère (équestre ou  Sénatorial)</t>
+  </si>
+  <si>
+    <t>Statut (Politique ou Militaire)</t>
+  </si>
+  <si>
+    <t>Identifiant</t>
+  </si>
+  <si>
+    <t>Rang ( Hiérarchie)</t>
+  </si>
+  <si>
+    <t>Localisation</t>
+  </si>
+  <si>
+    <t>Sénatorial</t>
+  </si>
+  <si>
+    <t>spol1</t>
+  </si>
+  <si>
+    <t>Rome ou Province</t>
+  </si>
+  <si>
+    <t>spol2</t>
+  </si>
+  <si>
+    <t>spol3</t>
+  </si>
+  <si>
+    <t>spol4</t>
+  </si>
+  <si>
+    <t>Propréteur</t>
+  </si>
+  <si>
+    <t>spol5</t>
+  </si>
+  <si>
+    <t>spol6</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>spol7</t>
+  </si>
+  <si>
+    <t>spol8</t>
+  </si>
+  <si>
+    <t>spol9</t>
+  </si>
+  <si>
+    <t>Tribun lacticlave</t>
+  </si>
+  <si>
+    <t>smil1-1</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Tribun de légion</t>
+  </si>
+  <si>
+    <t>smil1-2</t>
+  </si>
+  <si>
+    <t>Tribun Militaire</t>
+  </si>
+  <si>
+    <t>smil1-3</t>
+  </si>
+  <si>
+    <t>smil2</t>
+  </si>
+  <si>
+    <t>smil3</t>
+  </si>
+  <si>
+    <t>Procuratèle</t>
+  </si>
+  <si>
+    <t>Équestre</t>
+  </si>
+  <si>
+    <t>cpol1</t>
+  </si>
+  <si>
+    <t>Préfet de la flotte</t>
+  </si>
+  <si>
+    <t>cpol2</t>
+  </si>
+  <si>
+    <t>cpol3</t>
+  </si>
+  <si>
+    <t>cpol4</t>
+  </si>
+  <si>
+    <t>cpol5</t>
+  </si>
+  <si>
+    <t>cpol6</t>
+  </si>
+  <si>
+    <t>Préfet de cohorte</t>
+  </si>
+  <si>
+    <t>cmil1</t>
+  </si>
+  <si>
+    <t>Tribun angusticlave</t>
+  </si>
+  <si>
+    <t>cmil2</t>
+  </si>
+  <si>
+    <t>Préfet d'ailes</t>
+  </si>
+  <si>
+    <t>cmil3</t>
+  </si>
+  <si>
+    <t>Tribun des vigiles</t>
+  </si>
+  <si>
+    <t>cmil4</t>
+  </si>
+  <si>
+    <t>Tribun d'une cohorte urbaine</t>
+  </si>
+  <si>
+    <t>cmil5</t>
+  </si>
+  <si>
+    <t>Tribun d'une cohorte prétorienne</t>
+  </si>
+  <si>
+    <t>cmil6</t>
+  </si>
+  <si>
+    <t>Plotine</t>
+  </si>
+  <si>
+    <t>Hadrien</t>
+  </si>
+  <si>
+    <t>Marciana</t>
+  </si>
+  <si>
+    <t>Matidia</t>
+  </si>
+  <si>
+    <t>Sabine</t>
+  </si>
+  <si>
+    <t>Lycormas</t>
+  </si>
+  <si>
+    <t>Caius Matidius Patruinus</t>
+  </si>
+  <si>
+    <t>Publius Acilius Attianus</t>
+  </si>
+  <si>
+    <t>Glitius Atilius Agricola</t>
+  </si>
+  <si>
+    <t>Cnaeus Arrius Antonius</t>
+  </si>
+  <si>
+    <t>Caius Avidius Nigrinus</t>
+  </si>
+  <si>
+    <t>Lucius Catilius Severus</t>
+  </si>
+  <si>
+    <t>Caius Cilnius Procolus</t>
+  </si>
+  <si>
+    <t>Tiberius Claudius Livianus</t>
+  </si>
+  <si>
+    <t>Tiberius Claudius Maximus</t>
+  </si>
+  <si>
+    <t>Aulus Cornelius Palma Frontianus</t>
+  </si>
+  <si>
+    <t>Publius Cornelius Tacitus</t>
+  </si>
+  <si>
+    <t>Caius Iulius Bassus Quatradus</t>
+  </si>
+  <si>
+    <t>Lucius Iulius Ursus Servianus</t>
+  </si>
+  <si>
+    <t>Caius Octavius Tidius Tossianus Javolenus Priscus</t>
+  </si>
+  <si>
+    <t>Manius Laberius Maximus</t>
+  </si>
+  <si>
+    <t>Lucius Licinius Sura</t>
+  </si>
+  <si>
+    <t>Lucius Neratius Priscus</t>
+  </si>
+  <si>
+    <t>Cnaeus Octavius Titinius Capito</t>
+  </si>
+  <si>
+    <t>Pline le Jeune</t>
+  </si>
+  <si>
+    <t>Caius Pompeius Planta</t>
+  </si>
+  <si>
+    <t>Lucius Publius Celsus</t>
+  </si>
+  <si>
+    <t>Marcus Rutilius Luous</t>
+  </si>
+  <si>
+    <t>Luciius Silius Decianus</t>
+  </si>
+  <si>
+    <t>Titus Statilius Crito</t>
+  </si>
+  <si>
+    <t>Quintus Sosius Senecio</t>
+  </si>
+  <si>
+    <t>Titus Spurinna Vestricius</t>
+  </si>
+  <si>
+    <t>Sextus Attius Suburanus Aemilianus</t>
+  </si>
+  <si>
+    <t>Decimus Terentius Gentianus</t>
+  </si>
+  <si>
+    <t>Marcus Annius Verus</t>
+  </si>
+  <si>
+    <t>Arrianus Maturus</t>
+  </si>
+  <si>
+    <t>Titus Aurelius Fulvus</t>
+  </si>
+  <si>
+    <t>Quintus Baebius Macer</t>
+  </si>
+  <si>
+    <t>Aulus Caecilius Faustinus</t>
+  </si>
+  <si>
+    <t>Lucius Ceionnus Commodus</t>
+  </si>
+  <si>
+    <t>Caius Claudius Severus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sextus Erucius Clarus </t>
+  </si>
+  <si>
+    <t>Lucius Fabius Iustus</t>
+  </si>
+  <si>
+    <t>Quintus Fabius Postumus</t>
+  </si>
+  <si>
+    <t>Crassus Frugi Licianus</t>
+  </si>
+  <si>
+    <t>Titus Haterius Nepos</t>
+  </si>
+  <si>
+    <t>Lucius Herennius Saturnius</t>
+  </si>
+  <si>
+    <t>Iulius Tiberius Alexander Berenicianus</t>
+  </si>
+  <si>
+    <t>Lucius Iulius Vestinus</t>
+  </si>
+  <si>
+    <t>Tiberius Iulius Ferox</t>
+  </si>
+  <si>
+    <t>Frontin</t>
+  </si>
+  <si>
+    <t>Aulus Larcius Priscus</t>
+  </si>
+  <si>
+    <t>Lusius Quietus</t>
+  </si>
+  <si>
+    <t>Appius Maximus Santra</t>
+  </si>
+  <si>
+    <t>Publius Metilius Sabinus Nepos</t>
+  </si>
+  <si>
+    <t>Lucius Minicius Natalis</t>
+  </si>
+  <si>
+    <t>Sosius Papus</t>
+  </si>
+  <si>
+    <t>Cnaeus Pinarius Aemilius Cicatricula Pompeius Longinus</t>
+  </si>
+  <si>
+    <t>Alfius Publius Maximus</t>
+  </si>
+  <si>
+    <t>Sextus Quinctilius Valerius Maximus</t>
+  </si>
+  <si>
+    <t>Caius Licinius Voconius Romanus</t>
+  </si>
+  <si>
+    <t>Lucius Roscius Caelius Murena</t>
+  </si>
+  <si>
+    <t>Caius Septicius Clarus</t>
+  </si>
+  <si>
+    <t>Servius Sulpicius Similis</t>
+  </si>
+  <si>
+    <t>Decimus Terentius Scaurianus</t>
+  </si>
+  <si>
+    <t>Caius Vibius Maximus</t>
+  </si>
+  <si>
+    <t>Trajan</t>
+  </si>
+  <si>
+    <t>Questeur;Édile;Préteur;Consul suffect;Consul</t>
+  </si>
+  <si>
+    <t>Tribun de la plèbe;Préteur;Propréteur</t>
+  </si>
+  <si>
+    <t>Questeur;Tribun de la plèbe;Préteur;Propréteur;Consul suffect;Consul</t>
+  </si>
+  <si>
+    <t>Préteur;Propréteur</t>
+  </si>
+  <si>
+    <t>Questeur;Préteur;Propréteur;Consul suffect</t>
+  </si>
+  <si>
+    <t>Préteur;Propréteur;Consul suffect;Consul</t>
+  </si>
+  <si>
+    <t>Questeur;Tribun de la plèbe;Préteur;Propréteur;Consul suffect</t>
+  </si>
+  <si>
+    <t>Questeur;Préteur;Propréteur</t>
+  </si>
+  <si>
+    <t>Questeur;Tribun de la plèbe;Préteur;Propréteur</t>
+  </si>
+  <si>
+    <t>Édile;Consul suffect;Consul</t>
+  </si>
+  <si>
+    <t>Tribun de légion;Légat de légion</t>
+  </si>
+  <si>
+    <t>Légat d'Auguste propréteur;Proconsul</t>
+  </si>
+  <si>
+    <t>Légat de légion;Légat d'Auguste propréteur;Proconsul</t>
+  </si>
+  <si>
+    <t>Parthie</t>
+  </si>
+  <si>
+    <t>Procuratèle;Préfet de l'annone;Préfet d'Égypte;Préfet du prétoire</t>
+  </si>
+  <si>
+    <t>Procuratèle;Préfet d'Égypte</t>
   </si>
 </sst>
 </file>
@@ -699,7 +1042,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,6 +1091,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -779,7 +1146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -805,6 +1172,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,7 +1499,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,57 +1523,60 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>310</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>66</v>
@@ -1248,6 +1625,9 @@
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="23" t="s">
+        <v>244</v>
+      </c>
       <c r="C3" s="15" t="s">
         <v>66</v>
       </c>
@@ -1295,11 +1675,14 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
         <v>66</v>
@@ -1311,7 +1694,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I4" t="s">
         <v>66</v>
@@ -1320,10 +1703,10 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M4" t="s">
         <v>70</v>
@@ -1342,6 +1725,9 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
       <c r="C5" t="s">
         <v>66</v>
       </c>
@@ -1389,6 +1775,9 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
       <c r="C6" t="s">
         <v>66</v>
       </c>
@@ -1436,6 +1825,9 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
       <c r="C7" t="s">
         <v>66</v>
       </c>
@@ -1461,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s">
         <v>69</v>
@@ -1483,6 +1875,9 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
       <c r="C8" t="s">
         <v>66</v>
       </c>
@@ -1508,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L8" t="s">
         <v>66</v>
@@ -1530,6 +1925,9 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
       <c r="C9" t="s">
         <v>66</v>
       </c>
@@ -1577,6 +1975,9 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>66</v>
       </c>
@@ -1584,10 +1985,10 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
         <v>71</v>
@@ -1602,13 +2003,13 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" t="s">
         <v>74</v>
-      </c>
-      <c r="M10" t="s">
-        <v>75</v>
       </c>
       <c r="N10" t="s">
         <v>71</v>
@@ -1624,11 +2025,14 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
+      <c r="B11" t="s">
+        <v>252</v>
+      </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>311</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
         <v>66</v>
@@ -1640,7 +2044,7 @@
         <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I11" t="s">
         <v>66</v>
@@ -1649,13 +2053,13 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" t="s">
         <v>74</v>
-      </c>
-      <c r="M11" t="s">
-        <v>75</v>
       </c>
       <c r="N11" t="s">
         <v>66</v>
@@ -1671,11 +2075,14 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
+      <c r="B12" t="s">
+        <v>253</v>
+      </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
         <v>66</v>
@@ -1687,7 +2094,7 @@
         <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
         <v>66</v>
@@ -1696,19 +2103,19 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" t="s">
         <v>74</v>
       </c>
-      <c r="M12" t="s">
-        <v>75</v>
-      </c>
       <c r="N12" t="s">
         <v>66</v>
       </c>
       <c r="O12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P12" t="s">
         <v>67</v>
@@ -1718,11 +2125,14 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>312</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
         <v>66</v>
@@ -1734,7 +2144,7 @@
         <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
         <v>66</v>
@@ -1743,19 +2153,19 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" t="s">
         <v>74</v>
       </c>
-      <c r="M13" t="s">
-        <v>75</v>
-      </c>
       <c r="N13" t="s">
         <v>67</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P13" t="s">
         <v>67</v>
@@ -1765,11 +2175,14 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
+      <c r="B14" t="s">
+        <v>255</v>
+      </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
         <v>66</v>
@@ -1781,7 +2194,7 @@
         <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I14" t="s">
         <v>66</v>
@@ -1790,13 +2203,13 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" t="s">
         <v>74</v>
-      </c>
-      <c r="M14" t="s">
-        <v>75</v>
       </c>
       <c r="N14" t="s">
         <v>71</v>
@@ -1812,11 +2225,14 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
+      <c r="B15" t="s">
+        <v>256</v>
+      </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
         <v>66</v>
@@ -1828,7 +2244,7 @@
         <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I15" t="s">
         <v>66</v>
@@ -1837,13 +2253,13 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" t="s">
         <v>74</v>
-      </c>
-      <c r="M15" t="s">
-        <v>75</v>
       </c>
       <c r="N15" t="s">
         <v>66</v>
@@ -1859,6 +2275,9 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
+      <c r="B16" t="s">
+        <v>257</v>
+      </c>
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -1869,13 +2288,13 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
         <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s">
         <v>66</v>
@@ -1884,13 +2303,13 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N16" t="s">
         <v>71</v>
@@ -1906,6 +2325,9 @@
       <c r="A17" t="s">
         <v>14</v>
       </c>
+      <c r="B17" t="s">
+        <v>258</v>
+      </c>
       <c r="C17" t="s">
         <v>66</v>
       </c>
@@ -1925,19 +2347,19 @@
         <v>66</v>
       </c>
       <c r="I17" t="s">
-        <v>108</v>
+        <v>232</v>
       </c>
       <c r="J17" s="9">
         <v>4</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N17" t="s">
         <v>71</v>
@@ -1953,11 +2375,14 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
+      <c r="B18" t="s">
+        <v>259</v>
+      </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
         <v>66</v>
@@ -1969,7 +2394,7 @@
         <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
         <v>66</v>
@@ -1978,19 +2403,19 @@
         <v>4</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" t="s">
         <v>74</v>
       </c>
-      <c r="M18" t="s">
-        <v>75</v>
-      </c>
       <c r="N18" t="s">
         <v>67</v>
       </c>
       <c r="O18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P18" t="s">
         <v>67</v>
@@ -2000,11 +2425,14 @@
       <c r="A19" t="s">
         <v>16</v>
       </c>
+      <c r="B19" t="s">
+        <v>260</v>
+      </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
         <v>66</v>
@@ -2016,7 +2444,7 @@
         <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s">
         <v>66</v>
@@ -2025,19 +2453,19 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L19" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" t="s">
         <v>74</v>
       </c>
-      <c r="M19" t="s">
-        <v>75</v>
-      </c>
       <c r="N19" t="s">
         <v>67</v>
       </c>
       <c r="O19" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="P19" t="s">
         <v>67</v>
@@ -2047,11 +2475,14 @@
       <c r="A20" t="s">
         <v>17</v>
       </c>
+      <c r="B20" t="s">
+        <v>261</v>
+      </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
         <v>66</v>
@@ -2063,7 +2494,7 @@
         <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="I20" t="s">
         <v>66</v>
@@ -2072,13 +2503,13 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" t="s">
         <v>74</v>
-      </c>
-      <c r="M20" t="s">
-        <v>75</v>
       </c>
       <c r="N20" t="s">
         <v>71</v>
@@ -2094,11 +2525,14 @@
       <c r="A21" t="s">
         <v>18</v>
       </c>
+      <c r="B21" t="s">
+        <v>262</v>
+      </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
         <v>66</v>
@@ -2110,7 +2544,7 @@
         <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s">
         <v>66</v>
@@ -2119,19 +2553,19 @@
         <v>3</v>
       </c>
       <c r="K21" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" t="s">
         <v>74</v>
       </c>
-      <c r="M21" t="s">
-        <v>75</v>
-      </c>
       <c r="N21" t="s">
         <v>67</v>
       </c>
       <c r="O21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P21" t="s">
         <v>67</v>
@@ -2141,11 +2575,14 @@
       <c r="A22" t="s">
         <v>19</v>
       </c>
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>316</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
         <v>66</v>
@@ -2157,7 +2594,7 @@
         <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="I22" t="s">
         <v>66</v>
@@ -2166,19 +2603,19 @@
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" t="s">
         <v>74</v>
       </c>
-      <c r="M22" t="s">
-        <v>75</v>
-      </c>
       <c r="N22" t="s">
         <v>66</v>
       </c>
       <c r="O22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P22" t="s">
         <v>67</v>
@@ -2188,23 +2625,26 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
+      <c r="B23" t="s">
+        <v>264</v>
+      </c>
       <c r="C23" t="s">
         <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>325</v>
       </c>
       <c r="F23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
         <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I23" t="s">
         <v>66</v>
@@ -2213,13 +2653,13 @@
         <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L23" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N23" t="s">
         <v>67</v>
@@ -2235,11 +2675,14 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
+      <c r="B24" t="s">
+        <v>265</v>
+      </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
         <v>66</v>
@@ -2251,7 +2694,7 @@
         <v>67</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s">
         <v>66</v>
@@ -2260,19 +2703,19 @@
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N24" t="s">
         <v>71</v>
       </c>
       <c r="O24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P24" t="s">
         <v>71</v>
@@ -2282,11 +2725,14 @@
       <c r="A25" t="s">
         <v>22</v>
       </c>
+      <c r="B25" t="s">
+        <v>266</v>
+      </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -2298,7 +2744,7 @@
         <v>67</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s">
         <v>66</v>
@@ -2307,19 +2753,19 @@
         <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="L25" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N25" t="s">
         <v>67</v>
       </c>
       <c r="O25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P25" t="s">
         <v>67</v>
@@ -2329,6 +2775,9 @@
       <c r="A26" t="s">
         <v>23</v>
       </c>
+      <c r="B26" t="s">
+        <v>267</v>
+      </c>
       <c r="C26" t="s">
         <v>66</v>
       </c>
@@ -2339,7 +2788,7 @@
         <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G26" t="s">
         <v>67</v>
@@ -2360,13 +2809,13 @@
         <v>66</v>
       </c>
       <c r="M26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N26" t="s">
         <v>66</v>
       </c>
       <c r="O26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P26" t="s">
         <v>67</v>
@@ -2376,11 +2825,14 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
+      <c r="B27" t="s">
+        <v>268</v>
+      </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>317</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -2392,7 +2844,7 @@
         <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s">
         <v>66</v>
@@ -2401,19 +2853,19 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" t="s">
         <v>73</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>74</v>
       </c>
-      <c r="M27" t="s">
-        <v>75</v>
-      </c>
       <c r="N27" t="s">
         <v>66</v>
       </c>
       <c r="O27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P27" t="s">
         <v>67</v>
@@ -2423,6 +2875,9 @@
       <c r="A28" t="s">
         <v>25</v>
       </c>
+      <c r="B28" t="s">
+        <v>269</v>
+      </c>
       <c r="C28" t="s">
         <v>66</v>
       </c>
@@ -2430,10 +2885,10 @@
         <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>326</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="G28" t="s">
         <v>67</v>
@@ -2448,19 +2903,19 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" t="s">
         <v>74</v>
       </c>
-      <c r="M28" t="s">
-        <v>75</v>
-      </c>
       <c r="N28" t="s">
         <v>66</v>
       </c>
       <c r="O28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P28" t="s">
         <v>67</v>
@@ -2470,11 +2925,14 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
+      <c r="B29" t="s">
+        <v>270</v>
+      </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -2486,7 +2944,7 @@
         <v>67</v>
       </c>
       <c r="H29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s">
         <v>66</v>
@@ -2495,19 +2953,19 @@
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N29" t="s">
         <v>67</v>
       </c>
       <c r="O29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P29" t="s">
         <v>67</v>
@@ -2517,6 +2975,9 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
+      <c r="B30" t="s">
+        <v>271</v>
+      </c>
       <c r="C30" t="s">
         <v>66</v>
       </c>
@@ -2524,10 +2985,10 @@
         <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="G30" t="s">
         <v>67</v>
@@ -2542,13 +3003,13 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="L30" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" t="s">
         <v>74</v>
-      </c>
-      <c r="M30" t="s">
-        <v>75</v>
       </c>
       <c r="N30" t="s">
         <v>67</v>
@@ -2564,11 +3025,14 @@
       <c r="A31" t="s">
         <v>28</v>
       </c>
+      <c r="B31" t="s">
+        <v>272</v>
+      </c>
       <c r="C31" t="s">
         <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -2595,7 +3059,7 @@
         <v>66</v>
       </c>
       <c r="M31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N31" t="s">
         <v>66</v>
@@ -2611,6 +3075,9 @@
       <c r="A32" t="s">
         <v>29</v>
       </c>
+      <c r="B32" t="s">
+        <v>273</v>
+      </c>
       <c r="C32" t="s">
         <v>66</v>
       </c>
@@ -2621,7 +3088,7 @@
         <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="G32" t="s">
         <v>67</v>
@@ -2636,13 +3103,13 @@
         <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N32" t="s">
         <v>66</v>
@@ -2658,11 +3125,14 @@
       <c r="A33" t="s">
         <v>30</v>
       </c>
+      <c r="B33" t="s">
+        <v>274</v>
+      </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>318</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -2674,7 +3144,7 @@
         <v>67</v>
       </c>
       <c r="H33" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I33" t="s">
         <v>66</v>
@@ -2683,19 +3153,19 @@
         <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L33" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33" t="s">
         <v>74</v>
-      </c>
-      <c r="M33" t="s">
-        <v>75</v>
       </c>
       <c r="N33" t="s">
         <v>71</v>
       </c>
       <c r="O33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P33" t="s">
         <v>71</v>
@@ -2705,11 +3175,14 @@
       <c r="A34" t="s">
         <v>31</v>
       </c>
+      <c r="B34" t="s">
+        <v>275</v>
+      </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
         <v>66</v>
@@ -2721,7 +3194,7 @@
         <v>67</v>
       </c>
       <c r="H34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s">
         <v>66</v>
@@ -2730,19 +3203,19 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L34" t="s">
+        <v>73</v>
+      </c>
+      <c r="M34" t="s">
         <v>74</v>
       </c>
-      <c r="M34" t="s">
-        <v>75</v>
-      </c>
       <c r="N34" t="s">
         <v>66</v>
       </c>
       <c r="O34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P34" t="s">
         <v>67</v>
@@ -2752,23 +3225,26 @@
       <c r="A35" t="s">
         <v>32</v>
       </c>
+      <c r="B35" t="s">
+        <v>276</v>
+      </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
         <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s">
         <v>66</v>
@@ -2777,13 +3253,13 @@
         <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="L35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35" t="s">
         <v>74</v>
-      </c>
-      <c r="M35" t="s">
-        <v>75</v>
       </c>
       <c r="N35" t="s">
         <v>66</v>
@@ -2799,11 +3275,14 @@
       <c r="A36" t="s">
         <v>33</v>
       </c>
+      <c r="B36" t="s">
+        <v>277</v>
+      </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
         <v>66</v>
@@ -2815,7 +3294,7 @@
         <v>67</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s">
         <v>66</v>
@@ -2824,13 +3303,13 @@
         <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="L36" t="s">
+        <v>73</v>
+      </c>
+      <c r="M36" t="s">
         <v>74</v>
-      </c>
-      <c r="M36" t="s">
-        <v>75</v>
       </c>
       <c r="N36" t="s">
         <v>67</v>
@@ -2846,6 +3325,9 @@
       <c r="A37" t="s">
         <v>34</v>
       </c>
+      <c r="B37" t="s">
+        <v>278</v>
+      </c>
       <c r="C37" t="s">
         <v>66</v>
       </c>
@@ -2877,13 +3359,13 @@
         <v>66</v>
       </c>
       <c r="M37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N37" t="s">
         <v>66</v>
       </c>
       <c r="O37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P37" t="s">
         <v>71</v>
@@ -2893,11 +3375,14 @@
       <c r="A38" t="s">
         <v>35</v>
       </c>
+      <c r="B38" t="s">
+        <v>279</v>
+      </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E38" t="s">
         <v>66</v>
@@ -2909,7 +3394,7 @@
         <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s">
         <v>66</v>
@@ -2924,13 +3409,13 @@
         <v>66</v>
       </c>
       <c r="M38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N38" t="s">
         <v>66</v>
       </c>
       <c r="O38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P38" t="s">
         <v>67</v>
@@ -2940,11 +3425,14 @@
       <c r="A39" t="s">
         <v>36</v>
       </c>
+      <c r="B39" t="s">
+        <v>280</v>
+      </c>
       <c r="C39" t="s">
         <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
         <v>66</v>
@@ -2971,7 +3459,7 @@
         <v>66</v>
       </c>
       <c r="M39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N39" t="s">
         <v>66</v>
@@ -2987,11 +3475,14 @@
       <c r="A40" t="s">
         <v>37</v>
       </c>
+      <c r="B40" t="s">
+        <v>281</v>
+      </c>
       <c r="C40" t="s">
         <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
         <v>66</v>
@@ -3018,13 +3509,13 @@
         <v>66</v>
       </c>
       <c r="M40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N40" t="s">
         <v>66</v>
       </c>
       <c r="O40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P40" t="s">
         <v>67</v>
@@ -3034,11 +3525,14 @@
       <c r="A41" t="s">
         <v>38</v>
       </c>
+      <c r="B41" t="s">
+        <v>282</v>
+      </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>316</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
         <v>66</v>
@@ -3050,7 +3544,7 @@
         <v>67</v>
       </c>
       <c r="H41" t="s">
-        <v>184</v>
+        <v>322</v>
       </c>
       <c r="I41" t="s">
         <v>66</v>
@@ -3059,13 +3553,13 @@
         <v>4</v>
       </c>
       <c r="K41" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N41" t="s">
         <v>67</v>
@@ -3081,11 +3575,14 @@
       <c r="A42" t="s">
         <v>39</v>
       </c>
+      <c r="B42" t="s">
+        <v>283</v>
+      </c>
       <c r="C42" t="s">
         <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
         <v>66</v>
@@ -3112,13 +3609,13 @@
         <v>66</v>
       </c>
       <c r="M42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N42" t="s">
         <v>67</v>
       </c>
       <c r="O42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P42" t="s">
         <v>67</v>
@@ -3128,11 +3625,14 @@
       <c r="A43" t="s">
         <v>40</v>
       </c>
+      <c r="B43" t="s">
+        <v>284</v>
+      </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="E43" t="s">
         <v>66</v>
@@ -3144,7 +3644,7 @@
         <v>67</v>
       </c>
       <c r="H43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I43" t="s">
         <v>66</v>
@@ -3153,13 +3653,13 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N43" t="s">
         <v>66</v>
@@ -3175,11 +3675,14 @@
       <c r="A44" t="s">
         <v>41</v>
       </c>
+      <c r="B44" t="s">
+        <v>285</v>
+      </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
         <v>66</v>
@@ -3191,7 +3694,7 @@
         <v>67</v>
       </c>
       <c r="H44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s">
         <v>66</v>
@@ -3200,13 +3703,13 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>93</v>
+        <v>324</v>
       </c>
       <c r="L44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N44" t="s">
         <v>71</v>
@@ -3222,11 +3725,14 @@
       <c r="A45" t="s">
         <v>42</v>
       </c>
+      <c r="B45" t="s">
+        <v>286</v>
+      </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
         <v>66</v>
@@ -3238,7 +3744,7 @@
         <v>67</v>
       </c>
       <c r="H45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s">
         <v>66</v>
@@ -3247,19 +3753,19 @@
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="L45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N45" t="s">
         <v>66</v>
       </c>
       <c r="O45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P45" t="s">
         <v>71</v>
@@ -3269,11 +3775,14 @@
       <c r="A46" t="s">
         <v>43</v>
       </c>
+      <c r="B46" t="s">
+        <v>287</v>
+      </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
         <v>66</v>
@@ -3285,7 +3794,7 @@
         <v>67</v>
       </c>
       <c r="H46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s">
         <v>66</v>
@@ -3294,19 +3803,19 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N46" t="s">
         <v>66</v>
       </c>
       <c r="O46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P46" t="s">
         <v>71</v>
@@ -3316,11 +3825,14 @@
       <c r="A47" t="s">
         <v>44</v>
       </c>
+      <c r="B47" t="s">
+        <v>288</v>
+      </c>
       <c r="C47" t="s">
         <v>66</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
         <v>66</v>
@@ -3347,7 +3859,7 @@
         <v>66</v>
       </c>
       <c r="M47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N47" t="s">
         <v>67</v>
@@ -3363,14 +3875,17 @@
       <c r="A48" t="s">
         <v>45</v>
       </c>
+      <c r="B48" t="s">
+        <v>289</v>
+      </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="F48" t="s">
         <v>66</v>
@@ -3379,7 +3894,7 @@
         <v>71</v>
       </c>
       <c r="H48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s">
         <v>66</v>
@@ -3388,13 +3903,13 @@
         <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="L48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N48" t="s">
         <v>71</v>
@@ -3410,11 +3925,14 @@
       <c r="A49" t="s">
         <v>46</v>
       </c>
+      <c r="B49" t="s">
+        <v>290</v>
+      </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>316</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
         <v>66</v>
@@ -3426,7 +3944,7 @@
         <v>67</v>
       </c>
       <c r="H49" t="s">
-        <v>188</v>
+        <v>323</v>
       </c>
       <c r="I49" t="s">
         <v>66</v>
@@ -3435,13 +3953,13 @@
         <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="L49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N49" t="s">
         <v>66</v>
@@ -3457,11 +3975,14 @@
       <c r="A50" t="s">
         <v>47</v>
       </c>
+      <c r="B50" t="s">
+        <v>291</v>
+      </c>
       <c r="C50" t="s">
         <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
         <v>66</v>
@@ -3473,7 +3994,7 @@
         <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s">
         <v>66</v>
@@ -3482,13 +4003,13 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>93</v>
+        <v>324</v>
       </c>
       <c r="L50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N50" t="s">
         <v>66</v>
@@ -3504,6 +4025,9 @@
       <c r="A51" t="s">
         <v>48</v>
       </c>
+      <c r="B51" t="s">
+        <v>292</v>
+      </c>
       <c r="C51" t="s">
         <v>66</v>
       </c>
@@ -3514,7 +4038,7 @@
         <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="G51" t="s">
         <v>67</v>
@@ -3529,13 +4053,13 @@
         <v>3</v>
       </c>
       <c r="K51" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L51" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N51" t="s">
         <v>71</v>
@@ -3551,11 +4075,14 @@
       <c r="A52" t="s">
         <v>49</v>
       </c>
+      <c r="B52" t="s">
+        <v>293</v>
+      </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="E52" t="s">
         <v>66</v>
@@ -3567,7 +4094,7 @@
         <v>67</v>
       </c>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I52" t="s">
         <v>66</v>
@@ -3576,19 +4103,19 @@
         <v>2</v>
       </c>
       <c r="K52" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="L52" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="M52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N52" t="s">
         <v>66</v>
       </c>
       <c r="O52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P52" t="s">
         <v>67</v>
@@ -3598,11 +4125,14 @@
       <c r="A53" t="s">
         <v>50</v>
       </c>
+      <c r="B53" t="s">
+        <v>294</v>
+      </c>
       <c r="C53" t="s">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
         <v>66</v>
@@ -3614,7 +4144,7 @@
         <v>67</v>
       </c>
       <c r="H53" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="I53" t="s">
         <v>66</v>
@@ -3623,19 +4153,19 @@
         <v>3</v>
       </c>
       <c r="K53" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="L53" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="M53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N53" t="s">
         <v>66</v>
       </c>
       <c r="O53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P53" t="s">
         <v>67</v>
@@ -3645,11 +4175,14 @@
       <c r="A54" t="s">
         <v>51</v>
       </c>
+      <c r="B54" t="s">
+        <v>295</v>
+      </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E54" t="s">
         <v>66</v>
@@ -3661,7 +4194,7 @@
         <v>67</v>
       </c>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s">
         <v>66</v>
@@ -3670,13 +4203,13 @@
         <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="L54" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="M54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N54" t="s">
         <v>67</v>
@@ -3692,11 +4225,14 @@
       <c r="A55" t="s">
         <v>52</v>
       </c>
+      <c r="B55" t="s">
+        <v>296</v>
+      </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="D55" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
         <v>66</v>
@@ -3708,7 +4244,7 @@
         <v>71</v>
       </c>
       <c r="H55" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I55" t="s">
         <v>66</v>
@@ -3717,13 +4253,13 @@
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="L55" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="M55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N55" t="s">
         <v>67</v>
@@ -3739,11 +4275,14 @@
       <c r="A56" t="s">
         <v>53</v>
       </c>
+      <c r="B56" t="s">
+        <v>297</v>
+      </c>
       <c r="C56" t="s">
         <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="E56" t="s">
         <v>66</v>
@@ -3755,7 +4294,7 @@
         <v>66</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s">
         <v>66</v>
@@ -3764,13 +4303,13 @@
         <v>2</v>
       </c>
       <c r="K56" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="L56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N56" t="s">
         <v>66</v>
@@ -3786,11 +4325,14 @@
       <c r="A57" t="s">
         <v>54</v>
       </c>
+      <c r="B57" t="s">
+        <v>298</v>
+      </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>66</v>
@@ -3802,7 +4344,7 @@
         <v>67</v>
       </c>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s">
         <v>66</v>
@@ -3811,13 +4353,13 @@
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N57" t="s">
         <v>67</v>
@@ -3833,14 +4375,17 @@
       <c r="A58" t="s">
         <v>55</v>
       </c>
+      <c r="B58" t="s">
+        <v>299</v>
+      </c>
       <c r="C58" t="s">
-        <v>147</v>
+        <v>313</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="F58" t="s">
         <v>66</v>
@@ -3849,7 +4394,7 @@
         <v>71</v>
       </c>
       <c r="H58" t="s">
-        <v>198</v>
+        <v>323</v>
       </c>
       <c r="I58" t="s">
         <v>66</v>
@@ -3858,13 +4403,13 @@
         <v>4</v>
       </c>
       <c r="K58" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="L58" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="M58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N58" t="s">
         <v>67</v>
@@ -3880,6 +4425,9 @@
       <c r="A59" t="s">
         <v>56</v>
       </c>
+      <c r="B59" t="s">
+        <v>300</v>
+      </c>
       <c r="C59" t="s">
         <v>66</v>
       </c>
@@ -3911,7 +4459,7 @@
         <v>66</v>
       </c>
       <c r="M59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N59" t="s">
         <v>71</v>
@@ -3927,11 +4475,14 @@
       <c r="A60" t="s">
         <v>57</v>
       </c>
+      <c r="B60" t="s">
+        <v>301</v>
+      </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>66</v>
@@ -3943,7 +4494,7 @@
         <v>67</v>
       </c>
       <c r="H60" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I60" t="s">
         <v>66</v>
@@ -3952,13 +4503,13 @@
         <v>3</v>
       </c>
       <c r="K60" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="L60" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="M60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N60" t="s">
         <v>67</v>
@@ -3974,11 +4525,14 @@
       <c r="A61" t="s">
         <v>58</v>
       </c>
+      <c r="B61" t="s">
+        <v>302</v>
+      </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="E61" t="s">
         <v>66</v>
@@ -3990,7 +4544,7 @@
         <v>66</v>
       </c>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s">
         <v>66</v>
@@ -3999,13 +4553,13 @@
         <v>66</v>
       </c>
       <c r="K61" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N61" t="s">
         <v>66</v>
@@ -4021,14 +4575,17 @@
       <c r="A62" t="s">
         <v>59</v>
       </c>
+      <c r="B62" t="s">
+        <v>303</v>
+      </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="F62" t="s">
         <v>66</v>
@@ -4037,22 +4594,22 @@
         <v>71</v>
       </c>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="J62" s="9">
         <v>4</v>
       </c>
       <c r="K62" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L62" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="M62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N62" t="s">
         <v>71</v>
@@ -4068,11 +4625,14 @@
       <c r="A63" t="s">
         <v>60</v>
       </c>
+      <c r="B63" t="s">
+        <v>304</v>
+      </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
         <v>66</v>
@@ -4087,25 +4647,25 @@
         <v>66</v>
       </c>
       <c r="I63" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="J63" s="9">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L63" t="s">
         <v>69</v>
       </c>
       <c r="M63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N63" t="s">
         <v>71</v>
       </c>
       <c r="O63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P63" t="s">
         <v>71</v>
@@ -4115,11 +4675,14 @@
       <c r="A64" t="s">
         <v>61</v>
       </c>
+      <c r="B64" t="s">
+        <v>305</v>
+      </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
         <v>66</v>
@@ -4131,7 +4694,7 @@
         <v>67</v>
       </c>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I64" t="s">
         <v>66</v>
@@ -4140,13 +4703,13 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N64" t="s">
         <v>66</v>
@@ -4162,6 +4725,9 @@
       <c r="A65" t="s">
         <v>62</v>
       </c>
+      <c r="B65" t="s">
+        <v>306</v>
+      </c>
       <c r="C65" t="s">
         <v>66</v>
       </c>
@@ -4172,7 +4738,7 @@
         <v>66</v>
       </c>
       <c r="F65" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G65" t="s">
         <v>67</v>
@@ -4193,13 +4759,13 @@
         <v>66</v>
       </c>
       <c r="M65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N65" t="s">
         <v>67</v>
       </c>
       <c r="O65" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="P65" t="s">
         <v>67</v>
@@ -4209,6 +4775,9 @@
       <c r="A66" t="s">
         <v>63</v>
       </c>
+      <c r="B66" t="s">
+        <v>307</v>
+      </c>
       <c r="C66" t="s">
         <v>66</v>
       </c>
@@ -4216,10 +4785,10 @@
         <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F66" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G66" t="s">
         <v>67</v>
@@ -4240,7 +4809,7 @@
         <v>66</v>
       </c>
       <c r="M66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N66" t="s">
         <v>71</v>
@@ -4256,11 +4825,14 @@
       <c r="A67" t="s">
         <v>64</v>
       </c>
+      <c r="B67" t="s">
+        <v>308</v>
+      </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="D67" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E67" t="s">
         <v>66</v>
@@ -4272,7 +4844,7 @@
         <v>67</v>
       </c>
       <c r="H67" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I67" t="s">
         <v>66</v>
@@ -4281,13 +4853,13 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L67" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="M67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N67" t="s">
         <v>66</v>
@@ -4303,6 +4875,9 @@
       <c r="A68" t="s">
         <v>65</v>
       </c>
+      <c r="B68" t="s">
+        <v>309</v>
+      </c>
       <c r="C68" t="s">
         <v>66</v>
       </c>
@@ -4313,7 +4888,7 @@
         <v>66</v>
       </c>
       <c r="F68" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="G68" t="s">
         <v>71</v>
@@ -4328,19 +4903,19 @@
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="L68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N68" t="s">
         <v>66</v>
       </c>
       <c r="O68" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P68" t="s">
         <v>67</v>
@@ -4356,9 +4931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4371,100 +4946,100 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
         <v>66</v>
@@ -4472,147 +5047,147 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -4626,257 +5201,257 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
         <v>129</v>
-      </c>
-      <c r="E22" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
         <v>66</v>
@@ -4884,136 +5459,136 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
         <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
@@ -5022,12 +5597,12 @@
         <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
@@ -5041,35 +5616,35 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
@@ -5083,13 +5658,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
         <v>66</v>
@@ -5097,100 +5672,100 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D55" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
       <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="D56" t="s">
-        <v>129</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D58" t="s">
         <v>66</v>
@@ -5198,128 +5773,128 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D59" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D60" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D61" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D63" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s">
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D65" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D67" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -5330,10 +5905,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E68" s="11"/>
     </row>
@@ -5345,13 +5920,13 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D69" t="s">
         <v>66</v>
       </c>
       <c r="E69" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -5362,10 +5937,10 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -5376,7 +5951,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="D71" t="s">
         <v>66</v>
@@ -5390,7 +5965,7 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D72" t="s">
         <v>66</v>
@@ -5404,10 +5979,10 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D73" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -5421,7 +5996,7 @@
         <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -5432,10 +6007,10 @@
         <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D75" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -5446,10 +6021,10 @@
         <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D76" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -5460,10 +6035,10 @@
         <v>2</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E77" s="11"/>
     </row>
@@ -5475,10 +6050,10 @@
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D78" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -5489,10 +6064,10 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D79" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -5503,7 +6078,7 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="D80" t="s">
         <v>66</v>
@@ -5517,13 +6092,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D81" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E81" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -5534,10 +6109,10 @@
         <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D82" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -5548,10 +6123,10 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D83" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -5562,10 +6137,10 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D84" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5576,10 +6151,10 @@
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D85" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5590,10 +6165,10 @@
         <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D86" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -5604,10 +6179,10 @@
         <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="D87" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -5618,10 +6193,10 @@
         <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D88" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5632,10 +6207,10 @@
         <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D89" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -5646,10 +6221,10 @@
         <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D90" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5660,10 +6235,10 @@
         <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D91" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -5674,7 +6249,7 @@
         <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D92" t="s">
         <v>66</v>
@@ -5688,10 +6263,10 @@
         <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D93" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -5702,10 +6277,10 @@
         <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D94" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -5716,13 +6291,13 @@
         <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D95" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E95" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5733,7 +6308,7 @@
         <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D96" t="s">
         <v>66</v>
@@ -5747,13 +6322,13 @@
         <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D97" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E97" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -5764,7 +6339,7 @@
         <v>41</v>
       </c>
       <c r="C98" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D98" t="s">
         <v>66</v>
@@ -5781,7 +6356,7 @@
         <v>66</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -5792,10 +6367,10 @@
         <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D100" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -5806,10 +6381,10 @@
         <v>48</v>
       </c>
       <c r="C101" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D101" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -5820,10 +6395,10 @@
         <v>52</v>
       </c>
       <c r="C102" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -5834,10 +6409,10 @@
         <v>54</v>
       </c>
       <c r="C103" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D103" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -5848,10 +6423,10 @@
         <v>55</v>
       </c>
       <c r="C104" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D104" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -5862,10 +6437,10 @@
         <v>56</v>
       </c>
       <c r="C105" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D105" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -5876,10 +6451,10 @@
         <v>59</v>
       </c>
       <c r="C106" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D106" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -5890,13 +6465,13 @@
         <v>62</v>
       </c>
       <c r="C107" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D107" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E107" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -5907,10 +6482,10 @@
         <v>63</v>
       </c>
       <c r="C108" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D108" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -5921,10 +6496,10 @@
         <v>3</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E109" s="11"/>
     </row>
@@ -5936,10 +6511,10 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D110" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -5950,7 +6525,7 @@
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="D111" t="s">
         <v>66</v>
@@ -5964,7 +6539,7 @@
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="D112" t="s">
         <v>66</v>
@@ -5978,10 +6553,10 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D113" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -5992,10 +6567,10 @@
         <v>4</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E114" s="11"/>
     </row>
@@ -6007,7 +6582,7 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="D115" t="s">
         <v>66</v>
@@ -6021,10 +6596,10 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D116" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -6035,7 +6610,7 @@
         <v>5</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>66</v>
@@ -6050,7 +6625,7 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D118" t="s">
         <v>66</v>
@@ -6064,10 +6639,10 @@
         <v>62</v>
       </c>
       <c r="C119" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D119" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -6078,13 +6653,13 @@
         <v>62</v>
       </c>
       <c r="C120" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D120" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E120" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -6095,7 +6670,7 @@
         <v>6</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>66</v>
@@ -6113,7 +6688,7 @@
         <v>66</v>
       </c>
       <c r="D122" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -6124,10 +6699,10 @@
         <v>10</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E123" s="11"/>
     </row>
@@ -6139,10 +6714,10 @@
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D124" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -6153,10 +6728,10 @@
         <v>26</v>
       </c>
       <c r="C125" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D125" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -6167,10 +6742,10 @@
         <v>52</v>
       </c>
       <c r="C126" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D126" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -6181,10 +6756,10 @@
         <v>34</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E127" s="11"/>
     </row>
@@ -6196,10 +6771,10 @@
         <v>49</v>
       </c>
       <c r="C128" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D128" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -6210,10 +6785,10 @@
         <v>15</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E129" s="11"/>
     </row>
@@ -6225,10 +6800,10 @@
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D130" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -6239,10 +6814,10 @@
         <v>18</v>
       </c>
       <c r="C131" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D131" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -6253,10 +6828,10 @@
         <v>26</v>
       </c>
       <c r="C132" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D132" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -6267,10 +6842,10 @@
         <v>52</v>
       </c>
       <c r="C133" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D133" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -6281,10 +6856,10 @@
         <v>63</v>
       </c>
       <c r="C134" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D134" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -6295,10 +6870,10 @@
         <v>24</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E135" s="11"/>
     </row>
@@ -6310,10 +6885,10 @@
         <v>21</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E136" s="11"/>
     </row>
@@ -6325,10 +6900,10 @@
         <v>18</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E137" s="11"/>
     </row>
@@ -6340,10 +6915,10 @@
         <v>26</v>
       </c>
       <c r="C138" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D138" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -6354,10 +6929,10 @@
         <v>52</v>
       </c>
       <c r="C139" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D139" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -6368,10 +6943,10 @@
         <v>24</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E140" s="11"/>
     </row>
@@ -6383,10 +6958,10 @@
         <v>42</v>
       </c>
       <c r="C141" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D141" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -6397,10 +6972,10 @@
         <v>50</v>
       </c>
       <c r="C142" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D142" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -6411,10 +6986,10 @@
         <v>21</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E143" s="11"/>
     </row>
@@ -6426,10 +7001,10 @@
         <v>24</v>
       </c>
       <c r="C144" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D144" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -6440,10 +7015,10 @@
         <v>26</v>
       </c>
       <c r="C145" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D145" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -6454,10 +7029,10 @@
         <v>39</v>
       </c>
       <c r="C146" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D146" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -6471,7 +7046,7 @@
         <v>66</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E147" s="11"/>
     </row>
@@ -6486,7 +7061,7 @@
         <v>66</v>
       </c>
       <c r="D148" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -6497,10 +7072,10 @@
         <v>24</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E149" s="11"/>
     </row>
@@ -6512,7 +7087,7 @@
         <v>32</v>
       </c>
       <c r="C150" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D150" t="s">
         <v>66</v>
@@ -6526,10 +7101,10 @@
         <v>55</v>
       </c>
       <c r="C151" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D151" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -6540,10 +7115,10 @@
         <v>26</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E152" s="11"/>
     </row>
@@ -6555,10 +7130,10 @@
         <v>24</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E153" s="11"/>
     </row>
@@ -6570,10 +7145,10 @@
         <v>30</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E154" s="11"/>
     </row>
@@ -6585,10 +7160,10 @@
         <v>31</v>
       </c>
       <c r="C155" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D155" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -6599,10 +7174,10 @@
         <v>35</v>
       </c>
       <c r="C156" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D156" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -6613,10 +7188,10 @@
         <v>35</v>
       </c>
       <c r="C157" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D157" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -6627,10 +7202,10 @@
         <v>37</v>
       </c>
       <c r="C158" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D158" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -6641,10 +7216,10 @@
         <v>41</v>
       </c>
       <c r="C159" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D159" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -6655,10 +7230,10 @@
         <v>41</v>
       </c>
       <c r="C160" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D160" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -6669,10 +7244,10 @@
         <v>42</v>
       </c>
       <c r="C161" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D161" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -6683,10 +7258,10 @@
         <v>42</v>
       </c>
       <c r="C162" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D162" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -6697,10 +7272,10 @@
         <v>49</v>
       </c>
       <c r="C163" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D163" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -6711,10 +7286,10 @@
         <v>50</v>
       </c>
       <c r="C164" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D164" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -6725,10 +7300,10 @@
         <v>60</v>
       </c>
       <c r="C165" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D165" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -6739,10 +7314,10 @@
         <v>62</v>
       </c>
       <c r="C166" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D166" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -6753,10 +7328,10 @@
         <v>62</v>
       </c>
       <c r="C167" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D167" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -6767,10 +7342,10 @@
         <v>65</v>
       </c>
       <c r="C168" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D168" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -6781,10 +7356,10 @@
         <v>65</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E169" s="11"/>
     </row>
@@ -6796,10 +7371,10 @@
         <v>52</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E170" s="11"/>
     </row>
@@ -6811,7 +7386,7 @@
         <v>52</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>66</v>
@@ -6826,10 +7401,10 @@
         <v>47</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E172" s="11"/>
     </row>
@@ -6841,10 +7416,10 @@
         <v>62</v>
       </c>
       <c r="C173" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D173" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -6861,4 +7436,568 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="attributs" sheetId="1" r:id="rId1"/>
     <sheet name="relations" sheetId="2" r:id="rId2"/>
     <sheet name="postes" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">relations!$A$1:$E$173</definedName>
+  </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="326">
   <si>
     <t>P1</t>
   </si>
@@ -316,9 +319,6 @@
     <t>Pannonie</t>
   </si>
   <si>
-    <t>Pannonie enitère</t>
-  </si>
-  <si>
     <t>Tarraconaise</t>
   </si>
   <si>
@@ -574,9 +574,6 @@
     <t>Palestine;Dacie;Parthie;Cyrénaïque;Mésopotamie;Judée</t>
   </si>
   <si>
-    <t>Pathie;Mésopotamie</t>
-  </si>
-  <si>
     <t>Dacie;Numidie;Afrique;Pannonie supérieure</t>
   </si>
   <si>
@@ -1013,6 +1010,9 @@
   </si>
   <si>
     <t>Procuratèle;Préfet d'Égypte</t>
+  </si>
+  <si>
+    <t>Parthie;Mésopotamie</t>
   </si>
 </sst>
 </file>
@@ -1495,11 +1495,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,10 +1523,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>80</v>
@@ -1535,10 +1535,10 @@
         <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>82</v>
@@ -1547,25 +1547,25 @@
         <v>83</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>84</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>85</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>86</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>66</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>66</v>
@@ -1676,25 +1676,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
         <v>141</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" t="s">
-        <v>142</v>
       </c>
       <c r="I4" t="s">
         <v>66</v>
@@ -1703,10 +1703,10 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" t="s">
         <v>143</v>
-      </c>
-      <c r="L4" t="s">
-        <v>144</v>
       </c>
       <c r="M4" t="s">
         <v>70</v>
@@ -1726,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -1776,7 +1776,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -1826,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
@@ -1876,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -1926,7 +1926,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -1976,7 +1976,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>66</v>
@@ -1985,10 +1985,10 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
         <v>71</v>
@@ -2003,7 +2003,7 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s">
         <v>73</v>
@@ -2026,13 +2026,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
         <v>66</v>
@@ -2044,7 +2044,7 @@
         <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I11" t="s">
         <v>66</v>
@@ -2053,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s">
         <v>73</v>
@@ -2076,10 +2076,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
         <v>75</v>
@@ -2115,7 +2115,7 @@
         <v>66</v>
       </c>
       <c r="O12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P12" t="s">
         <v>67</v>
@@ -2126,13 +2126,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
         <v>66</v>
@@ -2153,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
         <v>73</v>
@@ -2165,7 +2165,7 @@
         <v>67</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P13" t="s">
         <v>67</v>
@@ -2176,13 +2176,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
         <v>66</v>
@@ -2194,7 +2194,7 @@
         <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I14" t="s">
         <v>66</v>
@@ -2203,7 +2203,7 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
         <v>73</v>
@@ -2226,13 +2226,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
         <v>66</v>
@@ -2244,7 +2244,7 @@
         <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I15" t="s">
         <v>66</v>
@@ -2253,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
         <v>73</v>
@@ -2276,7 +2276,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
@@ -2288,7 +2288,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
         <v>71</v>
@@ -2303,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
         <v>79</v>
@@ -2326,7 +2326,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
@@ -2347,13 +2347,13 @@
         <v>66</v>
       </c>
       <c r="I17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J17" s="9">
         <v>4</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s">
         <v>79</v>
@@ -2376,13 +2376,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
         <v>66</v>
@@ -2403,7 +2403,7 @@
         <v>4</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s">
         <v>73</v>
@@ -2415,7 +2415,7 @@
         <v>67</v>
       </c>
       <c r="O18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P18" t="s">
         <v>67</v>
@@ -2426,13 +2426,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
         <v>66</v>
@@ -2465,7 +2465,7 @@
         <v>67</v>
       </c>
       <c r="O19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P19" t="s">
         <v>67</v>
@@ -2476,13 +2476,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
         <v>66</v>
@@ -2494,7 +2494,7 @@
         <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I20" t="s">
         <v>66</v>
@@ -2503,7 +2503,7 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s">
         <v>73</v>
@@ -2526,13 +2526,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
         <v>66</v>
@@ -2553,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="K21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s">
         <v>73</v>
@@ -2565,7 +2565,7 @@
         <v>67</v>
       </c>
       <c r="O21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P21" t="s">
         <v>67</v>
@@ -2576,10 +2576,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D22" t="s">
         <v>75</v>
@@ -2594,7 +2594,7 @@
         <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I22" t="s">
         <v>66</v>
@@ -2603,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s">
         <v>73</v>
@@ -2615,7 +2615,7 @@
         <v>66</v>
       </c>
       <c r="O22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P22" t="s">
         <v>67</v>
@@ -2626,25 +2626,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" t="s">
         <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I23" t="s">
         <v>66</v>
@@ -2653,10 +2653,10 @@
         <v>3</v>
       </c>
       <c r="K23" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23" t="s">
         <v>160</v>
-      </c>
-      <c r="L23" t="s">
-        <v>161</v>
       </c>
       <c r="M23" t="s">
         <v>74</v>
@@ -2676,13 +2676,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
         <v>66</v>
@@ -2703,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s">
         <v>79</v>
@@ -2715,7 +2715,7 @@
         <v>71</v>
       </c>
       <c r="O24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P24" t="s">
         <v>71</v>
@@ -2726,13 +2726,13 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
         <v>66</v>
@@ -2753,10 +2753,10 @@
         <v>3</v>
       </c>
       <c r="K25" t="s">
+        <v>162</v>
+      </c>
+      <c r="L25" t="s">
         <v>163</v>
-      </c>
-      <c r="L25" t="s">
-        <v>164</v>
       </c>
       <c r="M25" t="s">
         <v>74</v>
@@ -2765,7 +2765,7 @@
         <v>67</v>
       </c>
       <c r="O25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P25" t="s">
         <v>67</v>
@@ -2776,7 +2776,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C26" t="s">
         <v>66</v>
@@ -2788,7 +2788,7 @@
         <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G26" t="s">
         <v>67</v>
@@ -2815,7 +2815,7 @@
         <v>66</v>
       </c>
       <c r="O26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P26" t="s">
         <v>67</v>
@@ -2826,13 +2826,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C27" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
@@ -2865,7 +2865,7 @@
         <v>66</v>
       </c>
       <c r="O27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P27" t="s">
         <v>67</v>
@@ -2876,7 +2876,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -2885,10 +2885,10 @@
         <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G28" t="s">
         <v>67</v>
@@ -2903,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s">
         <v>73</v>
@@ -2915,7 +2915,7 @@
         <v>66</v>
       </c>
       <c r="O28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P28" t="s">
         <v>67</v>
@@ -2926,13 +2926,13 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
         <v>66</v>
@@ -2953,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L29" t="s">
         <v>79</v>
@@ -2965,7 +2965,7 @@
         <v>67</v>
       </c>
       <c r="O29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P29" t="s">
         <v>67</v>
@@ -2976,7 +2976,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -2985,10 +2985,10 @@
         <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G30" t="s">
         <v>67</v>
@@ -3003,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s">
         <v>73</v>
@@ -3026,13 +3026,13 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
         <v>66</v>
@@ -3076,7 +3076,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
@@ -3088,7 +3088,7 @@
         <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G32" t="s">
         <v>67</v>
@@ -3103,10 +3103,10 @@
         <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M32" t="s">
         <v>74</v>
@@ -3126,13 +3126,13 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
         <v>66</v>
@@ -3144,7 +3144,7 @@
         <v>67</v>
       </c>
       <c r="H33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I33" t="s">
         <v>66</v>
@@ -3153,7 +3153,7 @@
         <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L33" t="s">
         <v>73</v>
@@ -3165,7 +3165,7 @@
         <v>71</v>
       </c>
       <c r="O33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P33" t="s">
         <v>71</v>
@@ -3176,13 +3176,13 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>66</v>
@@ -3215,7 +3215,7 @@
         <v>66</v>
       </c>
       <c r="O34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P34" t="s">
         <v>67</v>
@@ -3226,19 +3226,19 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G35" t="s">
         <v>71</v>
@@ -3253,7 +3253,7 @@
         <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L35" t="s">
         <v>73</v>
@@ -3276,13 +3276,13 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s">
         <v>66</v>
@@ -3303,7 +3303,7 @@
         <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L36" t="s">
         <v>73</v>
@@ -3326,7 +3326,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C37" t="s">
         <v>66</v>
@@ -3365,7 +3365,7 @@
         <v>66</v>
       </c>
       <c r="O37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P37" t="s">
         <v>71</v>
@@ -3376,13 +3376,13 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
         <v>66</v>
@@ -3415,7 +3415,7 @@
         <v>66</v>
       </c>
       <c r="O38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P38" t="s">
         <v>67</v>
@@ -3426,13 +3426,13 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C39" t="s">
         <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>66</v>
@@ -3476,13 +3476,13 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C40" t="s">
         <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
         <v>66</v>
@@ -3515,7 +3515,7 @@
         <v>66</v>
       </c>
       <c r="O40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P40" t="s">
         <v>67</v>
@@ -3526,10 +3526,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D41" t="s">
         <v>75</v>
@@ -3544,7 +3544,7 @@
         <v>67</v>
       </c>
       <c r="H41" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I41" t="s">
         <v>66</v>
@@ -3553,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="K41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L41" t="s">
         <v>73</v>
@@ -3576,13 +3576,13 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C42" t="s">
         <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
         <v>66</v>
@@ -3615,7 +3615,7 @@
         <v>67</v>
       </c>
       <c r="O42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P42" t="s">
         <v>67</v>
@@ -3626,13 +3626,13 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E43" t="s">
         <v>66</v>
@@ -3676,13 +3676,13 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C44" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
         <v>66</v>
@@ -3703,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s">
         <v>79</v>
@@ -3726,13 +3726,13 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C45" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E45" t="s">
         <v>66</v>
@@ -3753,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L45" t="s">
         <v>73</v>
@@ -3765,7 +3765,7 @@
         <v>66</v>
       </c>
       <c r="O45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P45" t="s">
         <v>71</v>
@@ -3776,13 +3776,13 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C46" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
         <v>66</v>
@@ -3815,7 +3815,7 @@
         <v>66</v>
       </c>
       <c r="O46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P46" t="s">
         <v>71</v>
@@ -3826,13 +3826,13 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C47" t="s">
         <v>66</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" t="s">
         <v>66</v>
@@ -3876,16 +3876,16 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C48" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F48" t="s">
         <v>66</v>
@@ -3903,7 +3903,7 @@
         <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L48" t="s">
         <v>73</v>
@@ -3926,10 +3926,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C49" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D49" t="s">
         <v>75</v>
@@ -3944,7 +3944,7 @@
         <v>67</v>
       </c>
       <c r="H49" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I49" t="s">
         <v>66</v>
@@ -3953,7 +3953,7 @@
         <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L49" t="s">
         <v>73</v>
@@ -3976,13 +3976,13 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C50" t="s">
         <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>66</v>
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L50" t="s">
         <v>79</v>
@@ -4026,7 +4026,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
@@ -4038,7 +4038,7 @@
         <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G51" t="s">
         <v>67</v>
@@ -4053,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="K51" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M51" t="s">
         <v>88</v>
@@ -4076,10 +4076,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C52" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D52" t="s">
         <v>75</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="K52" t="s">
+        <v>173</v>
+      </c>
+      <c r="L52" t="s">
         <v>174</v>
-      </c>
-      <c r="L52" t="s">
-        <v>175</v>
       </c>
       <c r="M52" t="s">
         <v>88</v>
@@ -4115,7 +4115,7 @@
         <v>66</v>
       </c>
       <c r="O52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P52" t="s">
         <v>67</v>
@@ -4126,10 +4126,10 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C53" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D53" t="s">
         <v>75</v>
@@ -4144,7 +4144,7 @@
         <v>67</v>
       </c>
       <c r="H53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I53" t="s">
         <v>66</v>
@@ -4153,10 +4153,10 @@
         <v>3</v>
       </c>
       <c r="K53" t="s">
+        <v>175</v>
+      </c>
+      <c r="L53" t="s">
         <v>176</v>
-      </c>
-      <c r="L53" t="s">
-        <v>177</v>
       </c>
       <c r="M53" t="s">
         <v>89</v>
@@ -4165,7 +4165,7 @@
         <v>66</v>
       </c>
       <c r="O53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P53" t="s">
         <v>67</v>
@@ -4176,13 +4176,13 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C54" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E54" t="s">
         <v>66</v>
@@ -4203,10 +4203,10 @@
         <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M54" t="s">
         <v>89</v>
@@ -4226,13 +4226,13 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C55" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
         <v>66</v>
@@ -4244,7 +4244,7 @@
         <v>71</v>
       </c>
       <c r="H55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I55" t="s">
         <v>66</v>
@@ -4253,10 +4253,10 @@
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M55" t="s">
         <v>89</v>
@@ -4276,13 +4276,13 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C56" t="s">
         <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E56" t="s">
         <v>66</v>
@@ -4303,7 +4303,7 @@
         <v>2</v>
       </c>
       <c r="K56" t="s">
-        <v>180</v>
+        <v>325</v>
       </c>
       <c r="L56" t="s">
         <v>79</v>
@@ -4326,13 +4326,13 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C57" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>66</v>
@@ -4376,16 +4376,16 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C58" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D58" t="s">
         <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F58" t="s">
         <v>66</v>
@@ -4394,7 +4394,7 @@
         <v>71</v>
       </c>
       <c r="H58" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I58" t="s">
         <v>66</v>
@@ -4403,10 +4403,10 @@
         <v>4</v>
       </c>
       <c r="K58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M58" t="s">
         <v>89</v>
@@ -4426,7 +4426,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -4476,13 +4476,13 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C60" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E60" t="s">
         <v>66</v>
@@ -4494,7 +4494,7 @@
         <v>67</v>
       </c>
       <c r="H60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I60" t="s">
         <v>66</v>
@@ -4503,10 +4503,10 @@
         <v>3</v>
       </c>
       <c r="K60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M60" t="s">
         <v>89</v>
@@ -4526,13 +4526,13 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E61" t="s">
         <v>66</v>
@@ -4553,7 +4553,7 @@
         <v>66</v>
       </c>
       <c r="K61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L61" t="s">
         <v>73</v>
@@ -4576,16 +4576,16 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D62" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E62" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F62" t="s">
         <v>66</v>
@@ -4597,16 +4597,16 @@
         <v>77</v>
       </c>
       <c r="I62" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J62" s="9">
         <v>4</v>
       </c>
       <c r="K62" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M62" t="s">
         <v>89</v>
@@ -4626,13 +4626,13 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
         <v>66</v>
@@ -4647,13 +4647,13 @@
         <v>66</v>
       </c>
       <c r="I63" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J63" s="9">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L63" t="s">
         <v>69</v>
@@ -4665,7 +4665,7 @@
         <v>71</v>
       </c>
       <c r="O63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P63" t="s">
         <v>71</v>
@@ -4676,13 +4676,13 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E64" t="s">
         <v>66</v>
@@ -4703,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L64" t="s">
         <v>79</v>
@@ -4726,7 +4726,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
@@ -4738,7 +4738,7 @@
         <v>66</v>
       </c>
       <c r="F65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G65" t="s">
         <v>67</v>
@@ -4765,7 +4765,7 @@
         <v>67</v>
       </c>
       <c r="O65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P65" t="s">
         <v>67</v>
@@ -4776,7 +4776,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C66" t="s">
         <v>66</v>
@@ -4785,10 +4785,10 @@
         <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G66" t="s">
         <v>67</v>
@@ -4826,13 +4826,13 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C67" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E67" t="s">
         <v>66</v>
@@ -4844,7 +4844,7 @@
         <v>67</v>
       </c>
       <c r="H67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I67" t="s">
         <v>66</v>
@@ -4853,10 +4853,10 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M67" t="s">
         <v>89</v>
@@ -4876,7 +4876,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C68" t="s">
         <v>66</v>
@@ -4888,7 +4888,7 @@
         <v>66</v>
       </c>
       <c r="F68" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G68" t="s">
         <v>71</v>
@@ -4903,10 +4903,10 @@
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M68" t="s">
         <v>89</v>
@@ -4915,7 +4915,7 @@
         <v>66</v>
       </c>
       <c r="O68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P68" t="s">
         <v>67</v>
@@ -4933,7 +4933,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4946,100 +4946,100 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>137</v>
-      </c>
       <c r="C1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
         <v>66</v>
@@ -5047,147 +5047,147 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -5201,257 +5201,257 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
         <v>66</v>
@@ -5459,136 +5459,136 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s">
         <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
@@ -5597,12 +5597,12 @@
         <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
@@ -5616,35 +5616,35 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
@@ -5658,13 +5658,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
         <v>66</v>
@@ -5672,100 +5672,100 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D58" t="s">
         <v>66</v>
@@ -5773,128 +5773,128 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -5905,10 +5905,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E68" s="11"/>
     </row>
@@ -5920,13 +5920,13 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D69" t="s">
         <v>66</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -5937,10 +5937,10 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -5951,7 +5951,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D71" t="s">
         <v>66</v>
@@ -5965,7 +5965,7 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" t="s">
         <v>66</v>
@@ -5979,10 +5979,10 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -5996,7 +5996,7 @@
         <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -6007,10 +6007,10 @@
         <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -6021,10 +6021,10 @@
         <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -6035,10 +6035,10 @@
         <v>2</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E77" s="11"/>
     </row>
@@ -6050,10 +6050,10 @@
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -6064,10 +6064,10 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -6078,7 +6078,7 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D80" t="s">
         <v>66</v>
@@ -6092,13 +6092,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -6109,10 +6109,10 @@
         <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -6123,10 +6123,10 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -6137,10 +6137,10 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -6151,10 +6151,10 @@
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -6165,10 +6165,10 @@
         <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -6179,10 +6179,10 @@
         <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -6193,10 +6193,10 @@
         <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -6207,10 +6207,10 @@
         <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -6221,10 +6221,10 @@
         <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -6235,10 +6235,10 @@
         <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -6249,7 +6249,7 @@
         <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D92" t="s">
         <v>66</v>
@@ -6263,10 +6263,10 @@
         <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -6277,10 +6277,10 @@
         <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -6291,13 +6291,13 @@
         <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -6308,7 +6308,7 @@
         <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D96" t="s">
         <v>66</v>
@@ -6322,13 +6322,13 @@
         <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -6339,7 +6339,7 @@
         <v>41</v>
       </c>
       <c r="C98" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D98" t="s">
         <v>66</v>
@@ -6356,7 +6356,7 @@
         <v>66</v>
       </c>
       <c r="D99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -6367,10 +6367,10 @@
         <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D100" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -6381,10 +6381,10 @@
         <v>48</v>
       </c>
       <c r="C101" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -6395,10 +6395,10 @@
         <v>52</v>
       </c>
       <c r="C102" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -6409,10 +6409,10 @@
         <v>54</v>
       </c>
       <c r="C103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -6423,10 +6423,10 @@
         <v>55</v>
       </c>
       <c r="C104" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D104" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -6437,10 +6437,10 @@
         <v>56</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -6451,10 +6451,10 @@
         <v>59</v>
       </c>
       <c r="C106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -6465,13 +6465,13 @@
         <v>62</v>
       </c>
       <c r="C107" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E107" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -6482,10 +6482,10 @@
         <v>63</v>
       </c>
       <c r="C108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D108" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -6496,10 +6496,10 @@
         <v>3</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E109" s="11"/>
     </row>
@@ -6511,10 +6511,10 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D110" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -6525,7 +6525,7 @@
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D111" t="s">
         <v>66</v>
@@ -6539,7 +6539,7 @@
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D112" t="s">
         <v>66</v>
@@ -6553,10 +6553,10 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -6567,10 +6567,10 @@
         <v>4</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E114" s="11"/>
     </row>
@@ -6582,7 +6582,7 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D115" t="s">
         <v>66</v>
@@ -6596,10 +6596,10 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -6610,7 +6610,7 @@
         <v>5</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>66</v>
@@ -6625,7 +6625,7 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D118" t="s">
         <v>66</v>
@@ -6639,10 +6639,10 @@
         <v>62</v>
       </c>
       <c r="C119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -6653,13 +6653,13 @@
         <v>62</v>
       </c>
       <c r="C120" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E120" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -6670,7 +6670,7 @@
         <v>6</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>66</v>
@@ -6688,7 +6688,7 @@
         <v>66</v>
       </c>
       <c r="D122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -6699,10 +6699,10 @@
         <v>10</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E123" s="11"/>
     </row>
@@ -6714,10 +6714,10 @@
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -6728,10 +6728,10 @@
         <v>26</v>
       </c>
       <c r="C125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -6742,10 +6742,10 @@
         <v>52</v>
       </c>
       <c r="C126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -6756,10 +6756,10 @@
         <v>34</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E127" s="11"/>
     </row>
@@ -6771,10 +6771,10 @@
         <v>49</v>
       </c>
       <c r="C128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D128" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -6785,10 +6785,10 @@
         <v>15</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E129" s="11"/>
     </row>
@@ -6800,10 +6800,10 @@
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D130" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -6814,10 +6814,10 @@
         <v>18</v>
       </c>
       <c r="C131" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -6828,10 +6828,10 @@
         <v>26</v>
       </c>
       <c r="C132" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D132" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -6842,10 +6842,10 @@
         <v>52</v>
       </c>
       <c r="C133" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D133" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -6856,10 +6856,10 @@
         <v>63</v>
       </c>
       <c r="C134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -6870,10 +6870,10 @@
         <v>24</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E135" s="11"/>
     </row>
@@ -6885,10 +6885,10 @@
         <v>21</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E136" s="11"/>
     </row>
@@ -6900,10 +6900,10 @@
         <v>18</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E137" s="11"/>
     </row>
@@ -6915,10 +6915,10 @@
         <v>26</v>
       </c>
       <c r="C138" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D138" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -6929,10 +6929,10 @@
         <v>52</v>
       </c>
       <c r="C139" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D139" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -6943,10 +6943,10 @@
         <v>24</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E140" s="11"/>
     </row>
@@ -6958,10 +6958,10 @@
         <v>42</v>
       </c>
       <c r="C141" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D141" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -6972,10 +6972,10 @@
         <v>50</v>
       </c>
       <c r="C142" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D142" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -6986,10 +6986,10 @@
         <v>21</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E143" s="11"/>
     </row>
@@ -7001,10 +7001,10 @@
         <v>24</v>
       </c>
       <c r="C144" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -7015,10 +7015,10 @@
         <v>26</v>
       </c>
       <c r="C145" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D145" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -7029,10 +7029,10 @@
         <v>39</v>
       </c>
       <c r="C146" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D146" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -7046,7 +7046,7 @@
         <v>66</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E147" s="11"/>
     </row>
@@ -7061,7 +7061,7 @@
         <v>66</v>
       </c>
       <c r="D148" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -7072,10 +7072,10 @@
         <v>24</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E149" s="11"/>
     </row>
@@ -7087,7 +7087,7 @@
         <v>32</v>
       </c>
       <c r="C150" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D150" t="s">
         <v>66</v>
@@ -7101,10 +7101,10 @@
         <v>55</v>
       </c>
       <c r="C151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D151" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -7115,10 +7115,10 @@
         <v>26</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E152" s="11"/>
     </row>
@@ -7130,10 +7130,10 @@
         <v>24</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E153" s="11"/>
     </row>
@@ -7145,10 +7145,10 @@
         <v>30</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E154" s="11"/>
     </row>
@@ -7160,10 +7160,10 @@
         <v>31</v>
       </c>
       <c r="C155" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D155" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -7174,10 +7174,10 @@
         <v>35</v>
       </c>
       <c r="C156" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -7188,10 +7188,10 @@
         <v>35</v>
       </c>
       <c r="C157" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D157" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -7202,10 +7202,10 @@
         <v>37</v>
       </c>
       <c r="C158" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D158" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -7216,10 +7216,10 @@
         <v>41</v>
       </c>
       <c r="C159" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D159" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -7230,10 +7230,10 @@
         <v>41</v>
       </c>
       <c r="C160" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -7244,10 +7244,10 @@
         <v>42</v>
       </c>
       <c r="C161" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D161" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -7258,10 +7258,10 @@
         <v>42</v>
       </c>
       <c r="C162" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D162" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -7272,10 +7272,10 @@
         <v>49</v>
       </c>
       <c r="C163" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D163" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -7286,10 +7286,10 @@
         <v>50</v>
       </c>
       <c r="C164" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D164" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -7300,10 +7300,10 @@
         <v>60</v>
       </c>
       <c r="C165" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D165" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -7314,10 +7314,10 @@
         <v>62</v>
       </c>
       <c r="C166" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D166" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -7328,10 +7328,10 @@
         <v>62</v>
       </c>
       <c r="C167" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D167" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -7342,10 +7342,10 @@
         <v>65</v>
       </c>
       <c r="C168" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D168" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -7356,10 +7356,10 @@
         <v>65</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E169" s="11"/>
     </row>
@@ -7371,10 +7371,10 @@
         <v>52</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E170" s="11"/>
     </row>
@@ -7386,7 +7386,7 @@
         <v>52</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>66</v>
@@ -7401,10 +7401,10 @@
         <v>47</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E172" s="11"/>
     </row>
@@ -7416,10 +7416,10 @@
         <v>62</v>
       </c>
       <c r="C173" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D173" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -7442,9 +7442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7459,162 +7459,162 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>198</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7622,99 +7622,99 @@
         <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7722,19 +7722,19 @@
         <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7742,259 +7742,259 @@
         <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
         <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
         <v>223</v>
-      </c>
-      <c r="B16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" t="s">
-        <v>225</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C22" t="s">
         <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C23" t="s">
         <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C24" t="s">
         <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s">
         <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s">
         <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E26">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C27" t="s">
         <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="attributs" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="346">
   <si>
     <t>Id</t>
   </si>
@@ -604,6 +604,9 @@
     <t>Frontin</t>
   </si>
   <si>
+    <t>Bretagne;Germanie inférieure;Asie</t>
+  </si>
+  <si>
     <t>Militaire;Politico-militaire</t>
   </si>
   <si>
@@ -931,15 +934,9 @@
     <t>Cilicie</t>
   </si>
   <si>
-    <t xml:space="preserve">Pannonie </t>
-  </si>
-  <si>
     <t>Germanie;Mésie;Pannonie;Dacie;Germanie;Pannonie;Syrie</t>
   </si>
   <si>
-    <t>Militaire;Militaire;Militaire;Militaire;Militaire;Militaire;Polotico-militaire</t>
-  </si>
-  <si>
     <t>Personnel;Politique</t>
   </si>
   <si>
@@ -949,9 +946,6 @@
     <t>Militaire;Militaire</t>
   </si>
   <si>
-    <t>Politique ;Politico-militaire</t>
-  </si>
-  <si>
     <t>Politique;Politico-militaire</t>
   </si>
   <si>
@@ -964,9 +958,6 @@
     <t>Dacie;Dacie</t>
   </si>
   <si>
-    <t>Grèce;Mésie ;Dacie</t>
-  </si>
-  <si>
     <t>Politique;Politico-militaire;Politico-militaire</t>
   </si>
   <si>
@@ -1003,12 +994,6 @@
     <t>Politique;Politique;Personnel</t>
   </si>
   <si>
-    <t>Bertagne;Germanie inférieure;Asie</t>
-  </si>
-  <si>
-    <t>Politico-militaireMilitaire;Politico-militaire</t>
-  </si>
-  <si>
     <t>Mésie supérieure;Pannonie;Dacie</t>
   </si>
   <si>
@@ -1039,9 +1024,6 @@
     <t>Mésie;Dacie;Afrique;Germanie supérieure;Syrie;Afrique</t>
   </si>
   <si>
-    <t>;Militaire;Militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire</t>
-  </si>
-  <si>
     <t>Achaïe;Germanie;Belgique;Germanie;Mésie supérieure;Dacie</t>
   </si>
   <si>
@@ -1051,31 +1033,40 @@
     <t>Dacie;Parthie;Palestine;Cyrénaïque;Mésopotamie;Judée</t>
   </si>
   <si>
-    <t>Militiaire;Militiaire;Politico-militaire;Militaire;Militaire;Politico-militaire</t>
-  </si>
-  <si>
     <t>Afrique;Dacie;Mésie;Numidie;Pannonie supérieure;Afrique</t>
   </si>
   <si>
     <t>Politico-militaire;Militaire;Militaire;Militaire;Politico-militaire;Politico-militaire</t>
   </si>
   <si>
-    <t>Asie ;Germanie;Asie;Cappadoce;Arménie;Syrie;Afrique</t>
-  </si>
-  <si>
-    <t>Politique;Militaire ;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire</t>
-  </si>
-  <si>
     <t>Mésie;Dacie;Judée;Cappadoce;Galatie;Syrie;Dacie</t>
   </si>
   <si>
-    <t>Militaire;Militaire:Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire</t>
-  </si>
-  <si>
     <t>Asie;Syrie;Syrie;Bretagne;Bétique;Narbonnaise;Afrique</t>
   </si>
   <si>
-    <t>Politique;Militaire;Militiaire;Politico-militaire;Politico-militiare;Politico-militiaire;Politico-militaire</t>
+    <t>Asie;Germanie;Asie;Cappadoce;Arménie;Syrie;Afrique</t>
+  </si>
+  <si>
+    <t>Grèce;Mésie;Dacie</t>
+  </si>
+  <si>
+    <t>Militaire;Militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire</t>
+  </si>
+  <si>
+    <t>Politique;Militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire</t>
+  </si>
+  <si>
+    <t>Politique;Militaire;Militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire</t>
+  </si>
+  <si>
+    <t>Militaire;Militaire;Politico-militaire;Militaire;Militaire;Politico-militaire</t>
+  </si>
+  <si>
+    <t>Militaire;Militaire;Militaire;Militaire;Militaire;Militaire;Politico-militaire</t>
+  </si>
+  <si>
+    <t>Militaire;Militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
@@ -1812,7 +1803,7 @@
         <v>301</v>
       </c>
       <c r="L4" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
@@ -1859,7 +1850,7 @@
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
@@ -1909,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
@@ -1959,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L7" t="s">
         <v>23</v>
@@ -2012,7 +2003,7 @@
         <v>39</v>
       </c>
       <c r="L8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M8" t="s">
         <v>24</v>
@@ -2112,7 +2103,7 @@
         <v>45</v>
       </c>
       <c r="L10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M10" t="s">
         <v>47</v>
@@ -2159,10 +2150,10 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L11" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M11" t="s">
         <v>47</v>
@@ -2259,10 +2250,10 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="L13" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M13" t="s">
         <v>47</v>
@@ -2309,10 +2300,10 @@
         <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M14" t="s">
         <v>47</v>
@@ -2359,10 +2350,10 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M15" t="s">
         <v>47</v>
@@ -2412,7 +2403,7 @@
         <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M16" t="s">
         <v>47</v>
@@ -2459,10 +2450,10 @@
         <v>5</v>
       </c>
       <c r="K17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L17" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M17" t="s">
         <v>47</v>
@@ -2512,7 +2503,7 @@
         <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M18" t="s">
         <v>47</v>
@@ -2609,10 +2600,10 @@
         <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="L20" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M20" t="s">
         <v>47</v>
@@ -2659,10 +2650,10 @@
         <v>3</v>
       </c>
       <c r="K21" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L21" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M21" t="s">
         <v>47</v>
@@ -2709,10 +2700,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L22" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M22" t="s">
         <v>47</v>
@@ -2759,10 +2750,10 @@
         <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M23" t="s">
         <v>47</v>
@@ -2809,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s">
         <v>74</v>
@@ -2859,10 +2850,10 @@
         <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L25" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M25" t="s">
         <v>47</v>
@@ -3012,7 +3003,7 @@
         <v>115</v>
       </c>
       <c r="L28" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M28" t="s">
         <v>47</v>
@@ -3062,7 +3053,7 @@
         <v>118</v>
       </c>
       <c r="L29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M29" t="s">
         <v>47</v>
@@ -3112,7 +3103,7 @@
         <v>122</v>
       </c>
       <c r="L30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s">
         <v>47</v>
@@ -3209,7 +3200,7 @@
         <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L32" t="s">
         <v>128</v>
@@ -3259,10 +3250,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L33" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M33" t="s">
         <v>47</v>
@@ -3362,7 +3353,7 @@
         <v>137</v>
       </c>
       <c r="L35" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s">
         <v>47</v>
@@ -3412,7 +3403,7 @@
         <v>141</v>
       </c>
       <c r="L36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M36" t="s">
         <v>47</v>
@@ -3659,10 +3650,10 @@
         <v>3</v>
       </c>
       <c r="K41" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s">
         <v>148</v>
@@ -3862,7 +3853,7 @@
         <v>168</v>
       </c>
       <c r="L45" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M45" t="s">
         <v>148</v>
@@ -4012,7 +4003,7 @@
         <v>176</v>
       </c>
       <c r="L48" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M48" t="s">
         <v>144</v>
@@ -4062,7 +4053,7 @@
         <v>180</v>
       </c>
       <c r="L49" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M49" t="s">
         <v>148</v>
@@ -4162,7 +4153,7 @@
         <v>185</v>
       </c>
       <c r="L51" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M51" t="s">
         <v>144</v>
@@ -4209,10 +4200,10 @@
         <v>2</v>
       </c>
       <c r="K52" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M52" t="s">
         <v>144</v>
@@ -4259,10 +4250,10 @@
         <v>3</v>
       </c>
       <c r="K53" t="s">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="L53" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="M53" t="s">
         <v>148</v>
@@ -4279,10 +4270,10 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
         <v>140</v>
@@ -4309,10 +4300,10 @@
         <v>7</v>
       </c>
       <c r="K54" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="L54" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M54" t="s">
         <v>148</v>
@@ -4329,10 +4320,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C55" t="s">
         <v>69</v>
@@ -4359,10 +4350,10 @@
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L55" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M55" t="s">
         <v>148</v>
@@ -4379,10 +4370,10 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
@@ -4409,10 +4400,10 @@
         <v>2</v>
       </c>
       <c r="K56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L56" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M56" t="s">
         <v>144</v>
@@ -4429,10 +4420,10 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
@@ -4459,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L57" t="s">
         <v>46</v>
@@ -4479,10 +4470,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C58" t="s">
         <v>66</v>
@@ -4509,10 +4500,10 @@
         <v>6</v>
       </c>
       <c r="K58" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L58" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M58" t="s">
         <v>148</v>
@@ -4529,10 +4520,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -4579,10 +4570,10 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C60" t="s">
         <v>69</v>
@@ -4609,10 +4600,10 @@
         <v>3</v>
       </c>
       <c r="K60" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L60" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M60" t="s">
         <v>148</v>
@@ -4629,10 +4620,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C61" t="s">
         <v>160</v>
@@ -4659,7 +4650,7 @@
         <v>18</v>
       </c>
       <c r="K61" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="L61" t="s">
         <v>46</v>
@@ -4679,10 +4670,10 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -4703,16 +4694,16 @@
         <v>62</v>
       </c>
       <c r="I62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J62" s="1">
         <v>5</v>
       </c>
       <c r="K62" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="L62" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M62" t="s">
         <v>148</v>
@@ -4729,16 +4720,16 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C63" t="s">
         <v>102</v>
       </c>
       <c r="D63" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
@@ -4753,16 +4744,16 @@
         <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M63" t="s">
         <v>148</v>
@@ -4779,13 +4770,13 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D64" t="s">
         <v>160</v>
@@ -4809,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L64" t="s">
         <v>74</v>
@@ -4829,10 +4820,10 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
@@ -4871,7 +4862,7 @@
         <v>21</v>
       </c>
       <c r="O65" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P65" t="s">
         <v>21</v>
@@ -4879,10 +4870,10 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
@@ -4912,7 +4903,7 @@
         <v>122</v>
       </c>
       <c r="L66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M66" t="s">
         <v>148</v>
@@ -4929,10 +4920,10 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C67" t="s">
         <v>69</v>
@@ -4959,10 +4950,10 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M67" t="s">
         <v>148</v>
@@ -4979,10 +4970,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -5012,7 +5003,7 @@
         <v>122</v>
       </c>
       <c r="L68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M68" t="s">
         <v>148</v>
@@ -5037,9 +5028,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5053,19 +5044,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5076,10 +5067,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5090,10 +5081,10 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5104,10 +5095,10 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5118,10 +5109,10 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5132,10 +5123,10 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5146,10 +5137,10 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5160,7 +5151,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -5174,10 +5165,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5188,10 +5179,10 @@
         <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5202,10 +5193,10 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5216,10 +5207,10 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5230,10 +5221,10 @@
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5244,10 +5235,10 @@
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5258,10 +5249,10 @@
         <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5272,10 +5263,10 @@
         <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5286,10 +5277,10 @@
         <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5314,10 +5305,10 @@
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5328,10 +5319,10 @@
         <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5342,10 +5333,10 @@
         <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5356,13 +5347,13 @@
         <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -5373,10 +5364,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5387,10 +5378,10 @@
         <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5401,10 +5392,10 @@
         <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -5415,10 +5406,10 @@
         <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -5429,10 +5420,10 @@
         <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -5443,10 +5434,10 @@
         <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -5457,10 +5448,10 @@
         <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5471,10 +5462,10 @@
         <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -5485,13 +5476,13 @@
         <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -5502,10 +5493,10 @@
         <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -5516,10 +5507,10 @@
         <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -5530,10 +5521,10 @@
         <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -5544,10 +5535,10 @@
         <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -5558,7 +5549,7 @@
         <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -5572,10 +5563,10 @@
         <v>145</v>
       </c>
       <c r="C37" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -5586,13 +5577,13 @@
         <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -5603,10 +5594,10 @@
         <v>151</v>
       </c>
       <c r="C39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -5617,10 +5608,10 @@
         <v>153</v>
       </c>
       <c r="C40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -5631,10 +5622,10 @@
         <v>156</v>
       </c>
       <c r="C41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -5645,10 +5636,10 @@
         <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -5659,10 +5650,10 @@
         <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D43" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -5673,10 +5664,10 @@
         <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -5687,10 +5678,10 @@
         <v>169</v>
       </c>
       <c r="C45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -5704,7 +5695,7 @@
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -5729,10 +5720,10 @@
         <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -5743,10 +5734,10 @@
         <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5771,7 +5762,7 @@
         <v>186</v>
       </c>
       <c r="C51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -5785,10 +5776,10 @@
         <v>189</v>
       </c>
       <c r="C52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -5796,13 +5787,13 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D53" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -5810,13 +5801,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -5824,13 +5815,13 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D55" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -5838,16 +5829,16 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5855,13 +5846,13 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -5869,10 +5860,10 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C58" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -5883,13 +5874,13 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C59" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -5897,13 +5888,13 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -5911,13 +5902,13 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D61" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -5925,13 +5916,13 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C62" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -5939,13 +5930,13 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C63" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D63" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -5953,13 +5944,13 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C64" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -5967,13 +5958,13 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -5981,13 +5972,13 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C66" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -5995,13 +5986,13 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C67" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -6012,10 +6003,10 @@
         <v>26</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E68" s="10"/>
     </row>
@@ -6027,13 +6018,13 @@
         <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -6044,10 +6035,10 @@
         <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D70" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -6058,7 +6049,7 @@
         <v>37</v>
       </c>
       <c r="C71" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -6072,7 +6063,7 @@
         <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -6086,10 +6077,10 @@
         <v>42</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -6103,7 +6094,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -6114,10 +6105,10 @@
         <v>108</v>
       </c>
       <c r="C75" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -6125,13 +6116,13 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C76" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -6142,10 +6133,10 @@
         <v>31</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E77" s="10"/>
     </row>
@@ -6157,10 +6148,10 @@
         <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D78" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -6171,10 +6162,10 @@
         <v>35</v>
       </c>
       <c r="C79" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D79" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -6185,7 +6176,7 @@
         <v>37</v>
       </c>
       <c r="C80" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -6199,13 +6190,13 @@
         <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E81" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -6216,10 +6207,10 @@
         <v>58</v>
       </c>
       <c r="C82" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -6230,10 +6221,10 @@
         <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -6244,10 +6235,10 @@
         <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -6258,10 +6249,10 @@
         <v>78</v>
       </c>
       <c r="C85" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -6272,10 +6263,10 @@
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -6286,10 +6277,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -6300,10 +6291,10 @@
         <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D88" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -6314,10 +6305,10 @@
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D89" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -6328,10 +6319,10 @@
         <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -6342,10 +6333,10 @@
         <v>116</v>
       </c>
       <c r="C91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D91" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -6356,7 +6347,7 @@
         <v>119</v>
       </c>
       <c r="C92" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -6370,10 +6361,10 @@
         <v>129</v>
       </c>
       <c r="C93" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D93" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -6384,10 +6375,10 @@
         <v>138</v>
       </c>
       <c r="C94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D94" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -6398,13 +6389,13 @@
         <v>145</v>
       </c>
       <c r="C95" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E95" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -6415,7 +6406,7 @@
         <v>153</v>
       </c>
       <c r="C96" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
@@ -6429,13 +6420,13 @@
         <v>156</v>
       </c>
       <c r="C97" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D97" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E97" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -6446,7 +6437,7 @@
         <v>163</v>
       </c>
       <c r="C98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -6463,7 +6454,7 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -6474,10 +6465,10 @@
         <v>174</v>
       </c>
       <c r="C100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -6488,10 +6479,10 @@
         <v>183</v>
       </c>
       <c r="C101" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D101" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -6499,13 +6490,13 @@
         <v>26</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C102" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D102" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -6513,13 +6504,13 @@
         <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C103" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -6527,13 +6518,13 @@
         <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -6541,13 +6532,13 @@
         <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -6555,13 +6546,13 @@
         <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C106" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D106" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -6569,16 +6560,16 @@
         <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E107" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -6586,13 +6577,13 @@
         <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D108" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -6603,10 +6594,10 @@
         <v>33</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E109" s="10"/>
     </row>
@@ -6618,10 +6609,10 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -6632,7 +6623,7 @@
         <v>37</v>
       </c>
       <c r="C111" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
@@ -6646,7 +6637,7 @@
         <v>37</v>
       </c>
       <c r="C112" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D112" t="s">
         <v>18</v>
@@ -6660,10 +6651,10 @@
         <v>40</v>
       </c>
       <c r="C113" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -6674,10 +6665,10 @@
         <v>35</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E114" s="10"/>
     </row>
@@ -6689,7 +6680,7 @@
         <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D115" t="s">
         <v>18</v>
@@ -6703,10 +6694,10 @@
         <v>40</v>
       </c>
       <c r="C116" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D116" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -6717,7 +6708,7 @@
         <v>37</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>18</v>
@@ -6732,7 +6723,7 @@
         <v>40</v>
       </c>
       <c r="C118" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
@@ -6743,13 +6734,13 @@
         <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C119" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D119" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -6757,16 +6748,16 @@
         <v>35</v>
       </c>
       <c r="B120" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C120" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E120" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -6777,7 +6768,7 @@
         <v>40</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>18</v>
@@ -6795,7 +6786,7 @@
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -6806,10 +6797,10 @@
         <v>58</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E123" s="10"/>
     </row>
@@ -6821,10 +6812,10 @@
         <v>78</v>
       </c>
       <c r="C124" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D124" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -6835,10 +6826,10 @@
         <v>116</v>
       </c>
       <c r="C125" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D125" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -6846,13 +6837,13 @@
         <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C126" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D126" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -6863,10 +6854,10 @@
         <v>142</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E127" s="10"/>
     </row>
@@ -6878,10 +6869,10 @@
         <v>186</v>
       </c>
       <c r="C128" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D128" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -6892,10 +6883,10 @@
         <v>78</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E129" s="10"/>
     </row>
@@ -6907,10 +6898,10 @@
         <v>81</v>
       </c>
       <c r="C130" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D130" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -6921,10 +6912,10 @@
         <v>88</v>
       </c>
       <c r="C131" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D131" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -6935,10 +6926,10 @@
         <v>116</v>
       </c>
       <c r="C132" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D132" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -6946,13 +6937,13 @@
         <v>58</v>
       </c>
       <c r="B133" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C133" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D133" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -6960,13 +6951,13 @@
         <v>58</v>
       </c>
       <c r="B134" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C134" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D134" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -6977,10 +6968,10 @@
         <v>108</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E135" s="10"/>
     </row>
@@ -6992,10 +6983,10 @@
         <v>100</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E136" s="10"/>
     </row>
@@ -7007,10 +6998,10 @@
         <v>88</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E137" s="10"/>
     </row>
@@ -7022,10 +7013,10 @@
         <v>116</v>
       </c>
       <c r="C138" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D138" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -7033,13 +7024,13 @@
         <v>78</v>
       </c>
       <c r="B139" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C139" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D139" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -7050,10 +7041,10 @@
         <v>108</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E140" s="10"/>
     </row>
@@ -7065,10 +7056,10 @@
         <v>166</v>
       </c>
       <c r="C141" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D141" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -7079,10 +7070,10 @@
         <v>189</v>
       </c>
       <c r="C142" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D142" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -7093,10 +7084,10 @@
         <v>100</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E143" s="10"/>
     </row>
@@ -7108,10 +7099,10 @@
         <v>108</v>
       </c>
       <c r="C144" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D144" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -7122,10 +7113,10 @@
         <v>116</v>
       </c>
       <c r="C145" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D145" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -7136,10 +7127,10 @@
         <v>156</v>
       </c>
       <c r="C146" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D146" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -7153,7 +7144,7 @@
         <v>18</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E147" s="10"/>
     </row>
@@ -7168,7 +7159,7 @@
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -7179,10 +7170,10 @@
         <v>108</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E149" s="10"/>
     </row>
@@ -7194,7 +7185,7 @@
         <v>135</v>
       </c>
       <c r="C150" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D150" t="s">
         <v>18</v>
@@ -7205,13 +7196,13 @@
         <v>100</v>
       </c>
       <c r="B151" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C151" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D151" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -7222,10 +7213,10 @@
         <v>116</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E152" s="10"/>
     </row>
@@ -7237,10 +7228,10 @@
         <v>108</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E153" s="10"/>
     </row>
@@ -7252,10 +7243,10 @@
         <v>129</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E154" s="10"/>
     </row>
@@ -7267,10 +7258,10 @@
         <v>132</v>
       </c>
       <c r="C155" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D155" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -7281,10 +7272,10 @@
         <v>145</v>
       </c>
       <c r="C156" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D156" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -7295,10 +7286,10 @@
         <v>145</v>
       </c>
       <c r="C157" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D157" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -7309,10 +7300,10 @@
         <v>151</v>
       </c>
       <c r="C158" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D158" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -7323,10 +7314,10 @@
         <v>163</v>
       </c>
       <c r="C159" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D159" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -7337,10 +7328,10 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D160" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -7351,10 +7342,10 @@
         <v>166</v>
       </c>
       <c r="C161" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D161" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -7365,10 +7356,10 @@
         <v>166</v>
       </c>
       <c r="C162" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D162" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -7379,10 +7370,10 @@
         <v>186</v>
       </c>
       <c r="C163" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D163" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -7393,10 +7384,10 @@
         <v>189</v>
       </c>
       <c r="C164" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D164" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -7404,13 +7395,13 @@
         <v>108</v>
       </c>
       <c r="B165" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C165" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D165" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -7418,13 +7409,13 @@
         <v>108</v>
       </c>
       <c r="B166" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C166" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D166" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -7432,13 +7423,13 @@
         <v>108</v>
       </c>
       <c r="B167" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C167" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D167" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -7446,13 +7437,13 @@
         <v>108</v>
       </c>
       <c r="B168" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C168" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D168" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -7460,13 +7451,13 @@
         <v>111</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E169" s="10"/>
     </row>
@@ -7475,13 +7466,13 @@
         <v>116</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E170" s="10"/>
     </row>
@@ -7490,10 +7481,10 @@
         <v>119</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>18</v>
@@ -7508,10 +7499,10 @@
         <v>181</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E172" s="10"/>
     </row>
@@ -7520,13 +7511,13 @@
         <v>163</v>
       </c>
       <c r="B173" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C173" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D173" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -7564,22 +7555,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7587,59 +7578,59 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7647,19 +7638,19 @@
         <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7667,19 +7658,19 @@
         <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7687,19 +7678,19 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7707,19 +7698,19 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7727,19 +7718,19 @@
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7747,79 +7738,79 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7827,19 +7818,19 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7847,19 +7838,19 @@
         <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7867,39 +7858,39 @@
         <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7907,19 +7898,19 @@
         <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7927,19 +7918,19 @@
         <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7947,13 +7938,13 @@
         <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -7967,19 +7958,19 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7987,119 +7978,119 @@
         <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C22" t="s">
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C26" t="s">
         <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E26">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C27" t="s">
         <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Documents\Ecrits\_Projets\Trajan\2. Données\2. Réseau\03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vincent\Documents\Travail\Ecrits\_Projets\Trajan\2. Données\2. Réseau\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">relations!$A$1:$E$173</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="346">
   <si>
     <t>Id</t>
   </si>
@@ -1072,7 +1072,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1846,8 +1846,8 @@
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="21" t="s">
-        <v>18</v>
+      <c r="J5" s="21">
+        <v>1</v>
       </c>
       <c r="K5" t="s">
         <v>299</v>
@@ -3197,7 +3197,7 @@
         <v>18</v>
       </c>
       <c r="J32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32" t="s">
         <v>220</v>
@@ -4896,8 +4896,8 @@
       <c r="I66" t="s">
         <v>18</v>
       </c>
-      <c r="J66" s="1" t="s">
-        <v>18</v>
+      <c r="J66" s="1">
+        <v>1</v>
       </c>
       <c r="K66" t="s">
         <v>122</v>
@@ -4947,7 +4947,7 @@
         <v>18</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" t="s">
         <v>308</v>

--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vincent\Documents\Travail\Ecrits\_Projets\Trajan\2. Données\2. Réseau\04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5625" windowHeight="1020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="attributs" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="postes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">relations!$A$1:$E$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">relations!$A$1:$E$166</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="346">
   <si>
     <t>Id</t>
   </si>
@@ -1072,7 +1072,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1206,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1240,11 +1240,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1590,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
@@ -5026,11 +5039,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E174"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6616,200 +6629,201 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="D111" t="s">
-        <v>18</v>
-      </c>
+      <c r="D111" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="23"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>31</v>
       </c>
       <c r="B112" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" t="s">
+        <v>293</v>
+      </c>
+      <c r="D112" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E113" s="10"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" t="s">
         <v>37</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C114" t="s">
         <v>296</v>
       </c>
-      <c r="D112" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>31</v>
-      </c>
-      <c r="B113" t="s">
-        <v>40</v>
-      </c>
-      <c r="C113" t="s">
-        <v>293</v>
-      </c>
-      <c r="D113" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E114" s="10"/>
+      <c r="D114" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>33</v>
       </c>
       <c r="B115" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" t="s">
+        <v>293</v>
+      </c>
+      <c r="D115" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D115" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>33</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="D116" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>35</v>
+      </c>
+      <c r="B117" t="s">
         <v>40</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>293</v>
       </c>
-      <c r="D116" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
+      <c r="D117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B118" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="B119" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D117" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" s="10"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>35</v>
-      </c>
-      <c r="B118" t="s">
-        <v>40</v>
-      </c>
-      <c r="C118" t="s">
-        <v>293</v>
-      </c>
-      <c r="D118" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>35</v>
-      </c>
-      <c r="B119" t="s">
-        <v>221</v>
-      </c>
-      <c r="C119" t="s">
-        <v>244</v>
-      </c>
-      <c r="D119" t="s">
-        <v>236</v>
-      </c>
+      <c r="D119" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" s="10"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B120" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>236</v>
-      </c>
-      <c r="E120" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="E121" s="10"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B122" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="D122" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+      <c r="A123" t="s">
         <v>42</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C123" s="10" t="s">
+      <c r="B123" t="s">
+        <v>116</v>
+      </c>
+      <c r="C123" t="s">
         <v>239</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" t="s">
         <v>241</v>
       </c>
-      <c r="E123" s="10"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>42</v>
       </c>
       <c r="B124" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C124" t="s">
         <v>239</v>
@@ -6819,42 +6833,43 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>42</v>
-      </c>
-      <c r="B125" t="s">
-        <v>116</v>
-      </c>
-      <c r="C125" t="s">
-        <v>239</v>
-      </c>
-      <c r="D125" t="s">
-        <v>241</v>
-      </c>
+      <c r="A125" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E125" s="10"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B126" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C126" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D126" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>236</v>
@@ -6863,10 +6878,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B128" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="C128" t="s">
         <v>244</v>
@@ -6876,29 +6891,28 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
+      <c r="A129" t="s">
         <v>58</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C129" s="10" t="s">
+      <c r="B129" t="s">
+        <v>88</v>
+      </c>
+      <c r="C129" t="s">
         <v>237</v>
       </c>
-      <c r="D129" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E129" s="10"/>
+      <c r="D129" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>58</v>
       </c>
       <c r="B130" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C130" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D130" t="s">
         <v>236</v>
@@ -6909,7 +6923,7 @@
         <v>58</v>
       </c>
       <c r="B131" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="C131" t="s">
         <v>237</v>
@@ -6923,151 +6937,152 @@
         <v>58</v>
       </c>
       <c r="B132" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="C132" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D132" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>58</v>
-      </c>
-      <c r="B133" t="s">
-        <v>195</v>
-      </c>
-      <c r="C133" t="s">
-        <v>237</v>
-      </c>
-      <c r="D133" t="s">
-        <v>236</v>
-      </c>
+      <c r="A133" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E133" s="10"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>58</v>
-      </c>
-      <c r="B134" t="s">
-        <v>224</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="A134" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C134" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D134" t="s">
-        <v>241</v>
-      </c>
+      <c r="D134" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E134" s="10"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B135" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E135" s="10"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>78</v>
+      </c>
+      <c r="B136" t="s">
+        <v>116</v>
+      </c>
+      <c r="C136" t="s">
+        <v>237</v>
+      </c>
+      <c r="D136" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>78</v>
+      </c>
+      <c r="B137" t="s">
+        <v>195</v>
+      </c>
+      <c r="C137" t="s">
+        <v>237</v>
+      </c>
+      <c r="D137" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B138" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C138" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D135" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E135" s="10"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E136" s="10"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E137" s="10"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>78</v>
-      </c>
-      <c r="B138" t="s">
-        <v>116</v>
-      </c>
-      <c r="C138" t="s">
-        <v>237</v>
-      </c>
-      <c r="D138" t="s">
-        <v>236</v>
-      </c>
+      <c r="D138" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E138" s="10"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B139" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="C139" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D139" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
+      <c r="A140" t="s">
         <v>81</v>
       </c>
-      <c r="B140" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C140" s="10" t="s">
+      <c r="B140" t="s">
+        <v>189</v>
+      </c>
+      <c r="C140" t="s">
         <v>244</v>
       </c>
-      <c r="D140" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E140" s="10"/>
+      <c r="D140" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>81</v>
-      </c>
-      <c r="B141" t="s">
-        <v>166</v>
-      </c>
-      <c r="C141" t="s">
-        <v>244</v>
-      </c>
-      <c r="D141" t="s">
-        <v>236</v>
-      </c>
+      <c r="A141" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E141" s="10"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B142" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="C142" t="s">
         <v>244</v>
@@ -7077,457 +7092,374 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
+      <c r="A143" t="s">
         <v>88</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" t="s">
+        <v>116</v>
+      </c>
+      <c r="C143" t="s">
+        <v>237</v>
+      </c>
+      <c r="D143" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B144" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C144" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D144" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="E144" s="24"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E145" s="23"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="B146" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E146" s="10"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>100</v>
+      </c>
+      <c r="B147" t="s">
+        <v>135</v>
+      </c>
+      <c r="C147" t="s">
         <v>239</v>
       </c>
-      <c r="D143" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E143" s="10"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>88</v>
-      </c>
-      <c r="B144" t="s">
-        <v>108</v>
-      </c>
-      <c r="C144" t="s">
-        <v>244</v>
-      </c>
-      <c r="D144" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>88</v>
-      </c>
-      <c r="B145" t="s">
-        <v>116</v>
-      </c>
-      <c r="C145" t="s">
-        <v>237</v>
-      </c>
-      <c r="D145" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>88</v>
-      </c>
-      <c r="B146" t="s">
-        <v>156</v>
-      </c>
-      <c r="C146" t="s">
-        <v>239</v>
-      </c>
-      <c r="D146" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E147" s="10"/>
+      <c r="D147" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B148" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="C148" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="D148" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B149" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E149" s="10"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B150" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C150" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D149" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E149" s="10"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>100</v>
-      </c>
-      <c r="B150" t="s">
-        <v>135</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="D150" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E150" s="10"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E151" s="10"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D152" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E152" s="23"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D153" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E153" s="23"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D154" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E154" s="23"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B155" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C155" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D155" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E155" s="23"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B156" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C156" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D156" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E156" s="23"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B157" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C157" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D157" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E157" s="23"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B158" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C158" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D158" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E158" s="23"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C159" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D159" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E159" s="23"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C160" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D160" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E160" s="23"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C161" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D161" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E161" s="23"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C162" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D150" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>100</v>
-      </c>
-      <c r="B151" t="s">
-        <v>202</v>
-      </c>
-      <c r="C151" t="s">
-        <v>244</v>
-      </c>
-      <c r="D151" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B152" s="10" t="s">
+      <c r="D162" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E162" s="10"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="B163" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C163" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D152" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E152" s="10"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E153" s="10"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E154" s="10"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>108</v>
-      </c>
-      <c r="B155" t="s">
-        <v>132</v>
-      </c>
-      <c r="C155" t="s">
-        <v>244</v>
-      </c>
-      <c r="D155" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>108</v>
-      </c>
-      <c r="B156" t="s">
-        <v>145</v>
-      </c>
-      <c r="C156" t="s">
-        <v>244</v>
-      </c>
-      <c r="D156" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>108</v>
-      </c>
-      <c r="B157" t="s">
-        <v>145</v>
-      </c>
-      <c r="C157" t="s">
-        <v>244</v>
-      </c>
-      <c r="D157" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>108</v>
-      </c>
-      <c r="B158" t="s">
-        <v>151</v>
-      </c>
-      <c r="C158" t="s">
-        <v>244</v>
-      </c>
-      <c r="D158" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>108</v>
-      </c>
-      <c r="B159" t="s">
+      <c r="D163" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E163" s="10"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" s="10"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C159" t="s">
-        <v>244</v>
-      </c>
-      <c r="D159" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>108</v>
-      </c>
-      <c r="B160" t="s">
-        <v>163</v>
-      </c>
-      <c r="C160" t="s">
-        <v>244</v>
-      </c>
-      <c r="D160" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>108</v>
-      </c>
-      <c r="B161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C161" t="s">
-        <v>244</v>
-      </c>
-      <c r="D161" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>108</v>
-      </c>
-      <c r="B162" t="s">
-        <v>166</v>
-      </c>
-      <c r="C162" t="s">
-        <v>244</v>
-      </c>
-      <c r="D162" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>108</v>
-      </c>
-      <c r="B163" t="s">
-        <v>186</v>
-      </c>
-      <c r="C163" t="s">
-        <v>244</v>
-      </c>
-      <c r="D163" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>108</v>
-      </c>
-      <c r="B164" t="s">
-        <v>189</v>
-      </c>
-      <c r="C164" t="s">
-        <v>244</v>
-      </c>
-      <c r="D164" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>108</v>
-      </c>
-      <c r="B165" t="s">
-        <v>213</v>
-      </c>
-      <c r="C165" t="s">
-        <v>244</v>
-      </c>
-      <c r="D165" t="s">
-        <v>236</v>
-      </c>
+      <c r="B165" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E165" s="10"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="B166" t="s">
         <v>221</v>
       </c>
       <c r="C166" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="D166" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>108</v>
-      </c>
-      <c r="B167" t="s">
-        <v>221</v>
-      </c>
-      <c r="C167" t="s">
-        <v>244</v>
-      </c>
-      <c r="D167" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>108</v>
-      </c>
-      <c r="B168" t="s">
-        <v>228</v>
-      </c>
-      <c r="C168" t="s">
-        <v>244</v>
-      </c>
-      <c r="D168" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E169" s="10"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D170" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E170" s="10"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E171" s="10"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D172" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E172" s="10"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>163</v>
-      </c>
-      <c r="B173" t="s">
-        <v>221</v>
-      </c>
-      <c r="C173" t="s">
-        <v>293</v>
-      </c>
-      <c r="D173" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
-      <c r="B174" s="10"/>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10"/>
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vincent\eclipse\workspaces\Networks\TrajanNet\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="344">
   <si>
     <t>Id</t>
   </si>
@@ -826,30 +826,12 @@
     <t>spol8</t>
   </si>
   <si>
-    <t>spol9</t>
-  </si>
-  <si>
     <t>Tribun lacticlave</t>
   </si>
   <si>
-    <t>smil1-1</t>
-  </si>
-  <si>
     <t>Province</t>
   </si>
   <si>
-    <t>Tribun de légion</t>
-  </si>
-  <si>
-    <t>smil1-2</t>
-  </si>
-  <si>
-    <t>Tribun Militaire</t>
-  </si>
-  <si>
-    <t>smil1-3</t>
-  </si>
-  <si>
     <t>smil2</t>
   </si>
   <si>
@@ -1067,12 +1049,24 @@
   </si>
   <si>
     <t>Militaire;Militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire</t>
+  </si>
+  <si>
+    <t>smil1</t>
+  </si>
+  <si>
+    <t>Garnison de Rome</t>
+  </si>
+  <si>
+    <t>Equestre</t>
+  </si>
+  <si>
+    <t>cpol7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1813,10 +1807,10 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
@@ -1863,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
@@ -1913,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
@@ -1963,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L7" t="s">
         <v>23</v>
@@ -2116,7 +2110,7 @@
         <v>45</v>
       </c>
       <c r="L10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M10" t="s">
         <v>47</v>
@@ -2163,10 +2157,10 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L11" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M11" t="s">
         <v>47</v>
@@ -2263,10 +2257,10 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M13" t="s">
         <v>47</v>
@@ -2313,10 +2307,10 @@
         <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L14" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M14" t="s">
         <v>47</v>
@@ -2363,10 +2357,10 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L15" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M15" t="s">
         <v>47</v>
@@ -2416,7 +2410,7 @@
         <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M16" t="s">
         <v>47</v>
@@ -2463,10 +2457,10 @@
         <v>5</v>
       </c>
       <c r="K17" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L17" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M17" t="s">
         <v>47</v>
@@ -2516,7 +2510,7 @@
         <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M18" t="s">
         <v>47</v>
@@ -2613,10 +2607,10 @@
         <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L20" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M20" t="s">
         <v>47</v>
@@ -2663,10 +2657,10 @@
         <v>3</v>
       </c>
       <c r="K21" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L21" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M21" t="s">
         <v>47</v>
@@ -2713,10 +2707,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L22" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M22" t="s">
         <v>47</v>
@@ -2763,10 +2757,10 @@
         <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L23" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M23" t="s">
         <v>47</v>
@@ -2863,10 +2857,10 @@
         <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L25" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M25" t="s">
         <v>47</v>
@@ -3016,7 +3010,7 @@
         <v>115</v>
       </c>
       <c r="L28" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M28" t="s">
         <v>47</v>
@@ -3066,7 +3060,7 @@
         <v>118</v>
       </c>
       <c r="L29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M29" t="s">
         <v>47</v>
@@ -3263,10 +3257,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M33" t="s">
         <v>47</v>
@@ -3366,7 +3360,7 @@
         <v>137</v>
       </c>
       <c r="L35" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s">
         <v>47</v>
@@ -3416,7 +3410,7 @@
         <v>141</v>
       </c>
       <c r="L36" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s">
         <v>47</v>
@@ -3663,10 +3657,10 @@
         <v>3</v>
       </c>
       <c r="K41" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M41" t="s">
         <v>148</v>
@@ -3866,7 +3860,7 @@
         <v>168</v>
       </c>
       <c r="L45" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M45" t="s">
         <v>148</v>
@@ -4016,7 +4010,7 @@
         <v>176</v>
       </c>
       <c r="L48" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M48" t="s">
         <v>144</v>
@@ -4066,7 +4060,7 @@
         <v>180</v>
       </c>
       <c r="L49" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M49" t="s">
         <v>148</v>
@@ -4166,7 +4160,7 @@
         <v>185</v>
       </c>
       <c r="L51" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M51" t="s">
         <v>144</v>
@@ -4213,7 +4207,7 @@
         <v>2</v>
       </c>
       <c r="K52" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L52" t="s">
         <v>192</v>
@@ -4266,7 +4260,7 @@
         <v>191</v>
       </c>
       <c r="L53" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M53" t="s">
         <v>148</v>
@@ -4313,10 +4307,10 @@
         <v>7</v>
       </c>
       <c r="K54" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L54" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M54" t="s">
         <v>148</v>
@@ -4363,10 +4357,10 @@
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L55" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M55" t="s">
         <v>148</v>
@@ -4413,10 +4407,10 @@
         <v>2</v>
       </c>
       <c r="K56" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L56" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M56" t="s">
         <v>144</v>
@@ -4513,10 +4507,10 @@
         <v>6</v>
       </c>
       <c r="K58" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L58" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M58" t="s">
         <v>148</v>
@@ -4613,10 +4607,10 @@
         <v>3</v>
       </c>
       <c r="K60" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L60" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M60" t="s">
         <v>148</v>
@@ -4713,10 +4707,10 @@
         <v>5</v>
       </c>
       <c r="K62" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L62" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M62" t="s">
         <v>148</v>
@@ -4963,7 +4957,7 @@
         <v>2</v>
       </c>
       <c r="K67" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="L67" t="s">
         <v>192</v>
@@ -5042,8 +5036,8 @@
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5080,7 +5074,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D2" t="s">
         <v>236</v>
@@ -5094,7 +5088,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D3" t="s">
         <v>236</v>
@@ -5108,7 +5102,7 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
         <v>236</v>
@@ -5122,7 +5116,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D5" t="s">
         <v>236</v>
@@ -5136,7 +5130,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D6" t="s">
         <v>236</v>
@@ -5164,7 +5158,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -5495,7 +5489,7 @@
         <v>236</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -6016,7 +6010,7 @@
         <v>26</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>236</v>
@@ -6031,7 +6025,7 @@
         <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -6048,7 +6042,7 @@
         <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D70" t="s">
         <v>236</v>
@@ -6062,7 +6056,7 @@
         <v>37</v>
       </c>
       <c r="C71" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -6076,7 +6070,7 @@
         <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -6146,7 +6140,7 @@
         <v>31</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>236</v>
@@ -6161,7 +6155,7 @@
         <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D78" t="s">
         <v>236</v>
@@ -6175,7 +6169,7 @@
         <v>35</v>
       </c>
       <c r="C79" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D79" t="s">
         <v>241</v>
@@ -6189,7 +6183,7 @@
         <v>37</v>
       </c>
       <c r="C80" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -6234,7 +6228,7 @@
         <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D83" t="s">
         <v>236</v>
@@ -6290,7 +6284,7 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D87" t="s">
         <v>236</v>
@@ -6408,7 +6402,7 @@
         <v>236</v>
       </c>
       <c r="E95" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -6439,7 +6433,7 @@
         <v>236</v>
       </c>
       <c r="E97" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -6607,7 +6601,7 @@
         <v>33</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>236</v>
@@ -6622,7 +6616,7 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D110" t="s">
         <v>236</v>
@@ -6636,7 +6630,7 @@
         <v>37</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D111" s="23" t="s">
         <v>18</v>
@@ -6651,7 +6645,7 @@
         <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D112" t="s">
         <v>236</v>
@@ -6665,7 +6659,7 @@
         <v>35</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>236</v>
@@ -6680,7 +6674,7 @@
         <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D114" t="s">
         <v>18</v>
@@ -6694,7 +6688,7 @@
         <v>40</v>
       </c>
       <c r="C115" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D115" t="s">
         <v>236</v>
@@ -6708,7 +6702,7 @@
         <v>37</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>18</v>
@@ -6723,7 +6717,7 @@
         <v>40</v>
       </c>
       <c r="C117" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D117" t="s">
         <v>18</v>
@@ -6754,7 +6748,7 @@
         <v>40</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>18</v>
@@ -7441,7 +7435,7 @@
         <v>221</v>
       </c>
       <c r="C166" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D166" t="s">
         <v>236</v>
@@ -7467,7 +7461,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7647,7 +7641,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>254</v>
@@ -7662,32 +7656,32 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
         <v>254</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
         <v>254</v>
@@ -7699,15 +7693,15 @@
         <v>267</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>254</v>
@@ -7716,110 +7710,110 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>271</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
         <v>230</v>
       </c>
       <c r="D16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C17" t="s">
         <v>230</v>
       </c>
       <c r="D17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
         <v>262</v>
@@ -7827,39 +7821,39 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C18" t="s">
         <v>230</v>
       </c>
       <c r="D18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>262</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C19" t="s">
         <v>230</v>
       </c>
       <c r="D19" t="s">
-        <v>280</v>
+        <v>343</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
         <v>262</v>
@@ -7867,161 +7861,121 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="B22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C22" t="s">
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>281</v>
       </c>
       <c r="B23" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>289</v>
-      </c>
-      <c r="B26" t="s">
-        <v>275</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>290</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>291</v>
-      </c>
-      <c r="B27" t="s">
-        <v>275</v>
-      </c>
-      <c r="C27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" t="s">
-        <v>292</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
         <v>262</v>
       </c>
     </row>

--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5625" windowHeight="1020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5625" windowHeight="1020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="attributs" sheetId="1" r:id="rId1"/>
@@ -319,9 +319,6 @@
     <t>Légat de légion;Proconsul</t>
   </si>
   <si>
-    <t>Régulus</t>
-  </si>
-  <si>
     <t>P21</t>
   </si>
   <si>
@@ -1061,6 +1058,9 @@
   </si>
   <si>
     <t>cpol7</t>
+  </si>
+  <si>
+    <t>Regulus</t>
   </si>
 </sst>
 </file>
@@ -1597,11 +1597,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,10 +1807,10 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
@@ -1907,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L7" t="s">
         <v>23</v>
@@ -2010,7 +2010,7 @@
         <v>39</v>
       </c>
       <c r="L8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M8" t="s">
         <v>24</v>
@@ -2110,7 +2110,7 @@
         <v>45</v>
       </c>
       <c r="L10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M10" t="s">
         <v>47</v>
@@ -2157,10 +2157,10 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
+        <v>315</v>
+      </c>
+      <c r="L11" t="s">
         <v>316</v>
-      </c>
-      <c r="L11" t="s">
-        <v>317</v>
       </c>
       <c r="M11" t="s">
         <v>47</v>
@@ -2257,10 +2257,10 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M13" t="s">
         <v>47</v>
@@ -2307,10 +2307,10 @@
         <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M14" t="s">
         <v>47</v>
@@ -2357,10 +2357,10 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
+        <v>303</v>
+      </c>
+      <c r="L15" t="s">
         <v>304</v>
-      </c>
-      <c r="L15" t="s">
-        <v>305</v>
       </c>
       <c r="M15" t="s">
         <v>47</v>
@@ -2410,7 +2410,7 @@
         <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M16" t="s">
         <v>47</v>
@@ -2457,10 +2457,10 @@
         <v>5</v>
       </c>
       <c r="K17" t="s">
+        <v>319</v>
+      </c>
+      <c r="L17" t="s">
         <v>320</v>
-      </c>
-      <c r="L17" t="s">
-        <v>321</v>
       </c>
       <c r="M17" t="s">
         <v>47</v>
@@ -2510,7 +2510,7 @@
         <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M18" t="s">
         <v>47</v>
@@ -2607,10 +2607,10 @@
         <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M20" t="s">
         <v>47</v>
@@ -2657,10 +2657,10 @@
         <v>3</v>
       </c>
       <c r="K21" t="s">
+        <v>305</v>
+      </c>
+      <c r="L21" t="s">
         <v>306</v>
-      </c>
-      <c r="L21" t="s">
-        <v>307</v>
       </c>
       <c r="M21" t="s">
         <v>47</v>
@@ -2707,10 +2707,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M22" t="s">
         <v>47</v>
@@ -2719,7 +2719,7 @@
         <v>18</v>
       </c>
       <c r="O22" t="s">
-        <v>96</v>
+        <v>343</v>
       </c>
       <c r="P22" t="s">
         <v>21</v>
@@ -2727,10 +2727,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
         <v>97</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -2739,7 +2739,7 @@
         <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>
@@ -2757,10 +2757,10 @@
         <v>3</v>
       </c>
       <c r="K23" t="s">
+        <v>307</v>
+      </c>
+      <c r="L23" t="s">
         <v>308</v>
-      </c>
-      <c r="L23" t="s">
-        <v>309</v>
       </c>
       <c r="M23" t="s">
         <v>47</v>
@@ -2777,13 +2777,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
         <v>100</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>102</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -2807,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s">
         <v>74</v>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
         <v>103</v>
-      </c>
-      <c r="B25" t="s">
-        <v>104</v>
       </c>
       <c r="C25" t="s">
         <v>90</v>
@@ -2857,10 +2857,10 @@
         <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M25" t="s">
         <v>47</v>
@@ -2877,22 +2877,22 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
         <v>105</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
         <v>106</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>107</v>
       </c>
       <c r="G26" t="s">
         <v>21</v>
@@ -2927,13 +2927,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
         <v>108</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>109</v>
-      </c>
-      <c r="C27" t="s">
-        <v>110</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -2977,22 +2977,22 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
         <v>111</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
         <v>112</v>
       </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>113</v>
-      </c>
-      <c r="F28" t="s">
-        <v>114</v>
       </c>
       <c r="G28" t="s">
         <v>21</v>
@@ -3007,10 +3007,10 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M28" t="s">
         <v>47</v>
@@ -3027,10 +3027,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
         <v>116</v>
-      </c>
-      <c r="B29" t="s">
-        <v>117</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
@@ -3057,10 +3057,10 @@
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M29" t="s">
         <v>47</v>
@@ -3077,22 +3077,22 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
         <v>120</v>
       </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" t="s">
-        <v>121</v>
-      </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G30" t="s">
         <v>21</v>
@@ -3107,10 +3107,10 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M30" t="s">
         <v>47</v>
@@ -3127,10 +3127,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
         <v>123</v>
-      </c>
-      <c r="B31" t="s">
-        <v>124</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3177,22 +3177,22 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
         <v>125</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
         <v>126</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" t="s">
-        <v>127</v>
       </c>
       <c r="G32" t="s">
         <v>21</v>
@@ -3207,10 +3207,10 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M32" t="s">
         <v>47</v>
@@ -3227,13 +3227,13 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s">
         <v>129</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>130</v>
-      </c>
-      <c r="C33" t="s">
-        <v>131</v>
       </c>
       <c r="D33" t="s">
         <v>29</v>
@@ -3257,10 +3257,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
+        <v>324</v>
+      </c>
+      <c r="L33" t="s">
         <v>325</v>
-      </c>
-      <c r="L33" t="s">
-        <v>326</v>
       </c>
       <c r="M33" t="s">
         <v>47</v>
@@ -3277,10 +3277,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
         <v>132</v>
-      </c>
-      <c r="B34" t="s">
-        <v>133</v>
       </c>
       <c r="C34" t="s">
         <v>69</v>
@@ -3307,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s">
         <v>46</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
         <v>135</v>
-      </c>
-      <c r="B35" t="s">
-        <v>136</v>
       </c>
       <c r="C35" t="s">
         <v>69</v>
@@ -3339,7 +3339,7 @@
         <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" t="s">
         <v>44</v>
@@ -3357,10 +3357,10 @@
         <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M35" t="s">
         <v>47</v>
@@ -3377,13 +3377,13 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s">
         <v>138</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>139</v>
-      </c>
-      <c r="C36" t="s">
-        <v>140</v>
       </c>
       <c r="D36" t="s">
         <v>61</v>
@@ -3407,10 +3407,10 @@
         <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M36" t="s">
         <v>47</v>
@@ -3427,43 +3427,43 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" t="s">
         <v>142</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" t="s">
         <v>143</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" t="s">
-        <v>144</v>
       </c>
       <c r="N37" t="s">
         <v>18</v>
@@ -3477,13 +3477,13 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
         <v>145</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>146</v>
-      </c>
-      <c r="C38" t="s">
-        <v>147</v>
       </c>
       <c r="D38" t="s">
         <v>51</v>
@@ -3513,7 +3513,7 @@
         <v>18</v>
       </c>
       <c r="M38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N38" t="s">
         <v>18</v>
@@ -3527,10 +3527,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
         <v>149</v>
-      </c>
-      <c r="B39" t="s">
-        <v>150</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3563,7 +3563,7 @@
         <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N39" t="s">
         <v>18</v>
@@ -3577,10 +3577,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" t="s">
         <v>151</v>
-      </c>
-      <c r="B40" t="s">
-        <v>152</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3613,7 +3613,7 @@
         <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N40" t="s">
         <v>18</v>
@@ -3627,10 +3627,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" t="s">
         <v>153</v>
-      </c>
-      <c r="B41" t="s">
-        <v>154</v>
       </c>
       <c r="C41" t="s">
         <v>94</v>
@@ -3648,7 +3648,7 @@
         <v>21</v>
       </c>
       <c r="H41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
@@ -3657,13 +3657,13 @@
         <v>3</v>
       </c>
       <c r="K41" t="s">
+        <v>311</v>
+      </c>
+      <c r="L41" t="s">
         <v>312</v>
       </c>
-      <c r="L41" t="s">
-        <v>313</v>
-      </c>
       <c r="M41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N41" t="s">
         <v>21</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
         <v>156</v>
-      </c>
-      <c r="B42" t="s">
-        <v>157</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
@@ -3713,7 +3713,7 @@
         <v>18</v>
       </c>
       <c r="M42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N42" t="s">
         <v>21</v>
@@ -3727,16 +3727,16 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" t="s">
         <v>158</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>159</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>160</v>
-      </c>
-      <c r="D43" t="s">
-        <v>161</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
@@ -3757,13 +3757,13 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L43" t="s">
         <v>46</v>
       </c>
       <c r="M43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N43" t="s">
         <v>18</v>
@@ -3777,13 +3777,13 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" t="s">
         <v>163</v>
       </c>
-      <c r="B44" t="s">
-        <v>164</v>
-      </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
@@ -3807,13 +3807,13 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L44" t="s">
         <v>74</v>
       </c>
       <c r="M44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N44" t="s">
         <v>25</v>
@@ -3827,10 +3827,10 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" t="s">
         <v>166</v>
-      </c>
-      <c r="B45" t="s">
-        <v>167</v>
       </c>
       <c r="C45" t="s">
         <v>69</v>
@@ -3857,13 +3857,13 @@
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N45" t="s">
         <v>18</v>
@@ -3877,10 +3877,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" t="s">
         <v>169</v>
-      </c>
-      <c r="B46" t="s">
-        <v>170</v>
       </c>
       <c r="C46" t="s">
         <v>69</v>
@@ -3907,19 +3907,19 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L46" t="s">
         <v>46</v>
       </c>
       <c r="M46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N46" t="s">
         <v>18</v>
       </c>
       <c r="O46" t="s">
-        <v>96</v>
+        <v>343</v>
       </c>
       <c r="P46" t="s">
         <v>25</v>
@@ -3927,10 +3927,10 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" t="s">
         <v>172</v>
-      </c>
-      <c r="B47" t="s">
-        <v>173</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -3963,7 +3963,7 @@
         <v>18</v>
       </c>
       <c r="M47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N47" t="s">
         <v>21</v>
@@ -3977,10 +3977,10 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" t="s">
         <v>174</v>
-      </c>
-      <c r="B48" t="s">
-        <v>175</v>
       </c>
       <c r="C48" t="s">
         <v>69</v>
@@ -3989,7 +3989,7 @@
         <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F48" t="s">
         <v>18</v>
@@ -4007,13 +4007,13 @@
         <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N48" t="s">
         <v>25</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" t="s">
         <v>177</v>
-      </c>
-      <c r="B49" t="s">
-        <v>178</v>
       </c>
       <c r="C49" t="s">
         <v>94</v>
@@ -4048,7 +4048,7 @@
         <v>21</v>
       </c>
       <c r="H49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I49" t="s">
         <v>18</v>
@@ -4057,13 +4057,13 @@
         <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N49" t="s">
         <v>18</v>
@@ -4077,10 +4077,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" t="s">
         <v>181</v>
-      </c>
-      <c r="B50" t="s">
-        <v>182</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -4107,13 +4107,13 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L50" t="s">
         <v>74</v>
       </c>
       <c r="M50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N50" t="s">
         <v>18</v>
@@ -4127,11 +4127,11 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" t="s">
         <v>183</v>
       </c>
-      <c r="B51" t="s">
-        <v>184</v>
-      </c>
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G51" t="s">
         <v>21</v>
@@ -4157,13 +4157,13 @@
         <v>3</v>
       </c>
       <c r="K51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N51" t="s">
         <v>25</v>
@@ -4177,13 +4177,13 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" t="s">
         <v>186</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>187</v>
-      </c>
-      <c r="C52" t="s">
-        <v>188</v>
       </c>
       <c r="D52" t="s">
         <v>55</v>
@@ -4207,13 +4207,13 @@
         <v>2</v>
       </c>
       <c r="K52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N52" t="s">
         <v>18</v>
@@ -4227,13 +4227,13 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" t="s">
         <v>189</v>
       </c>
-      <c r="B53" t="s">
-        <v>190</v>
-      </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -4257,13 +4257,13 @@
         <v>3</v>
       </c>
       <c r="K53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N53" t="s">
         <v>18</v>
@@ -4277,13 +4277,13 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" t="s">
         <v>193</v>
       </c>
-      <c r="B54" t="s">
-        <v>194</v>
-      </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
         <v>61</v>
@@ -4307,13 +4307,13 @@
         <v>7</v>
       </c>
       <c r="K54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N54" t="s">
         <v>21</v>
@@ -4327,10 +4327,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" t="s">
         <v>195</v>
-      </c>
-      <c r="B55" t="s">
-        <v>196</v>
       </c>
       <c r="C55" t="s">
         <v>69</v>
@@ -4357,13 +4357,13 @@
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N55" t="s">
         <v>21</v>
@@ -4377,16 +4377,16 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" t="s">
         <v>197</v>
       </c>
-      <c r="B56" t="s">
-        <v>198</v>
-      </c>
       <c r="C56" t="s">
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
@@ -4407,13 +4407,13 @@
         <v>2</v>
       </c>
       <c r="K56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N56" t="s">
         <v>18</v>
@@ -4427,10 +4427,10 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" t="s">
         <v>199</v>
-      </c>
-      <c r="B57" t="s">
-        <v>200</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
@@ -4457,13 +4457,13 @@
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L57" t="s">
         <v>46</v>
       </c>
       <c r="M57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N57" t="s">
         <v>21</v>
@@ -4477,10 +4477,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" t="s">
         <v>202</v>
-      </c>
-      <c r="B58" t="s">
-        <v>203</v>
       </c>
       <c r="C58" t="s">
         <v>66</v>
@@ -4489,7 +4489,7 @@
         <v>55</v>
       </c>
       <c r="E58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F58" t="s">
         <v>18</v>
@@ -4498,7 +4498,7 @@
         <v>25</v>
       </c>
       <c r="H58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I58" t="s">
         <v>18</v>
@@ -4507,13 +4507,13 @@
         <v>6</v>
       </c>
       <c r="K58" t="s">
+        <v>327</v>
+      </c>
+      <c r="L58" t="s">
         <v>328</v>
       </c>
-      <c r="L58" t="s">
-        <v>329</v>
-      </c>
       <c r="M58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N58" t="s">
         <v>21</v>
@@ -4527,11 +4527,11 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" t="s">
         <v>204</v>
       </c>
-      <c r="B59" t="s">
-        <v>205</v>
-      </c>
       <c r="C59" t="s">
         <v>18</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>18</v>
       </c>
       <c r="M59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N59" t="s">
         <v>25</v>
@@ -4577,10 +4577,10 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" t="s">
         <v>206</v>
-      </c>
-      <c r="B60" t="s">
-        <v>207</v>
       </c>
       <c r="C60" t="s">
         <v>69</v>
@@ -4607,13 +4607,13 @@
         <v>3</v>
       </c>
       <c r="K60" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L60" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N60" t="s">
         <v>21</v>
@@ -4627,16 +4627,16 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" t="s">
         <v>208</v>
       </c>
-      <c r="B61" t="s">
-        <v>209</v>
-      </c>
       <c r="C61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" t="s">
         <v>160</v>
-      </c>
-      <c r="D61" t="s">
-        <v>161</v>
       </c>
       <c r="E61" t="s">
         <v>18</v>
@@ -4657,13 +4657,13 @@
         <v>18</v>
       </c>
       <c r="K61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L61" t="s">
         <v>46</v>
       </c>
       <c r="M61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N61" t="s">
         <v>18</v>
@@ -4677,19 +4677,19 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" t="s">
         <v>210</v>
-      </c>
-      <c r="B62" t="s">
-        <v>211</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F62" t="s">
         <v>18</v>
@@ -4701,19 +4701,19 @@
         <v>62</v>
       </c>
       <c r="I62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J62" s="1">
         <v>5</v>
       </c>
       <c r="K62" t="s">
+        <v>321</v>
+      </c>
+      <c r="L62" t="s">
         <v>322</v>
       </c>
-      <c r="L62" t="s">
-        <v>323</v>
-      </c>
       <c r="M62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N62" t="s">
         <v>25</v>
@@ -4727,16 +4727,16 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63" t="s">
         <v>213</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" t="s">
         <v>214</v>
-      </c>
-      <c r="C63" t="s">
-        <v>102</v>
-      </c>
-      <c r="D63" t="s">
-        <v>215</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
@@ -4751,19 +4751,19 @@
         <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N63" t="s">
         <v>25</v>
@@ -4777,16 +4777,16 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" t="s">
         <v>217</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>218</v>
       </c>
-      <c r="C64" t="s">
-        <v>219</v>
-      </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
@@ -4807,13 +4807,13 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L64" t="s">
         <v>74</v>
       </c>
       <c r="M64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N64" t="s">
         <v>18</v>
@@ -4827,10 +4827,10 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65" t="s">
         <v>221</v>
-      </c>
-      <c r="B65" t="s">
-        <v>222</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
@@ -4863,13 +4863,13 @@
         <v>18</v>
       </c>
       <c r="M65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N65" t="s">
         <v>21</v>
       </c>
       <c r="O65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P65" t="s">
         <v>21</v>
@@ -4877,11 +4877,11 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" t="s">
         <v>224</v>
       </c>
-      <c r="B66" t="s">
-        <v>225</v>
-      </c>
       <c r="C66" t="s">
         <v>18</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F66" t="s">
         <v>44</v>
@@ -4907,13 +4907,13 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N66" t="s">
         <v>25</v>
@@ -4927,10 +4927,10 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" t="s">
         <v>226</v>
-      </c>
-      <c r="B67" t="s">
-        <v>227</v>
       </c>
       <c r="C67" t="s">
         <v>69</v>
@@ -4957,13 +4957,13 @@
         <v>2</v>
       </c>
       <c r="K67" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N67" t="s">
         <v>18</v>
@@ -4977,11 +4977,11 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" t="s">
         <v>228</v>
       </c>
-      <c r="B68" t="s">
-        <v>229</v>
-      </c>
       <c r="C68" t="s">
         <v>18</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G68" t="s">
         <v>25</v>
@@ -5007,13 +5007,13 @@
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N68" t="s">
         <v>18</v>
@@ -5035,9 +5035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5051,19 +5051,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5074,10 +5074,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5088,10 +5088,10 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5102,10 +5102,10 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5116,10 +5116,10 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5130,10 +5130,10 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5144,10 +5144,10 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5158,7 +5158,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -5172,10 +5172,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5186,10 +5186,10 @@
         <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5200,10 +5200,10 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5214,10 +5214,10 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5228,10 +5228,10 @@
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5242,10 +5242,10 @@
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5256,10 +5256,10 @@
         <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5270,10 +5270,10 @@
         <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5284,10 +5284,10 @@
         <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5312,10 +5312,10 @@
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5326,10 +5326,10 @@
         <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5340,10 +5340,10 @@
         <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5351,16 +5351,16 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" t="s">
         <v>237</v>
-      </c>
-      <c r="D22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E22" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -5368,13 +5368,13 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5382,13 +5382,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5396,13 +5396,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -5410,13 +5410,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -5424,13 +5424,13 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -5438,13 +5438,13 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -5452,13 +5452,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5466,13 +5466,13 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -5480,16 +5480,16 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -5497,13 +5497,13 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -5511,13 +5511,13 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -5525,13 +5525,13 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -5539,13 +5539,13 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -5553,10 +5553,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -5567,13 +5567,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -5581,16 +5581,16 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s">
+        <v>238</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
         <v>239</v>
-      </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -5598,13 +5598,13 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -5612,13 +5612,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -5626,13 +5626,13 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -5640,13 +5640,13 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -5654,13 +5654,13 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -5668,13 +5668,13 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -5682,13 +5682,13 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -5696,13 +5696,13 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -5710,7 +5710,7 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -5724,13 +5724,13 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -5738,13 +5738,13 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5752,7 +5752,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -5766,10 +5766,10 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -5780,13 +5780,13 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -5794,13 +5794,13 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -5808,13 +5808,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -5822,13 +5822,13 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -5836,16 +5836,16 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5853,13 +5853,13 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -5867,10 +5867,10 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -5881,13 +5881,13 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -5895,13 +5895,13 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -5909,13 +5909,13 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -5923,13 +5923,13 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -5937,13 +5937,13 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -5951,13 +5951,13 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -5965,13 +5965,13 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -5979,13 +5979,13 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -5993,13 +5993,13 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -6010,10 +6010,10 @@
         <v>26</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E68" s="10"/>
     </row>
@@ -6025,13 +6025,13 @@
         <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -6042,10 +6042,10 @@
         <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -6056,7 +6056,7 @@
         <v>37</v>
       </c>
       <c r="C71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -6070,7 +6070,7 @@
         <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -6084,10 +6084,10 @@
         <v>42</v>
       </c>
       <c r="C73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -6095,13 +6095,13 @@
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -6109,13 +6109,13 @@
         <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -6123,13 +6123,13 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -6140,10 +6140,10 @@
         <v>31</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E77" s="10"/>
     </row>
@@ -6155,10 +6155,10 @@
         <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -6169,10 +6169,10 @@
         <v>35</v>
       </c>
       <c r="C79" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -6183,7 +6183,7 @@
         <v>37</v>
       </c>
       <c r="C80" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -6197,13 +6197,13 @@
         <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E81" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -6214,10 +6214,10 @@
         <v>58</v>
       </c>
       <c r="C82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -6228,10 +6228,10 @@
         <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D83" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -6242,10 +6242,10 @@
         <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -6256,10 +6256,10 @@
         <v>78</v>
       </c>
       <c r="C85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -6270,10 +6270,10 @@
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D86" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -6284,10 +6284,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -6295,13 +6295,13 @@
         <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -6309,13 +6309,13 @@
         <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D89" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -6323,13 +6323,13 @@
         <v>26</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -6337,13 +6337,13 @@
         <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -6351,10 +6351,10 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C92" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -6365,13 +6365,13 @@
         <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C93" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -6379,13 +6379,13 @@
         <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -6393,16 +6393,16 @@
         <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E95" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -6410,10 +6410,10 @@
         <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C96" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
@@ -6424,16 +6424,16 @@
         <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -6441,10 +6441,10 @@
         <v>26</v>
       </c>
       <c r="B98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -6455,13 +6455,13 @@
         <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -6469,13 +6469,13 @@
         <v>26</v>
       </c>
       <c r="B100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D100" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -6483,13 +6483,13 @@
         <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C101" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D101" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -6497,13 +6497,13 @@
         <v>26</v>
       </c>
       <c r="B102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C102" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D102" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -6511,13 +6511,13 @@
         <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C103" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D103" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -6525,13 +6525,13 @@
         <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C104" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D104" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -6539,13 +6539,13 @@
         <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C105" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D105" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -6553,13 +6553,13 @@
         <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C106" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D106" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -6567,16 +6567,16 @@
         <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C107" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D107" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E107" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -6584,13 +6584,13 @@
         <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D108" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -6601,10 +6601,10 @@
         <v>33</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E109" s="10"/>
     </row>
@@ -6616,10 +6616,10 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D110" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -6630,7 +6630,7 @@
         <v>37</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D111" s="23" t="s">
         <v>18</v>
@@ -6645,10 +6645,10 @@
         <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D112" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -6659,10 +6659,10 @@
         <v>35</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E113" s="10"/>
     </row>
@@ -6674,7 +6674,7 @@
         <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D114" t="s">
         <v>18</v>
@@ -6688,10 +6688,10 @@
         <v>40</v>
       </c>
       <c r="C115" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D115" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -6702,7 +6702,7 @@
         <v>37</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>18</v>
@@ -6717,7 +6717,7 @@
         <v>40</v>
       </c>
       <c r="C117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D117" t="s">
         <v>18</v>
@@ -6728,16 +6728,16 @@
         <v>35</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E118" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -6748,7 +6748,7 @@
         <v>40</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>18</v>
@@ -6760,13 +6760,13 @@
         <v>37</v>
       </c>
       <c r="B120" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C120" t="s">
         <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -6777,10 +6777,10 @@
         <v>58</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E121" s="10"/>
     </row>
@@ -6792,10 +6792,10 @@
         <v>78</v>
       </c>
       <c r="C122" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -6803,13 +6803,13 @@
         <v>42</v>
       </c>
       <c r="B123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C123" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D123" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -6817,13 +6817,13 @@
         <v>42</v>
       </c>
       <c r="B124" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C124" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D124" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -6831,13 +6831,13 @@
         <v>53</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E125" s="10"/>
     </row>
@@ -6846,13 +6846,13 @@
         <v>53</v>
       </c>
       <c r="B126" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C126" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D126" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -6863,10 +6863,10 @@
         <v>78</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E127" s="10"/>
     </row>
@@ -6878,10 +6878,10 @@
         <v>81</v>
       </c>
       <c r="C128" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D128" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -6892,10 +6892,10 @@
         <v>88</v>
       </c>
       <c r="C129" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D129" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -6903,13 +6903,13 @@
         <v>58</v>
       </c>
       <c r="B130" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C130" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D130" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -6917,13 +6917,13 @@
         <v>58</v>
       </c>
       <c r="B131" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C131" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D131" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -6931,13 +6931,13 @@
         <v>58</v>
       </c>
       <c r="B132" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C132" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D132" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -6945,13 +6945,13 @@
         <v>64</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E133" s="10"/>
     </row>
@@ -6960,13 +6960,13 @@
         <v>70</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E134" s="10"/>
     </row>
@@ -6978,10 +6978,10 @@
         <v>88</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E135" s="10"/>
     </row>
@@ -6990,13 +6990,13 @@
         <v>78</v>
       </c>
       <c r="B136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C136" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D136" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -7004,13 +7004,13 @@
         <v>78</v>
       </c>
       <c r="B137" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C137" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D137" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -7018,13 +7018,13 @@
         <v>81</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E138" s="10"/>
     </row>
@@ -7033,13 +7033,13 @@
         <v>81</v>
       </c>
       <c r="B139" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C139" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D139" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -7047,13 +7047,13 @@
         <v>81</v>
       </c>
       <c r="B140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D140" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -7061,13 +7061,13 @@
         <v>88</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E141" s="10"/>
     </row>
@@ -7076,13 +7076,13 @@
         <v>88</v>
       </c>
       <c r="B142" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C142" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D142" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -7090,13 +7090,13 @@
         <v>88</v>
       </c>
       <c r="B143" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C143" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D143" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -7104,13 +7104,13 @@
         <v>88</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E144" s="24"/>
     </row>
@@ -7119,40 +7119,40 @@
         <v>92</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C145" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E145" s="23"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E146" s="10"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C147" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D147" t="s">
         <v>18</v>
@@ -7160,252 +7160,252 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B148" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C148" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D148" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E149" s="10"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E150" s="10"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E151" s="10"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D152" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E152" s="23"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C153" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D153" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E153" s="23"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C154" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D154" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E154" s="23"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C155" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D155" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E155" s="23"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C156" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E156" s="23"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E157" s="23"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E158" s="23"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E159" s="23"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E160" s="23"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E161" s="23"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E162" s="10"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E163" s="10"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>18</v>
@@ -7414,31 +7414,31 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E165" s="10"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B166" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D166" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -7481,122 +7481,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>252</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
         <v>254</v>
-      </c>
-      <c r="C2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" t="s">
-        <v>255</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7604,19 +7604,19 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7624,19 +7624,19 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7644,39 +7644,39 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7684,19 +7684,19 @@
         <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7704,139 +7704,139 @@
         <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B13" t="s">
         <v>341</v>
-      </c>
-      <c r="B13" t="s">
-        <v>342</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E18">
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7844,19 +7844,19 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E19">
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7864,119 +7864,119 @@
         <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C21" t="s">
         <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C22" t="s">
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E25">
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vincent\eclipse\workspaces\Networks\TrajanNet\data\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Eclipse\workspaces\Networks\TrajanNet\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5625" windowHeight="1020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5630" windowHeight="1020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="attributs" sheetId="1" r:id="rId1"/>
@@ -1066,8 +1066,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1088,6 +1088,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1226,16 +1233,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1597,35 +1604,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.42578125"/>
-    <col min="3" max="3" width="63.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="55.5703125" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="58.85546875" customWidth="1"/>
-    <col min="12" max="12" width="53.7109375" customWidth="1"/>
+    <col min="1" max="2" width="11.453125"/>
+    <col min="3" max="3" width="63.7265625" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" customWidth="1"/>
+    <col min="5" max="5" width="45.54296875" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" customWidth="1"/>
+    <col min="8" max="8" width="55.54296875" customWidth="1"/>
+    <col min="9" max="9" width="29.54296875" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="58.81640625" customWidth="1"/>
+    <col min="12" max="12" width="53.7265625" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" customWidth="1"/>
-    <col min="17" max="17" width="27.85546875" customWidth="1"/>
-    <col min="18" max="1025" width="11.42578125"/>
+    <col min="14" max="14" width="16.1796875" customWidth="1"/>
+    <col min="15" max="15" width="21.1796875" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" customWidth="1"/>
+    <col min="17" max="17" width="27.81640625" customWidth="1"/>
+    <col min="18" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1675,7 +1682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
@@ -1725,7 +1732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
@@ -1775,7 +1782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1825,7 +1832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1853,7 +1860,7 @@
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="17">
         <v>1</v>
       </c>
       <c r="K5" t="s">
@@ -1875,7 +1882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1925,7 +1932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1975,7 +1982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2025,7 +2032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2075,7 +2082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2125,7 +2132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2175,7 +2182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2225,7 +2232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2275,7 +2282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -2325,7 +2332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -2375,7 +2382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -2425,7 +2432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -2475,7 +2482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -2525,7 +2532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -2575,7 +2582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -2625,7 +2632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -2675,7 +2682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -2725,7 +2732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -2775,7 +2782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -2825,7 +2832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -2875,7 +2882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -2925,7 +2932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -2975,7 +2982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -3025,7 +3032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -3075,7 +3082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -3125,7 +3132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -3175,7 +3182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>124</v>
       </c>
@@ -3225,7 +3232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -3275,7 +3282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -3325,7 +3332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>134</v>
       </c>
@@ -3375,7 +3382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>137</v>
       </c>
@@ -3425,7 +3432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>141</v>
       </c>
@@ -3475,7 +3482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>144</v>
       </c>
@@ -3525,7 +3532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -3575,7 +3582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -3625,7 +3632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -3675,7 +3682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -3725,7 +3732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>157</v>
       </c>
@@ -3775,7 +3782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>162</v>
       </c>
@@ -3825,7 +3832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>165</v>
       </c>
@@ -3875,7 +3882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -3925,7 +3932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>171</v>
       </c>
@@ -3975,7 +3982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>173</v>
       </c>
@@ -4025,7 +4032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>176</v>
       </c>
@@ -4075,7 +4082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>180</v>
       </c>
@@ -4125,7 +4132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>182</v>
       </c>
@@ -4175,7 +4182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -4225,7 +4232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>188</v>
       </c>
@@ -4275,7 +4282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>192</v>
       </c>
@@ -4325,7 +4332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>194</v>
       </c>
@@ -4375,7 +4382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>196</v>
       </c>
@@ -4425,7 +4432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>198</v>
       </c>
@@ -4475,7 +4482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>201</v>
       </c>
@@ -4525,7 +4532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -4575,7 +4582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>205</v>
       </c>
@@ -4625,7 +4632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>207</v>
       </c>
@@ -4675,7 +4682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>209</v>
       </c>
@@ -4725,7 +4732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>212</v>
       </c>
@@ -4775,7 +4782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>216</v>
       </c>
@@ -4825,7 +4832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>220</v>
       </c>
@@ -4875,7 +4882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>223</v>
       </c>
@@ -4925,7 +4932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>225</v>
       </c>
@@ -4975,7 +4982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>227</v>
       </c>
@@ -5040,33 +5047,33 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="1" max="2" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="1025" width="11.42578125"/>
+    <col min="6" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5080,7 +5087,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5094,7 +5101,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -5108,7 +5115,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -5122,7 +5129,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5136,7 +5143,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5150,7 +5157,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5164,7 +5171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5178,7 +5185,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -5192,7 +5199,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -5206,7 +5213,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -5220,7 +5227,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -5234,7 +5241,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -5248,7 +5255,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -5262,7 +5269,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -5276,7 +5283,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5290,7 +5297,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5304,7 +5311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5318,7 +5325,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -5332,7 +5339,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -5346,7 +5353,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -5363,7 +5370,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -5377,7 +5384,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -5391,7 +5398,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -5405,7 +5412,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -5419,7 +5426,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -5433,7 +5440,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -5447,7 +5454,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -5461,7 +5468,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -5475,7 +5482,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -5492,7 +5499,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -5506,7 +5513,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -5520,7 +5527,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -5534,7 +5541,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -5548,7 +5555,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -5562,7 +5569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -5576,7 +5583,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -5593,7 +5600,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -5607,7 +5614,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -5621,7 +5628,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -5635,7 +5642,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -5649,7 +5656,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -5663,7 +5670,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -5677,7 +5684,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -5691,7 +5698,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -5705,7 +5712,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -5719,7 +5726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -5733,7 +5740,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -5747,7 +5754,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -5761,7 +5768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -5775,7 +5782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -5789,7 +5796,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -5803,7 +5810,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -5817,7 +5824,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -5831,7 +5838,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -5848,7 +5855,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -5862,7 +5869,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -5876,7 +5883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -5890,7 +5897,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -5904,7 +5911,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -5918,7 +5925,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -5932,7 +5939,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -5946,7 +5953,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -5960,7 +5967,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -5974,7 +5981,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -5988,7 +5995,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -6002,7 +6009,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
         <v>19</v>
       </c>
@@ -6017,7 +6024,7 @@
       </c>
       <c r="E68" s="10"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -6034,7 +6041,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -6048,7 +6055,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -6062,7 +6069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -6076,7 +6083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -6090,7 +6097,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -6104,7 +6111,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -6118,7 +6125,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -6132,7 +6139,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>26</v>
       </c>
@@ -6147,7 +6154,7 @@
       </c>
       <c r="E77" s="10"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -6161,7 +6168,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -6175,7 +6182,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -6189,7 +6196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -6206,7 +6213,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -6220,7 +6227,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -6234,7 +6241,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -6248,7 +6255,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -6262,7 +6269,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -6276,7 +6283,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -6290,7 +6297,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -6304,7 +6311,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -6318,7 +6325,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -6332,7 +6339,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -6346,7 +6353,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -6360,7 +6367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -6374,7 +6381,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -6388,7 +6395,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -6405,7 +6412,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -6419,7 +6426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -6436,7 +6443,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -6450,7 +6457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -6464,7 +6471,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -6478,7 +6485,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -6492,7 +6499,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -6506,7 +6513,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -6520,7 +6527,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>26</v>
       </c>
@@ -6534,7 +6541,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>26</v>
       </c>
@@ -6548,7 +6555,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>26</v>
       </c>
@@ -6562,7 +6569,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -6579,7 +6586,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -6593,7 +6600,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>31</v>
       </c>
@@ -6608,7 +6615,7 @@
       </c>
       <c r="E109" s="10"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -6622,22 +6629,22 @@
         <v>235</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="23" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B111" s="23" t="s">
+      <c r="B111" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C111" s="23" t="s">
+      <c r="C111" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="D111" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="23"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D111" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="19"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -6651,7 +6658,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
         <v>33</v>
       </c>
@@ -6666,7 +6673,7 @@
       </c>
       <c r="E113" s="10"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -6680,7 +6687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>33</v>
       </c>
@@ -6694,7 +6701,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
         <v>35</v>
       </c>
@@ -6709,7 +6716,7 @@
       </c>
       <c r="E116" s="10"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>35</v>
       </c>
@@ -6723,24 +6730,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="23" t="s">
+    <row r="118" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="B118" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C118" s="23" t="s">
+      <c r="C118" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D118" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E118" s="23" t="s">
+      <c r="D118" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E118" s="19" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
         <v>37</v>
       </c>
@@ -6755,7 +6762,7 @@
       </c>
       <c r="E119" s="10"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -6769,7 +6776,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
         <v>42</v>
       </c>
@@ -6784,7 +6791,7 @@
       </c>
       <c r="E121" s="10"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>42</v>
       </c>
@@ -6798,7 +6805,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>42</v>
       </c>
@@ -6812,7 +6819,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>42</v>
       </c>
@@ -6826,7 +6833,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="10" t="s">
         <v>53</v>
       </c>
@@ -6841,7 +6848,7 @@
       </c>
       <c r="E125" s="10"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>53</v>
       </c>
@@ -6855,7 +6862,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
         <v>58</v>
       </c>
@@ -6870,7 +6877,7 @@
       </c>
       <c r="E127" s="10"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>58</v>
       </c>
@@ -6884,7 +6891,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>58</v>
       </c>
@@ -6898,7 +6905,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>58</v>
       </c>
@@ -6912,7 +6919,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -6926,7 +6933,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>58</v>
       </c>
@@ -6940,7 +6947,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
         <v>64</v>
       </c>
@@ -6955,7 +6962,7 @@
       </c>
       <c r="E133" s="10"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="10" t="s">
         <v>70</v>
       </c>
@@ -6970,7 +6977,7 @@
       </c>
       <c r="E134" s="10"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="10" t="s">
         <v>78</v>
       </c>
@@ -6985,7 +6992,7 @@
       </c>
       <c r="E135" s="10"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>78</v>
       </c>
@@ -6999,7 +7006,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>78</v>
       </c>
@@ -7013,7 +7020,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="10" t="s">
         <v>81</v>
       </c>
@@ -7028,7 +7035,7 @@
       </c>
       <c r="E138" s="10"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>81</v>
       </c>
@@ -7042,7 +7049,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>81</v>
       </c>
@@ -7056,7 +7063,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="10" t="s">
         <v>88</v>
       </c>
@@ -7071,7 +7078,7 @@
       </c>
       <c r="E141" s="10"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>88</v>
       </c>
@@ -7085,7 +7092,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -7099,37 +7106,37 @@
         <v>235</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="24" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B144" s="24" t="s">
+      <c r="B144" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C144" s="24" t="s">
+      <c r="C144" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D144" s="24" t="s">
+      <c r="D144" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="E144" s="24"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="23" t="s">
+      <c r="E144" s="20"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B145" s="23" t="s">
+      <c r="B145" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C145" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D145" s="23" t="s">
+      <c r="C145" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="E145" s="23"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E145" s="19"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
         <v>99</v>
       </c>
@@ -7144,7 +7151,7 @@
       </c>
       <c r="E146" s="10"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>99</v>
       </c>
@@ -7158,7 +7165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -7172,7 +7179,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="10" t="s">
         <v>102</v>
       </c>
@@ -7187,7 +7194,7 @@
       </c>
       <c r="E149" s="10"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="10" t="s">
         <v>104</v>
       </c>
@@ -7202,7 +7209,7 @@
       </c>
       <c r="E150" s="10"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="10" t="s">
         <v>107</v>
       </c>
@@ -7217,157 +7224,157 @@
       </c>
       <c r="E151" s="10"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="23" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B152" s="23" t="s">
+      <c r="B152" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C152" s="23" t="s">
+      <c r="C152" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D152" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E152" s="23"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="23" t="s">
+      <c r="D152" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E152" s="19"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B153" s="23" t="s">
+      <c r="B153" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C153" s="23" t="s">
+      <c r="C153" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D153" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E153" s="23"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="23" t="s">
+      <c r="D153" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E153" s="19"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B154" s="23" t="s">
+      <c r="B154" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C154" s="23" t="s">
+      <c r="C154" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D154" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E154" s="23"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="23" t="s">
+      <c r="D154" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E154" s="19"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="B155" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C155" s="23" t="s">
+      <c r="C155" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D155" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E155" s="23"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="23" t="s">
+      <c r="D155" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E155" s="19"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B156" s="23" t="s">
+      <c r="B156" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C156" s="23" t="s">
+      <c r="C156" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D156" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E156" s="23"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="23" t="s">
+      <c r="D156" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E156" s="19"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B157" s="23" t="s">
+      <c r="B157" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C157" s="23" t="s">
+      <c r="C157" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D157" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E157" s="23"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="23" t="s">
+      <c r="D157" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E157" s="19"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B158" s="23" t="s">
+      <c r="B158" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C158" s="23" t="s">
+      <c r="C158" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D158" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E158" s="23"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="23" t="s">
+      <c r="D158" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E158" s="19"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B159" s="23" t="s">
+      <c r="B159" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="C159" s="23" t="s">
+      <c r="C159" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D159" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E159" s="23"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="23" t="s">
+      <c r="D159" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E159" s="19"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B160" s="23" t="s">
+      <c r="B160" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C160" s="23" t="s">
+      <c r="C160" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D160" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E160" s="23"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="23" t="s">
+      <c r="D160" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E160" s="19"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B161" s="23" t="s">
+      <c r="B161" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="C161" s="23" t="s">
+      <c r="C161" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D161" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E161" s="23"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D161" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E161" s="19"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="10" t="s">
         <v>110</v>
       </c>
@@ -7382,7 +7389,7 @@
       </c>
       <c r="E162" s="10"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="10" t="s">
         <v>115</v>
       </c>
@@ -7397,7 +7404,7 @@
       </c>
       <c r="E163" s="10"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="10" t="s">
         <v>118</v>
       </c>
@@ -7412,7 +7419,7 @@
       </c>
       <c r="E164" s="10"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="10" t="s">
         <v>162</v>
       </c>
@@ -7427,7 +7434,7 @@
       </c>
       <c r="E165" s="10"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>162</v>
       </c>
@@ -7441,7 +7448,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -7463,43 +7470,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.26953125" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="7" max="1025" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="24" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -7519,7 +7526,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>214</v>
       </c>
@@ -7539,7 +7546,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>218</v>
       </c>
@@ -7559,7 +7566,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -7579,7 +7586,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -7599,7 +7606,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -7619,7 +7626,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -7639,7 +7646,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -7659,7 +7666,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>264</v>
       </c>
@@ -7679,7 +7686,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -7699,7 +7706,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -7719,7 +7726,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>340</v>
       </c>
@@ -7739,7 +7746,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -7759,7 +7766,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -7779,7 +7786,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -7799,7 +7806,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -7819,7 +7826,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -7839,7 +7846,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -7859,7 +7866,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -7879,7 +7886,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>211</v>
       </c>
@@ -7899,7 +7906,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>278</v>
       </c>
@@ -7919,7 +7926,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>280</v>
       </c>
@@ -7939,7 +7946,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>282</v>
       </c>
@@ -7959,7 +7966,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>284</v>
       </c>
@@ -7981,6 +7988,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Eclipse\workspaces\Networks\TrajanNet\data\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vincent\eclipse\workspaces\Networks\TrajanNet\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5630" windowHeight="1020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5625" windowHeight="1020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="attributs" sheetId="1" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1605,34 +1605,34 @@
   <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.453125"/>
-    <col min="3" max="3" width="63.7265625" customWidth="1"/>
-    <col min="4" max="4" width="31.7265625" customWidth="1"/>
-    <col min="5" max="5" width="45.54296875" customWidth="1"/>
-    <col min="6" max="6" width="30.81640625" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" customWidth="1"/>
-    <col min="8" max="8" width="55.54296875" customWidth="1"/>
-    <col min="9" max="9" width="29.54296875" customWidth="1"/>
-    <col min="10" max="10" width="18.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="58.81640625" customWidth="1"/>
-    <col min="12" max="12" width="53.7265625" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125"/>
+    <col min="3" max="3" width="63.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="55.5703125" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="58.85546875" customWidth="1"/>
+    <col min="12" max="12" width="53.7109375" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="16.1796875" customWidth="1"/>
-    <col min="15" max="15" width="21.1796875" customWidth="1"/>
-    <col min="16" max="16" width="8.81640625" customWidth="1"/>
-    <col min="17" max="17" width="27.81640625" customWidth="1"/>
-    <col min="18" max="1025" width="11.453125"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="17" max="17" width="27.85546875" customWidth="1"/>
+    <col min="18" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>124</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>134</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>137</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>141</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>144</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>157</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>162</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>165</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>171</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>173</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>176</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>180</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>182</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>188</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>192</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>194</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>196</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>198</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>201</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>205</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>207</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>209</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>212</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>216</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>220</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>223</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>225</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>227</v>
       </c>
@@ -5043,20 +5043,20 @@
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="3" width="30.54296875" customWidth="1"/>
+    <col min="1" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="1025" width="11.453125"/>
+    <col min="6" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>230</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>19</v>
       </c>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="E68" s="10"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>26</v>
       </c>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="E77" s="10"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>26</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>26</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>26</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>31</v>
       </c>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="E109" s="10"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
         <v>31</v>
       </c>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="E111" s="19"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>33</v>
       </c>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="E113" s="10"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>33</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>35</v>
       </c>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="E116" s="10"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>35</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
         <v>35</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>37</v>
       </c>
@@ -6762,7 +6762,7 @@
       </c>
       <c r="E119" s="10"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>42</v>
       </c>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="E121" s="10"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>42</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>42</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>42</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>53</v>
       </c>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="E125" s="10"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>53</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>58</v>
       </c>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="E127" s="10"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>58</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>58</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>58</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>58</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>64</v>
       </c>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="E133" s="10"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>70</v>
       </c>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="E134" s="10"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>78</v>
       </c>
@@ -6992,7 +6992,7 @@
       </c>
       <c r="E135" s="10"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>78</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>78</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>81</v>
       </c>
@@ -7035,7 +7035,7 @@
       </c>
       <c r="E138" s="10"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>81</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>81</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>88</v>
       </c>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="E141" s="10"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>88</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="20" t="s">
         <v>88</v>
       </c>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="E144" s="20"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
         <v>92</v>
       </c>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="E145" s="19"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>99</v>
       </c>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="E146" s="10"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>99</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>102</v>
       </c>
@@ -7194,7 +7194,7 @@
       </c>
       <c r="E149" s="10"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>104</v>
       </c>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="E150" s="10"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>107</v>
       </c>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="E151" s="10"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
         <v>107</v>
       </c>
@@ -7239,7 +7239,7 @@
       </c>
       <c r="E152" s="19"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
         <v>107</v>
       </c>
@@ -7254,7 +7254,7 @@
       </c>
       <c r="E153" s="19"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
         <v>107</v>
       </c>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="E154" s="19"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
         <v>107</v>
       </c>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="E155" s="19"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
         <v>107</v>
       </c>
@@ -7299,7 +7299,7 @@
       </c>
       <c r="E156" s="19"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
         <v>107</v>
       </c>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="E157" s="19"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
         <v>107</v>
       </c>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="E158" s="19"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
         <v>107</v>
       </c>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="E159" s="19"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
         <v>107</v>
       </c>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="E160" s="19"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
         <v>107</v>
       </c>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="E161" s="19"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>110</v>
       </c>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="E162" s="10"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>115</v>
       </c>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="E163" s="10"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>118</v>
       </c>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="E164" s="10"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>162</v>
       </c>
@@ -7434,7 +7434,7 @@
       </c>
       <c r="E165" s="10"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>162</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -7472,21 +7472,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1"/>
-    <col min="7" max="1025" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>247</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>214</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>218</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>264</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>340</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>341</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
         <v>269</v>
@@ -7746,7 +7746,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>211</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>278</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>280</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>282</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>284</v>
       </c>

--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5625" windowHeight="1020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5625" windowHeight="1020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="attributs" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="343">
   <si>
     <t>Id</t>
   </si>
@@ -325,9 +325,6 @@
     <t>Manius Laberius Maximus</t>
   </si>
   <si>
-    <t>Procuratèle;Préfet de l'annone;Préfet d'Égypte;Préfet du prétoire</t>
-  </si>
-  <si>
     <t>P22</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
     <t>Caius Pompeius Planta</t>
   </si>
   <si>
-    <t>Procuratèle;Préfet d'Égypte</t>
-  </si>
-  <si>
     <t>Préfet d'Égypte</t>
   </si>
   <si>
@@ -1061,6 +1055,9 @@
   </si>
   <si>
     <t>Regulus</t>
+  </si>
+  <si>
+    <t>Procuratèle;Préfet de l'annone;Préfet d'Égypte</t>
   </si>
 </sst>
 </file>
@@ -1604,11 +1601,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,10 +1811,10 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
@@ -1864,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
@@ -1914,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
@@ -1964,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L7" t="s">
         <v>23</v>
@@ -2017,7 +2014,7 @@
         <v>39</v>
       </c>
       <c r="L8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M8" t="s">
         <v>24</v>
@@ -2117,7 +2114,7 @@
         <v>45</v>
       </c>
       <c r="L10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M10" t="s">
         <v>47</v>
@@ -2164,10 +2161,10 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M11" t="s">
         <v>47</v>
@@ -2264,10 +2261,10 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M13" t="s">
         <v>47</v>
@@ -2314,10 +2311,10 @@
         <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M14" t="s">
         <v>47</v>
@@ -2364,10 +2361,10 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M15" t="s">
         <v>47</v>
@@ -2417,7 +2414,7 @@
         <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M16" t="s">
         <v>47</v>
@@ -2464,10 +2461,10 @@
         <v>5</v>
       </c>
       <c r="K17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M17" t="s">
         <v>47</v>
@@ -2517,7 +2514,7 @@
         <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M18" t="s">
         <v>47</v>
@@ -2614,10 +2611,10 @@
         <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M20" t="s">
         <v>47</v>
@@ -2664,10 +2661,10 @@
         <v>3</v>
       </c>
       <c r="K21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M21" t="s">
         <v>47</v>
@@ -2714,10 +2711,10 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M22" t="s">
         <v>47</v>
@@ -2726,7 +2723,7 @@
         <v>18</v>
       </c>
       <c r="O22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P22" t="s">
         <v>21</v>
@@ -2746,7 +2743,7 @@
         <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>342</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>
@@ -2764,10 +2761,10 @@
         <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M23" t="s">
         <v>47</v>
@@ -2784,13 +2781,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
         <v>99</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>101</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -2814,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s">
         <v>74</v>
@@ -2834,10 +2831,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
         <v>102</v>
-      </c>
-      <c r="B25" t="s">
-        <v>103</v>
       </c>
       <c r="C25" t="s">
         <v>90</v>
@@ -2864,10 +2861,10 @@
         <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M25" t="s">
         <v>47</v>
@@ -2884,22 +2881,22 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
         <v>104</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
         <v>105</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>106</v>
       </c>
       <c r="G26" t="s">
         <v>21</v>
@@ -2934,13 +2931,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
         <v>107</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>108</v>
-      </c>
-      <c r="C27" t="s">
-        <v>109</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -2984,22 +2981,22 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
         <v>110</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" t="s">
         <v>111</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" t="s">
-        <v>113</v>
       </c>
       <c r="G28" t="s">
         <v>21</v>
@@ -3014,10 +3011,10 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M28" t="s">
         <v>47</v>
@@ -3034,10 +3031,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
@@ -3064,10 +3061,10 @@
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L29" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M29" t="s">
         <v>47</v>
@@ -3084,22 +3081,22 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
         <v>118</v>
       </c>
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" t="s">
-        <v>120</v>
-      </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G30" t="s">
         <v>21</v>
@@ -3114,10 +3111,10 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M30" t="s">
         <v>47</v>
@@ -3134,10 +3131,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3184,22 +3181,22 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
         <v>124</v>
-      </c>
-      <c r="B32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" t="s">
-        <v>126</v>
       </c>
       <c r="G32" t="s">
         <v>21</v>
@@ -3214,10 +3211,10 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M32" t="s">
         <v>47</v>
@@ -3234,13 +3231,13 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
         <v>128</v>
-      </c>
-      <c r="B33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" t="s">
-        <v>130</v>
       </c>
       <c r="D33" t="s">
         <v>29</v>
@@ -3264,10 +3261,10 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M33" t="s">
         <v>47</v>
@@ -3284,10 +3281,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
         <v>69</v>
@@ -3314,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s">
         <v>46</v>
@@ -3334,10 +3331,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
         <v>69</v>
@@ -3346,7 +3343,7 @@
         <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s">
         <v>44</v>
@@ -3364,10 +3361,10 @@
         <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s">
         <v>47</v>
@@ -3384,13 +3381,13 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" t="s">
         <v>137</v>
-      </c>
-      <c r="B36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" t="s">
-        <v>139</v>
       </c>
       <c r="D36" t="s">
         <v>61</v>
@@ -3414,10 +3411,10 @@
         <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s">
         <v>47</v>
@@ -3434,43 +3431,43 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" t="s">
         <v>141</v>
-      </c>
-      <c r="B37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" t="s">
-        <v>143</v>
       </c>
       <c r="N37" t="s">
         <v>18</v>
@@ -3484,13 +3481,13 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
         <v>144</v>
-      </c>
-      <c r="B38" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" t="s">
-        <v>146</v>
       </c>
       <c r="D38" t="s">
         <v>51</v>
@@ -3520,7 +3517,7 @@
         <v>18</v>
       </c>
       <c r="M38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N38" t="s">
         <v>18</v>
@@ -3534,10 +3531,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3570,7 +3567,7 @@
         <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N39" t="s">
         <v>18</v>
@@ -3584,10 +3581,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3620,7 +3617,7 @@
         <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N40" t="s">
         <v>18</v>
@@ -3634,10 +3631,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
         <v>94</v>
@@ -3655,7 +3652,7 @@
         <v>21</v>
       </c>
       <c r="H41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
@@ -3664,13 +3661,13 @@
         <v>3</v>
       </c>
       <c r="K41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N41" t="s">
         <v>21</v>
@@ -3684,10 +3681,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
@@ -3720,7 +3717,7 @@
         <v>18</v>
       </c>
       <c r="M42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N42" t="s">
         <v>21</v>
@@ -3734,16 +3731,16 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
         <v>157</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>158</v>
-      </c>
-      <c r="C43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" t="s">
-        <v>160</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
@@ -3764,13 +3761,13 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L43" t="s">
         <v>46</v>
       </c>
       <c r="M43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N43" t="s">
         <v>18</v>
@@ -3784,13 +3781,13 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
@@ -3814,13 +3811,13 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L44" t="s">
         <v>74</v>
       </c>
       <c r="M44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N44" t="s">
         <v>25</v>
@@ -3834,10 +3831,10 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
         <v>69</v>
@@ -3864,13 +3861,13 @@
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L45" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N45" t="s">
         <v>18</v>
@@ -3884,10 +3881,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
         <v>69</v>
@@ -3914,19 +3911,19 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L46" t="s">
         <v>46</v>
       </c>
       <c r="M46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N46" t="s">
         <v>18</v>
       </c>
       <c r="O46" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P46" t="s">
         <v>25</v>
@@ -3934,10 +3931,10 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -3970,7 +3967,7 @@
         <v>18</v>
       </c>
       <c r="M47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N47" t="s">
         <v>21</v>
@@ -3984,10 +3981,10 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C48" t="s">
         <v>69</v>
@@ -3996,7 +3993,7 @@
         <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F48" t="s">
         <v>18</v>
@@ -4014,13 +4011,13 @@
         <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L48" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N48" t="s">
         <v>25</v>
@@ -4034,10 +4031,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s">
         <v>94</v>
@@ -4055,7 +4052,7 @@
         <v>21</v>
       </c>
       <c r="H49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I49" t="s">
         <v>18</v>
@@ -4064,13 +4061,13 @@
         <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L49" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N49" t="s">
         <v>18</v>
@@ -4084,10 +4081,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -4114,13 +4111,13 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L50" t="s">
         <v>74</v>
       </c>
       <c r="M50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N50" t="s">
         <v>18</v>
@@ -4134,10 +4131,10 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -4149,7 +4146,7 @@
         <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G51" t="s">
         <v>21</v>
@@ -4164,13 +4161,13 @@
         <v>3</v>
       </c>
       <c r="K51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L51" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N51" t="s">
         <v>25</v>
@@ -4184,13 +4181,13 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" t="s">
         <v>185</v>
-      </c>
-      <c r="B52" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" t="s">
-        <v>187</v>
       </c>
       <c r="D52" t="s">
         <v>55</v>
@@ -4214,13 +4211,13 @@
         <v>2</v>
       </c>
       <c r="K52" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L52" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N52" t="s">
         <v>18</v>
@@ -4234,13 +4231,13 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -4264,13 +4261,13 @@
         <v>3</v>
       </c>
       <c r="K53" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L53" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N53" t="s">
         <v>18</v>
@@ -4284,13 +4281,13 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D54" t="s">
         <v>61</v>
@@ -4314,13 +4311,13 @@
         <v>7</v>
       </c>
       <c r="K54" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L54" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N54" t="s">
         <v>21</v>
@@ -4334,10 +4331,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B55" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
         <v>69</v>
@@ -4364,13 +4361,13 @@
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L55" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N55" t="s">
         <v>21</v>
@@ -4384,16 +4381,16 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
@@ -4414,13 +4411,13 @@
         <v>2</v>
       </c>
       <c r="K56" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L56" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N56" t="s">
         <v>18</v>
@@ -4434,10 +4431,10 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
@@ -4464,13 +4461,13 @@
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L57" t="s">
         <v>46</v>
       </c>
       <c r="M57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N57" t="s">
         <v>21</v>
@@ -4484,10 +4481,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C58" t="s">
         <v>66</v>
@@ -4496,7 +4493,7 @@
         <v>55</v>
       </c>
       <c r="E58" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F58" t="s">
         <v>18</v>
@@ -4505,7 +4502,7 @@
         <v>25</v>
       </c>
       <c r="H58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I58" t="s">
         <v>18</v>
@@ -4514,13 +4511,13 @@
         <v>6</v>
       </c>
       <c r="K58" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L58" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N58" t="s">
         <v>21</v>
@@ -4534,10 +4531,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -4570,7 +4567,7 @@
         <v>18</v>
       </c>
       <c r="M59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N59" t="s">
         <v>25</v>
@@ -4584,10 +4581,10 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C60" t="s">
         <v>69</v>
@@ -4614,13 +4611,13 @@
         <v>3</v>
       </c>
       <c r="K60" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L60" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N60" t="s">
         <v>21</v>
@@ -4634,16 +4631,16 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E61" t="s">
         <v>18</v>
@@ -4664,13 +4661,13 @@
         <v>18</v>
       </c>
       <c r="K61" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L61" t="s">
         <v>46</v>
       </c>
       <c r="M61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N61" t="s">
         <v>18</v>
@@ -4684,19 +4681,19 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F62" t="s">
         <v>18</v>
@@ -4708,19 +4705,19 @@
         <v>62</v>
       </c>
       <c r="I62" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J62" s="1">
         <v>5</v>
       </c>
       <c r="K62" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L62" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N62" t="s">
         <v>25</v>
@@ -4734,16 +4731,16 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" t="s">
         <v>212</v>
-      </c>
-      <c r="B63" t="s">
-        <v>213</v>
-      </c>
-      <c r="C63" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" t="s">
-        <v>214</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
@@ -4758,19 +4755,19 @@
         <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L63" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N63" t="s">
         <v>25</v>
@@ -4784,16 +4781,16 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>214</v>
+      </c>
+      <c r="B64" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" t="s">
         <v>216</v>
       </c>
-      <c r="B64" t="s">
-        <v>217</v>
-      </c>
-      <c r="C64" t="s">
-        <v>218</v>
-      </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
@@ -4814,13 +4811,13 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L64" t="s">
         <v>74</v>
       </c>
       <c r="M64" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N64" t="s">
         <v>18</v>
@@ -4834,10 +4831,10 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
@@ -4870,13 +4867,13 @@
         <v>18</v>
       </c>
       <c r="M65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N65" t="s">
         <v>21</v>
       </c>
       <c r="O65" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P65" t="s">
         <v>21</v>
@@ -4884,10 +4881,10 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B66" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
@@ -4896,7 +4893,7 @@
         <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F66" t="s">
         <v>44</v>
@@ -4914,13 +4911,13 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L66" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N66" t="s">
         <v>25</v>
@@ -4934,10 +4931,10 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C67" t="s">
         <v>69</v>
@@ -4964,13 +4961,13 @@
         <v>2</v>
       </c>
       <c r="K67" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L67" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N67" t="s">
         <v>18</v>
@@ -4984,10 +4981,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B68" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -4999,7 +4996,7 @@
         <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G68" t="s">
         <v>25</v>
@@ -5014,13 +5011,13 @@
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L68" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N68" t="s">
         <v>18</v>
@@ -5043,8 +5040,8 @@
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5058,19 +5055,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5081,10 +5078,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5095,10 +5092,10 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5109,10 +5106,10 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5123,10 +5120,10 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5137,10 +5134,10 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5151,10 +5148,10 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5165,7 +5162,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -5179,10 +5176,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5193,10 +5190,10 @@
         <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5207,10 +5204,10 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5221,10 +5218,10 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5235,10 +5232,10 @@
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5249,10 +5246,10 @@
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5263,10 +5260,10 @@
         <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5277,10 +5274,10 @@
         <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5291,10 +5288,10 @@
         <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5319,10 +5316,10 @@
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5333,10 +5330,10 @@
         <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5347,10 +5344,10 @@
         <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5361,13 +5358,13 @@
         <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" t="s">
         <v>235</v>
-      </c>
-      <c r="E22" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -5375,13 +5372,13 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5389,13 +5386,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5403,13 +5400,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -5417,13 +5414,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -5431,13 +5428,13 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -5445,13 +5442,13 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -5459,13 +5456,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5473,13 +5470,13 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -5487,16 +5484,16 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -5504,13 +5501,13 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -5518,13 +5515,13 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -5532,13 +5529,13 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -5546,13 +5543,13 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -5560,10 +5557,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -5574,13 +5571,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -5588,16 +5585,16 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -5605,13 +5602,13 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -5619,13 +5616,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -5633,13 +5630,13 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -5647,13 +5644,13 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -5661,13 +5658,13 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -5675,13 +5672,13 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D44" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -5689,13 +5686,13 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -5703,13 +5700,13 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -5717,7 +5714,7 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -5731,13 +5728,13 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D48" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -5745,13 +5742,13 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D49" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5759,7 +5756,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -5773,10 +5770,10 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C51" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -5787,13 +5784,13 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -5801,13 +5798,13 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -5815,13 +5812,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C54" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -5829,13 +5826,13 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -5843,16 +5840,16 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C56" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5860,13 +5857,13 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -5874,10 +5871,10 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C58" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -5888,13 +5885,13 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C59" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -5902,13 +5899,13 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C60" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -5916,13 +5913,13 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D61" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -5930,13 +5927,13 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C62" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D62" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -5944,13 +5941,13 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C63" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D63" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -5958,13 +5955,13 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -5972,13 +5969,13 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -5986,13 +5983,13 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C66" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -6000,13 +5997,13 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C67" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D67" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -6017,10 +6014,10 @@
         <v>26</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E68" s="10"/>
     </row>
@@ -6032,13 +6029,13 @@
         <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -6049,10 +6046,10 @@
         <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D70" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -6063,7 +6060,7 @@
         <v>37</v>
       </c>
       <c r="C71" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -6077,7 +6074,7 @@
         <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -6091,10 +6088,10 @@
         <v>42</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D73" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -6102,13 +6099,13 @@
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -6116,13 +6113,13 @@
         <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D75" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -6130,13 +6127,13 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C76" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D76" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -6147,10 +6144,10 @@
         <v>31</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E77" s="10"/>
     </row>
@@ -6162,10 +6159,10 @@
         <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D78" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -6176,10 +6173,10 @@
         <v>35</v>
       </c>
       <c r="C79" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D79" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -6190,7 +6187,7 @@
         <v>37</v>
       </c>
       <c r="C80" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -6204,13 +6201,13 @@
         <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E81" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -6221,10 +6218,10 @@
         <v>58</v>
       </c>
       <c r="C82" t="s">
+        <v>236</v>
+      </c>
+      <c r="D82" t="s">
         <v>238</v>
-      </c>
-      <c r="D82" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -6235,10 +6232,10 @@
         <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D83" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -6249,10 +6246,10 @@
         <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -6263,10 +6260,10 @@
         <v>78</v>
       </c>
       <c r="C85" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" t="s">
         <v>238</v>
-      </c>
-      <c r="D85" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -6277,10 +6274,10 @@
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D86" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -6291,10 +6288,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D87" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -6305,10 +6302,10 @@
         <v>96</v>
       </c>
       <c r="C88" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" t="s">
         <v>238</v>
-      </c>
-      <c r="D88" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -6316,13 +6313,13 @@
         <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D89" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -6330,13 +6327,13 @@
         <v>26</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C90" t="s">
+        <v>236</v>
+      </c>
+      <c r="D90" t="s">
         <v>238</v>
-      </c>
-      <c r="D90" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -6344,13 +6341,13 @@
         <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C91" t="s">
+        <v>236</v>
+      </c>
+      <c r="D91" t="s">
         <v>238</v>
-      </c>
-      <c r="D91" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -6358,10 +6355,10 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C92" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -6372,13 +6369,13 @@
         <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C93" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D93" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -6386,13 +6383,13 @@
         <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C94" t="s">
+        <v>236</v>
+      </c>
+      <c r="D94" t="s">
         <v>238</v>
-      </c>
-      <c r="D94" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -6400,16 +6397,16 @@
         <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C95" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D95" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E95" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -6417,10 +6414,10 @@
         <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C96" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
@@ -6431,16 +6428,16 @@
         <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C97" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D97" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E97" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -6448,10 +6445,10 @@
         <v>26</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C98" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -6462,13 +6459,13 @@
         <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -6476,13 +6473,13 @@
         <v>26</v>
       </c>
       <c r="B100" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C100" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D100" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -6490,13 +6487,13 @@
         <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C101" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D101" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -6504,13 +6501,13 @@
         <v>26</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C102" t="s">
+        <v>236</v>
+      </c>
+      <c r="D102" t="s">
         <v>238</v>
-      </c>
-      <c r="D102" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -6518,13 +6515,13 @@
         <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C103" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D103" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -6532,13 +6529,13 @@
         <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C104" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D104" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -6546,13 +6543,13 @@
         <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C105" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D105" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -6560,13 +6557,13 @@
         <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C106" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D106" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -6574,16 +6571,16 @@
         <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C107" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D107" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E107" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -6591,13 +6588,13 @@
         <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C108" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D108" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -6608,10 +6605,10 @@
         <v>33</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E109" s="10"/>
     </row>
@@ -6623,10 +6620,10 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D110" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -6637,7 +6634,7 @@
         <v>37</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>18</v>
@@ -6652,10 +6649,10 @@
         <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D112" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -6666,10 +6663,10 @@
         <v>35</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E113" s="10"/>
     </row>
@@ -6681,7 +6678,7 @@
         <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D114" t="s">
         <v>18</v>
@@ -6695,10 +6692,10 @@
         <v>40</v>
       </c>
       <c r="C115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D115" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -6709,7 +6706,7 @@
         <v>37</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>18</v>
@@ -6724,7 +6721,7 @@
         <v>40</v>
       </c>
       <c r="C117" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D117" t="s">
         <v>18</v>
@@ -6735,16 +6732,16 @@
         <v>35</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -6755,7 +6752,7 @@
         <v>40</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>18</v>
@@ -6767,13 +6764,13 @@
         <v>37</v>
       </c>
       <c r="B120" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C120" t="s">
         <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -6784,10 +6781,10 @@
         <v>58</v>
       </c>
       <c r="C121" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D121" s="10" t="s">
         <v>238</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>240</v>
       </c>
       <c r="E121" s="10"/>
     </row>
@@ -6799,10 +6796,10 @@
         <v>78</v>
       </c>
       <c r="C122" t="s">
+        <v>236</v>
+      </c>
+      <c r="D122" t="s">
         <v>238</v>
-      </c>
-      <c r="D122" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -6810,13 +6807,13 @@
         <v>42</v>
       </c>
       <c r="B123" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C123" t="s">
+        <v>236</v>
+      </c>
+      <c r="D123" t="s">
         <v>238</v>
-      </c>
-      <c r="D123" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -6824,13 +6821,13 @@
         <v>42</v>
       </c>
       <c r="B124" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C124" t="s">
+        <v>236</v>
+      </c>
+      <c r="D124" t="s">
         <v>238</v>
-      </c>
-      <c r="D124" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -6838,13 +6835,13 @@
         <v>53</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E125" s="10"/>
     </row>
@@ -6853,13 +6850,13 @@
         <v>53</v>
       </c>
       <c r="B126" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D126" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -6870,10 +6867,10 @@
         <v>78</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E127" s="10"/>
     </row>
@@ -6885,10 +6882,10 @@
         <v>81</v>
       </c>
       <c r="C128" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D128" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -6899,10 +6896,10 @@
         <v>88</v>
       </c>
       <c r="C129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D129" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -6910,13 +6907,13 @@
         <v>58</v>
       </c>
       <c r="B130" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D130" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -6924,13 +6921,13 @@
         <v>58</v>
       </c>
       <c r="B131" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D131" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -6938,13 +6935,13 @@
         <v>58</v>
       </c>
       <c r="B132" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C132" t="s">
+        <v>236</v>
+      </c>
+      <c r="D132" t="s">
         <v>238</v>
-      </c>
-      <c r="D132" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -6952,13 +6949,13 @@
         <v>64</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E133" s="10"/>
     </row>
@@ -6967,13 +6964,13 @@
         <v>70</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E134" s="10"/>
     </row>
@@ -6985,10 +6982,10 @@
         <v>88</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E135" s="10"/>
     </row>
@@ -6997,13 +6994,13 @@
         <v>78</v>
       </c>
       <c r="B136" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C136" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D136" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -7011,13 +7008,13 @@
         <v>78</v>
       </c>
       <c r="B137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C137" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D137" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -7025,13 +7022,13 @@
         <v>81</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E138" s="10"/>
     </row>
@@ -7040,13 +7037,13 @@
         <v>81</v>
       </c>
       <c r="B139" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D139" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -7054,13 +7051,13 @@
         <v>81</v>
       </c>
       <c r="B140" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C140" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D140" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -7068,13 +7065,13 @@
         <v>88</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E141" s="10"/>
     </row>
@@ -7083,13 +7080,13 @@
         <v>88</v>
       </c>
       <c r="B142" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C142" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D142" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -7097,13 +7094,13 @@
         <v>88</v>
       </c>
       <c r="B143" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C143" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D143" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -7111,13 +7108,13 @@
         <v>88</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C144" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D144" s="20" t="s">
         <v>238</v>
-      </c>
-      <c r="D144" s="20" t="s">
-        <v>240</v>
       </c>
       <c r="E144" s="20"/>
     </row>
@@ -7126,40 +7123,40 @@
         <v>92</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C145" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E145" s="19"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E146" s="10"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B147" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C147" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D147" t="s">
         <v>18</v>
@@ -7167,252 +7164,252 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B148" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C148" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E149" s="10"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E150" s="10"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E151" s="10"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E152" s="19"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E153" s="19"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E154" s="19"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E155" s="19"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E156" s="19"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E157" s="19"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E158" s="19"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E159" s="19"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E160" s="19"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E161" s="19"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C162" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D162" s="10" t="s">
         <v>238</v>
-      </c>
-      <c r="D162" s="10" t="s">
-        <v>240</v>
       </c>
       <c r="E162" s="10"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E163" s="10"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>18</v>
@@ -7421,31 +7418,31 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E165" s="10"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B166" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C166" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D166" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -7470,9 +7467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7488,122 +7485,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="24" t="s">
         <v>250</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7611,19 +7608,19 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7631,19 +7628,19 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7651,39 +7648,39 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7691,19 +7688,19 @@
         <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7711,139 +7708,139 @@
         <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" t="s">
         <v>270</v>
-      </c>
-      <c r="B15" t="s">
-        <v>268</v>
-      </c>
-      <c r="C15" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" t="s">
-        <v>272</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E18">
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7851,19 +7848,19 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E19">
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7871,119 +7868,119 @@
         <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C21" t="s">
         <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C22" t="s">
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E25">
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="342">
   <si>
     <t>Id</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Consul</t>
   </si>
   <si>
-    <t>Tribun de légion;Légat de légion;Légat d'Auguste propréteur</t>
-  </si>
-  <si>
     <t>P3</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t>Questeur;Préteur</t>
   </si>
   <si>
-    <t>Tribun de légion;Légat de légion</t>
-  </si>
-  <si>
     <t>P19</t>
   </si>
   <si>
@@ -313,9 +307,6 @@
     <t>Caius Octavius Tidius Tossianus Javolenus Priscus</t>
   </si>
   <si>
-    <t>Préteur;Propréteur;Consul suffect;Consul</t>
-  </si>
-  <si>
     <t>Légat de légion;Proconsul</t>
   </si>
   <si>
@@ -586,9 +577,6 @@
     <t>Tiberius Iulius Ferox</t>
   </si>
   <si>
-    <t>Édile;Consul suffect;Consul</t>
-  </si>
-  <si>
     <t>P51</t>
   </si>
   <si>
@@ -1058,6 +1046,15 @@
   </si>
   <si>
     <t>Procuratèle;Préfet de l'annone;Préfet d'Égypte</t>
+  </si>
+  <si>
+    <t>Préteur;Propréteur;Consul suffect</t>
+  </si>
+  <si>
+    <t>Édile;Consul suffect</t>
+  </si>
+  <si>
+    <t>smil4</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1799,7 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -1811,10 +1808,10 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
@@ -1831,10 +1828,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -1861,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
@@ -1881,10 +1878,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -1911,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
@@ -1931,10 +1928,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -1961,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L7" t="s">
         <v>23</v>
@@ -1981,10 +1978,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2011,10 +2008,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M8" t="s">
         <v>24</v>
@@ -2031,10 +2028,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2081,22 +2078,22 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
@@ -2111,13 +2108,13 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
         <v>25</v>
@@ -2131,28 +2128,28 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
       </c>
       <c r="I11" t="s">
         <v>18</v>
@@ -2161,13 +2158,13 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
         <v>18</v>
@@ -2181,28 +2178,28 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -2211,19 +2208,19 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" t="s">
         <v>56</v>
-      </c>
-      <c r="L12" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" t="s">
-        <v>57</v>
       </c>
       <c r="P12" t="s">
         <v>21</v>
@@ -2231,28 +2228,28 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
         <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>62</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -2261,19 +2258,19 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L13" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13" t="s">
         <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s">
         <v>21</v>
@@ -2281,28 +2278,28 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
         <v>64</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
       <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
         <v>51</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
@@ -2311,13 +2308,13 @@
         <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L14" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14" t="s">
         <v>25</v>
@@ -2331,16 +2328,16 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
         <v>67</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>68</v>
       </c>
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -2352,7 +2349,7 @@
         <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
@@ -2361,13 +2358,13 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15" t="s">
         <v>18</v>
@@ -2381,11 +2378,11 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
         <v>70</v>
       </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -2396,13 +2393,13 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -2411,13 +2408,13 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L16" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N16" t="s">
         <v>25</v>
@@ -2431,43 +2428,43 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
         <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>77</v>
       </c>
       <c r="J17" s="1">
         <v>5</v>
       </c>
       <c r="K17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17" t="s">
         <v>25</v>
@@ -2481,13 +2478,13 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
@@ -2502,7 +2499,7 @@
         <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -2511,19 +2508,19 @@
         <v>4</v>
       </c>
       <c r="K18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L18" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N18" t="s">
         <v>21</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s">
         <v>21</v>
@@ -2531,13 +2528,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
@@ -2552,7 +2549,7 @@
         <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
@@ -2561,19 +2558,19 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" t="s">
         <v>46</v>
       </c>
-      <c r="M19" t="s">
-        <v>47</v>
-      </c>
       <c r="N19" t="s">
         <v>21</v>
       </c>
       <c r="O19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P19" t="s">
         <v>21</v>
@@ -2581,16 +2578,16 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
         <v>84</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -2602,7 +2599,7 @@
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
@@ -2611,13 +2608,13 @@
         <v>7</v>
       </c>
       <c r="K20" t="s">
+        <v>323</v>
+      </c>
+      <c r="L20" t="s">
         <v>327</v>
       </c>
-      <c r="L20" t="s">
-        <v>331</v>
-      </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N20" t="s">
         <v>25</v>
@@ -2631,13 +2628,13 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
         <v>88</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" t="s">
-        <v>90</v>
       </c>
       <c r="D21" t="s">
         <v>29</v>
@@ -2652,7 +2649,7 @@
         <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I21" t="s">
         <v>18</v>
@@ -2661,19 +2658,19 @@
         <v>3</v>
       </c>
       <c r="K21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L21" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N21" t="s">
         <v>21</v>
       </c>
       <c r="O21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P21" t="s">
         <v>21</v>
@@ -2681,16 +2678,16 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>339</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -2702,7 +2699,7 @@
         <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -2711,19 +2708,19 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L22" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N22" t="s">
         <v>18</v>
       </c>
       <c r="O22" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P22" t="s">
         <v>21</v>
@@ -2731,10 +2728,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -2743,16 +2740,16 @@
         <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
@@ -2761,13 +2758,13 @@
         <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L23" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N23" t="s">
         <v>21</v>
@@ -2781,13 +2778,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -2802,7 +2799,7 @@
         <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s">
         <v>18</v>
@@ -2811,19 +2808,19 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N24" t="s">
         <v>25</v>
       </c>
       <c r="O24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P24" t="s">
         <v>25</v>
@@ -2831,13 +2828,13 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
@@ -2852,7 +2849,7 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I25" t="s">
         <v>18</v>
@@ -2861,19 +2858,19 @@
         <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L25" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N25" t="s">
         <v>21</v>
       </c>
       <c r="O25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P25" t="s">
         <v>21</v>
@@ -2881,10 +2878,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
@@ -2896,7 +2893,7 @@
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
         <v>21</v>
@@ -2917,13 +2914,13 @@
         <v>18</v>
       </c>
       <c r="M26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N26" t="s">
         <v>18</v>
       </c>
       <c r="O26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P26" t="s">
         <v>21</v>
@@ -2931,13 +2928,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -2952,7 +2949,7 @@
         <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -2961,19 +2958,19 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" t="s">
         <v>46</v>
       </c>
-      <c r="M27" t="s">
-        <v>47</v>
-      </c>
       <c r="N27" t="s">
         <v>18</v>
       </c>
       <c r="O27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P27" t="s">
         <v>21</v>
@@ -2981,10 +2978,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -2993,10 +2990,10 @@
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G28" t="s">
         <v>21</v>
@@ -3011,19 +3008,19 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N28" t="s">
         <v>18</v>
       </c>
       <c r="O28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P28" t="s">
         <v>21</v>
@@ -3031,13 +3028,13 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
@@ -3052,7 +3049,7 @@
         <v>21</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
@@ -3061,19 +3058,19 @@
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L29" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N29" t="s">
         <v>21</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P29" t="s">
         <v>21</v>
@@ -3081,10 +3078,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
@@ -3093,10 +3090,10 @@
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G30" t="s">
         <v>21</v>
@@ -3111,13 +3108,13 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L30" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N30" t="s">
         <v>21</v>
@@ -3131,16 +3128,16 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
@@ -3167,7 +3164,7 @@
         <v>18</v>
       </c>
       <c r="M31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N31" t="s">
         <v>18</v>
@@ -3181,10 +3178,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -3196,7 +3193,7 @@
         <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G32" t="s">
         <v>21</v>
@@ -3211,13 +3208,13 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N32" t="s">
         <v>18</v>
@@ -3231,13 +3228,13 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
         <v>29</v>
@@ -3252,7 +3249,7 @@
         <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
         <v>18</v>
@@ -3261,19 +3258,19 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N33" t="s">
         <v>25</v>
       </c>
       <c r="O33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P33" t="s">
         <v>25</v>
@@ -3281,13 +3278,13 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
         <v>29</v>
@@ -3302,7 +3299,7 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
@@ -3311,19 +3308,19 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L34" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34" t="s">
         <v>46</v>
       </c>
-      <c r="M34" t="s">
-        <v>47</v>
-      </c>
       <c r="N34" t="s">
         <v>18</v>
       </c>
       <c r="O34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P34" t="s">
         <v>21</v>
@@ -3331,28 +3328,28 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
         <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
         <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
@@ -3361,13 +3358,13 @@
         <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N35" t="s">
         <v>18</v>
@@ -3381,28 +3378,28 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
         <v>61</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" t="s">
-        <v>62</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
@@ -3411,13 +3408,13 @@
         <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L36" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N36" t="s">
         <v>21</v>
@@ -3431,10 +3428,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3467,13 +3464,13 @@
         <v>18</v>
       </c>
       <c r="M37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N37" t="s">
         <v>18</v>
       </c>
       <c r="O37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P37" t="s">
         <v>25</v>
@@ -3481,16 +3478,16 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
         <v>18</v>
@@ -3502,7 +3499,7 @@
         <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I38" t="s">
         <v>18</v>
@@ -3517,13 +3514,13 @@
         <v>18</v>
       </c>
       <c r="M38" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N38" t="s">
         <v>18</v>
       </c>
       <c r="O38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P38" t="s">
         <v>21</v>
@@ -3531,16 +3528,16 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
         <v>18</v>
@@ -3567,7 +3564,7 @@
         <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N39" t="s">
         <v>18</v>
@@ -3581,10 +3578,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3617,13 +3614,13 @@
         <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N40" t="s">
         <v>18</v>
       </c>
       <c r="O40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P40" t="s">
         <v>21</v>
@@ -3631,16 +3628,16 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>339</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
         <v>18</v>
@@ -3652,7 +3649,7 @@
         <v>21</v>
       </c>
       <c r="H41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
@@ -3661,13 +3658,13 @@
         <v>3</v>
       </c>
       <c r="K41" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L41" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N41" t="s">
         <v>21</v>
@@ -3681,10 +3678,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
@@ -3717,13 +3714,13 @@
         <v>18</v>
       </c>
       <c r="M42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N42" t="s">
         <v>21</v>
       </c>
       <c r="O42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P42" t="s">
         <v>21</v>
@@ -3731,17 +3728,17 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" t="s">
         <v>155</v>
       </c>
-      <c r="B43" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" t="s">
-        <v>158</v>
-      </c>
       <c r="E43" t="s">
         <v>18</v>
       </c>
@@ -3752,7 +3749,7 @@
         <v>21</v>
       </c>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
@@ -3761,13 +3758,13 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M43" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N43" t="s">
         <v>18</v>
@@ -3781,13 +3778,13 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
@@ -3802,7 +3799,7 @@
         <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I44" t="s">
         <v>18</v>
@@ -3811,13 +3808,13 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M44" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N44" t="s">
         <v>25</v>
@@ -3831,28 +3828,28 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
         <v>61</v>
-      </c>
-      <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" t="s">
-        <v>62</v>
       </c>
       <c r="I45" t="s">
         <v>18</v>
@@ -3861,19 +3858,19 @@
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L45" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N45" t="s">
         <v>18</v>
       </c>
       <c r="O45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P45" t="s">
         <v>25</v>
@@ -3881,13 +3878,13 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
         <v>29</v>
@@ -3902,7 +3899,7 @@
         <v>21</v>
       </c>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I46" t="s">
         <v>18</v>
@@ -3911,19 +3908,19 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N46" t="s">
         <v>18</v>
       </c>
       <c r="O46" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P46" t="s">
         <v>25</v>
@@ -3931,16 +3928,16 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
@@ -3967,7 +3964,7 @@
         <v>18</v>
       </c>
       <c r="M47" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N47" t="s">
         <v>21</v>
@@ -3981,28 +3978,28 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
         <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="G48" t="s">
         <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I48" t="s">
         <v>18</v>
@@ -4011,13 +4008,13 @@
         <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L48" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N48" t="s">
         <v>25</v>
@@ -4031,16 +4028,16 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>339</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
@@ -4052,7 +4049,7 @@
         <v>21</v>
       </c>
       <c r="H49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I49" t="s">
         <v>18</v>
@@ -4061,13 +4058,13 @@
         <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L49" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N49" t="s">
         <v>18</v>
@@ -4081,16 +4078,16 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
@@ -4102,7 +4099,7 @@
         <v>25</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I50" t="s">
         <v>18</v>
@@ -4111,13 +4108,13 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M50" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N50" t="s">
         <v>18</v>
@@ -4131,10 +4128,10 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -4146,7 +4143,7 @@
         <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G51" t="s">
         <v>21</v>
@@ -4161,13 +4158,13 @@
         <v>3</v>
       </c>
       <c r="K51" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L51" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N51" t="s">
         <v>25</v>
@@ -4181,16 +4178,16 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B52" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
@@ -4202,7 +4199,7 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I52" t="s">
         <v>18</v>
@@ -4211,19 +4208,19 @@
         <v>2</v>
       </c>
       <c r="K52" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L52" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M52" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N52" t="s">
         <v>18</v>
       </c>
       <c r="O52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P52" t="s">
         <v>21</v>
@@ -4231,16 +4228,16 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
@@ -4252,7 +4249,7 @@
         <v>21</v>
       </c>
       <c r="H53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s">
         <v>18</v>
@@ -4261,19 +4258,19 @@
         <v>3</v>
       </c>
       <c r="K53" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M53" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N53" t="s">
         <v>18</v>
       </c>
       <c r="O53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P53" t="s">
         <v>21</v>
@@ -4281,16 +4278,16 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B54" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
@@ -4302,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I54" t="s">
         <v>18</v>
@@ -4311,13 +4308,13 @@
         <v>7</v>
       </c>
       <c r="K54" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L54" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M54" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N54" t="s">
         <v>21</v>
@@ -4331,13 +4328,13 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
         <v>29</v>
@@ -4352,7 +4349,7 @@
         <v>25</v>
       </c>
       <c r="H55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s">
         <v>18</v>
@@ -4361,13 +4358,13 @@
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L55" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N55" t="s">
         <v>21</v>
@@ -4381,16 +4378,16 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
@@ -4402,7 +4399,7 @@
         <v>18</v>
       </c>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I56" t="s">
         <v>18</v>
@@ -4411,13 +4408,13 @@
         <v>2</v>
       </c>
       <c r="K56" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L56" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M56" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N56" t="s">
         <v>18</v>
@@ -4431,28 +4428,28 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B57" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" t="s">
         <v>61</v>
-      </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" t="s">
-        <v>62</v>
       </c>
       <c r="I57" t="s">
         <v>18</v>
@@ -4461,13 +4458,13 @@
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M57" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N57" t="s">
         <v>21</v>
@@ -4481,28 +4478,28 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="G58" t="s">
         <v>25</v>
       </c>
       <c r="H58" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I58" t="s">
         <v>18</v>
@@ -4511,13 +4508,13 @@
         <v>6</v>
       </c>
       <c r="K58" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L58" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N58" t="s">
         <v>21</v>
@@ -4531,10 +4528,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B59" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -4567,7 +4564,7 @@
         <v>18</v>
       </c>
       <c r="M59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N59" t="s">
         <v>25</v>
@@ -4581,16 +4578,16 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E60" t="s">
         <v>18</v>
@@ -4602,7 +4599,7 @@
         <v>21</v>
       </c>
       <c r="H60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I60" t="s">
         <v>18</v>
@@ -4611,13 +4608,13 @@
         <v>3</v>
       </c>
       <c r="K60" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L60" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M60" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N60" t="s">
         <v>21</v>
@@ -4631,16 +4628,16 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B61" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C61" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E61" t="s">
         <v>18</v>
@@ -4652,7 +4649,7 @@
         <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I61" t="s">
         <v>18</v>
@@ -4661,13 +4658,13 @@
         <v>18</v>
       </c>
       <c r="K61" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M61" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N61" t="s">
         <v>18</v>
@@ -4681,43 +4678,43 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B62" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E62" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="G62" t="s">
         <v>25</v>
       </c>
       <c r="H62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I62" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J62" s="1">
         <v>5</v>
       </c>
       <c r="K62" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L62" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M62" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N62" t="s">
         <v>25</v>
@@ -4731,16 +4728,16 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B63" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
@@ -4755,25 +4752,25 @@
         <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L63" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M63" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N63" t="s">
         <v>25</v>
       </c>
       <c r="O63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P63" t="s">
         <v>25</v>
@@ -4781,16 +4778,16 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B64" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
@@ -4802,7 +4799,7 @@
         <v>21</v>
       </c>
       <c r="H64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I64" t="s">
         <v>18</v>
@@ -4811,13 +4808,13 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M64" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N64" t="s">
         <v>18</v>
@@ -4831,10 +4828,10 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B65" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
@@ -4846,7 +4843,7 @@
         <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
         <v>21</v>
@@ -4867,13 +4864,13 @@
         <v>18</v>
       </c>
       <c r="M65" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N65" t="s">
         <v>21</v>
       </c>
       <c r="O65" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P65" t="s">
         <v>21</v>
@@ -4881,10 +4878,10 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B66" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
@@ -4893,10 +4890,10 @@
         <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s">
         <v>21</v>
@@ -4911,13 +4908,13 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L66" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M66" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N66" t="s">
         <v>25</v>
@@ -4931,13 +4928,13 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B67" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
         <v>29</v>
@@ -4952,7 +4949,7 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I67" t="s">
         <v>18</v>
@@ -4961,13 +4958,13 @@
         <v>2</v>
       </c>
       <c r="K67" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L67" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M67" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N67" t="s">
         <v>18</v>
@@ -4981,10 +4978,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -4996,7 +4993,7 @@
         <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G68" t="s">
         <v>25</v>
@@ -5011,19 +5008,19 @@
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L68" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M68" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N68" t="s">
         <v>18</v>
       </c>
       <c r="O68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P68" t="s">
         <v>21</v>
@@ -5055,19 +5052,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>228</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5078,10 +5075,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5092,10 +5089,10 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5103,13 +5100,13 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5117,13 +5114,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5131,13 +5128,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5145,13 +5142,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5159,10 +5156,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -5173,13 +5170,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5187,13 +5184,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5201,13 +5198,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5215,13 +5212,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5229,13 +5226,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5243,13 +5240,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5257,13 +5254,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5271,13 +5268,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5285,13 +5282,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5299,7 +5296,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -5313,13 +5310,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5327,13 +5324,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5341,13 +5338,13 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5355,16 +5352,16 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E22" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -5372,13 +5369,13 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5386,13 +5383,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5400,13 +5397,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -5414,13 +5411,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -5428,13 +5425,13 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -5442,13 +5439,13 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D28" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -5456,13 +5453,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D29" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5470,13 +5467,13 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D30" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -5484,16 +5481,16 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -5501,13 +5498,13 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -5515,13 +5512,13 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -5529,13 +5526,13 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D34" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -5543,13 +5540,13 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D35" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -5557,10 +5554,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -5571,13 +5568,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D37" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -5585,16 +5582,16 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -5602,13 +5599,13 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D39" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -5616,13 +5613,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D40" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -5630,13 +5627,13 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D41" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -5644,13 +5641,13 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -5658,13 +5655,13 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D43" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -5672,13 +5669,13 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D44" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -5686,13 +5683,13 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D45" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -5700,13 +5697,13 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -5714,7 +5711,7 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -5728,13 +5725,13 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D48" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -5742,13 +5739,13 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D49" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5756,7 +5753,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -5770,10 +5767,10 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -5784,13 +5781,13 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D52" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -5798,13 +5795,13 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C53" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D53" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -5812,13 +5809,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -5826,13 +5823,13 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C55" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -5840,16 +5837,16 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C56" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D56" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5857,13 +5854,13 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C57" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -5871,10 +5868,10 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C58" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -5885,13 +5882,13 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C59" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D59" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -5899,13 +5896,13 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C60" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D60" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -5913,13 +5910,13 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C61" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -5927,13 +5924,13 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C62" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D62" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -5941,13 +5938,13 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C63" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D63" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -5955,13 +5952,13 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -5969,13 +5966,13 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C65" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D65" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -5983,13 +5980,13 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C66" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D66" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -5997,13 +5994,13 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -6014,10 +6011,10 @@
         <v>26</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E68" s="10"/>
     </row>
@@ -6026,16 +6023,16 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -6043,13 +6040,13 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D70" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -6057,10 +6054,10 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -6071,10 +6068,10 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -6085,13 +6082,13 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D73" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -6099,13 +6096,13 @@
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -6113,13 +6110,13 @@
         <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D75" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -6127,13 +6124,13 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C76" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D76" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -6141,13 +6138,13 @@
         <v>26</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E77" s="10"/>
     </row>
@@ -6156,13 +6153,13 @@
         <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D78" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -6170,13 +6167,13 @@
         <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C79" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D79" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -6184,10 +6181,10 @@
         <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -6198,16 +6195,16 @@
         <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C81" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D81" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E81" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -6215,13 +6212,13 @@
         <v>26</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -6229,13 +6226,13 @@
         <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C83" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D83" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -6243,13 +6240,13 @@
         <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C84" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D84" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -6257,13 +6254,13 @@
         <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D85" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -6271,13 +6268,13 @@
         <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D86" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -6285,13 +6282,13 @@
         <v>26</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D87" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -6299,13 +6296,13 @@
         <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D88" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -6313,13 +6310,13 @@
         <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D89" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -6327,13 +6324,13 @@
         <v>26</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D90" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -6341,13 +6338,13 @@
         <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C91" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D91" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -6355,10 +6352,10 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C92" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -6369,13 +6366,13 @@
         <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C93" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D93" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -6383,13 +6380,13 @@
         <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D94" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -6397,16 +6394,16 @@
         <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C95" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D95" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E95" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -6414,10 +6411,10 @@
         <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C96" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
@@ -6428,16 +6425,16 @@
         <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C97" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D97" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E97" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -6445,10 +6442,10 @@
         <v>26</v>
       </c>
       <c r="B98" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C98" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -6459,13 +6456,13 @@
         <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -6473,13 +6470,13 @@
         <v>26</v>
       </c>
       <c r="B100" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C100" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D100" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -6487,13 +6484,13 @@
         <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C101" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D101" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -6501,13 +6498,13 @@
         <v>26</v>
       </c>
       <c r="B102" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C102" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D102" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -6515,13 +6512,13 @@
         <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C103" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D103" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -6529,13 +6526,13 @@
         <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C104" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D104" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -6543,13 +6540,13 @@
         <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C105" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D105" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -6557,13 +6554,13 @@
         <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C106" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D106" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -6571,16 +6568,16 @@
         <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C107" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D107" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E107" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -6588,53 +6585,53 @@
         <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D108" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E109" s="10"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C110" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D110" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>18</v>
@@ -6643,42 +6640,42 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D112" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E113" s="10"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D114" t="s">
         <v>18</v>
@@ -6686,27 +6683,27 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C115" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D115" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>18</v>
@@ -6715,13 +6712,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C117" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D117" t="s">
         <v>18</v>
@@ -6729,30 +6726,30 @@
     </row>
     <row r="118" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>18</v>
@@ -6761,402 +6758,402 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B120" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C120" t="s">
         <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E121" s="10"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C122" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D122" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C123" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D123" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C124" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D124" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E125" s="10"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B126" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C126" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D126" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E127" s="10"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B128" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C128" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D128" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B129" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C129" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D129" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B130" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C130" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D130" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B131" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C131" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D131" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B132" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C132" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D132" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E133" s="10"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E134" s="10"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E135" s="10"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B136" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C136" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D136" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B137" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C137" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D137" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E138" s="10"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B139" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C139" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D139" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B140" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C140" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D140" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E141" s="10"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B142" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C142" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D142" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B143" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C143" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D143" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E144" s="20"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C145" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E145" s="19"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E146" s="10"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B147" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C147" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D147" t="s">
         <v>18</v>
@@ -7164,252 +7161,252 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B148" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C148" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D148" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E149" s="10"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B150" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B150" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="C150" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E150" s="10"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E151" s="10"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E152" s="19"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E153" s="19"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E154" s="19"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E155" s="19"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E156" s="19"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E157" s="19"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E158" s="19"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E159" s="19"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E160" s="19"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E161" s="19"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E162" s="10"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E163" s="10"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>18</v>
@@ -7418,31 +7415,31 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E165" s="10"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B166" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C166" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D166" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -7465,7 +7462,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7485,142 +7482,142 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="F1" s="24" t="s">
         <v>246</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" t="s">
         <v>251</v>
-      </c>
-      <c r="C4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" t="s">
-        <v>255</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7628,316 +7625,316 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>339</v>
+        <v>247</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>334</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="C14" t="s">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>268</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>264</v>
       </c>
       <c r="B16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" t="s">
         <v>266</v>
       </c>
-      <c r="C16" t="s">
-        <v>227</v>
-      </c>
-      <c r="D16" t="s">
-        <v>271</v>
-      </c>
       <c r="E16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D19" t="s">
-        <v>340</v>
+        <v>269</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="D20" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>259</v>
@@ -7945,42 +7942,62 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>279</v>
+      </c>
+      <c r="E26">
         <v>6</v>
       </c>
-      <c r="F25" t="s">
-        <v>259</v>
+      <c r="F26" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vincent\eclipse\workspaces\Networks\TrajanNet\data\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\eclipse\workspaces\Networks\TrajanNet\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A45974-03C7-4450-BBBE-085FF62F5449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5625" windowHeight="1020" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attributs" sheetId="1" r:id="rId1"/>
@@ -49,9 +50,6 @@
     <t>Dernier poste politique équestre</t>
   </si>
   <si>
-    <t>Adelectio</t>
-  </si>
-  <si>
     <t>Poste militaire sénatorial</t>
   </si>
   <si>
@@ -1055,12 +1053,15 @@
   </si>
   <si>
     <t>smil4</t>
+  </si>
+  <si>
+    <t>Lacticlavius</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1595,24 +1596,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125"/>
     <col min="3" max="3" width="63.7109375" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
     <col min="5" max="5" width="45.5703125" customWidth="1"/>
     <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.5703125" customWidth="1"/>
     <col min="9" max="9" width="29.5703125" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
@@ -1646,3384 +1647,3384 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="13">
         <v>1</v>
       </c>
       <c r="K3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="O3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="13">
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" t="s">
         <v>24</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="17">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
         <v>23</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>24</v>
       </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
       <c r="O5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
       <c r="O6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
         <v>23</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>24</v>
       </c>
-      <c r="N7" t="s">
-        <v>25</v>
-      </c>
       <c r="O7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1">
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>49</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
         <v>50</v>
       </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1">
         <v>4</v>
       </c>
       <c r="K11" t="s">
+        <v>308</v>
+      </c>
+      <c r="L11" t="s">
         <v>309</v>
       </c>
-      <c r="L11" t="s">
-        <v>310</v>
-      </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
       </c>
       <c r="K12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" t="s">
         <v>55</v>
       </c>
-      <c r="L12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" t="s">
-        <v>56</v>
-      </c>
       <c r="P12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
         <v>60</v>
       </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>61</v>
-      </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1">
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>64</v>
       </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
       <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1">
         <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>67</v>
       </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1">
         <v>3</v>
       </c>
       <c r="K15" t="s">
+        <v>296</v>
+      </c>
+      <c r="L15" t="s">
         <v>297</v>
       </c>
-      <c r="L15" t="s">
-        <v>298</v>
-      </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
         <v>69</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
         <v>70</v>
       </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>71</v>
-      </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
         <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>76</v>
       </c>
       <c r="J17" s="1">
         <v>5</v>
       </c>
       <c r="K17" t="s">
+        <v>312</v>
+      </c>
+      <c r="L17" t="s">
         <v>313</v>
       </c>
-      <c r="L17" t="s">
-        <v>314</v>
-      </c>
       <c r="M17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
         <v>77</v>
       </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1">
         <v>4</v>
       </c>
       <c r="K18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
         <v>80</v>
       </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" t="s">
         <v>45</v>
       </c>
-      <c r="M19" t="s">
-        <v>46</v>
-      </c>
       <c r="N19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
         <v>83</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>84</v>
       </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1">
         <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
         <v>86</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>87</v>
       </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="1">
         <v>3</v>
       </c>
       <c r="K21" t="s">
+        <v>298</v>
+      </c>
+      <c r="L21" t="s">
         <v>299</v>
       </c>
-      <c r="L21" t="s">
-        <v>300</v>
-      </c>
       <c r="M21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
         <v>90</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="s">
-        <v>339</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" t="s">
-        <v>92</v>
-      </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1">
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
         <v>93</v>
       </c>
-      <c r="B23" t="s">
-        <v>94</v>
-      </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J23" s="1">
         <v>3</v>
       </c>
       <c r="K23" t="s">
+        <v>300</v>
+      </c>
+      <c r="L23" t="s">
         <v>301</v>
       </c>
-      <c r="L23" t="s">
-        <v>302</v>
-      </c>
       <c r="M23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
         <v>95</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>96</v>
       </c>
-      <c r="C24" t="s">
-        <v>97</v>
-      </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
         <v>98</v>
       </c>
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1">
         <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
         <v>100</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
         <v>101</v>
       </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>102</v>
-      </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
         <v>103</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>104</v>
       </c>
-      <c r="C27" t="s">
-        <v>105</v>
-      </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" t="s">
         <v>45</v>
       </c>
-      <c r="M27" t="s">
-        <v>46</v>
-      </c>
       <c r="N27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
         <v>106</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
         <v>107</v>
       </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" t="s">
-        <v>108</v>
-      </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1">
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
         <v>110</v>
       </c>
-      <c r="B29" t="s">
-        <v>111</v>
-      </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1">
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
         <v>113</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
         <v>114</v>
       </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" t="s">
-        <v>115</v>
-      </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
         <v>117</v>
       </c>
-      <c r="B31" t="s">
-        <v>118</v>
-      </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
         <v>120</v>
       </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" t="s">
-        <v>121</v>
-      </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s">
         <v>123</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>124</v>
       </c>
-      <c r="C33" t="s">
-        <v>125</v>
-      </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J33" s="1">
         <v>6</v>
       </c>
       <c r="K33" t="s">
+        <v>317</v>
+      </c>
+      <c r="L33" t="s">
         <v>318</v>
       </c>
-      <c r="L33" t="s">
-        <v>319</v>
-      </c>
       <c r="M33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
         <v>126</v>
       </c>
-      <c r="B34" t="s">
-        <v>127</v>
-      </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" t="s">
         <v>45</v>
       </c>
-      <c r="M34" t="s">
-        <v>46</v>
-      </c>
       <c r="N34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
         <v>129</v>
       </c>
-      <c r="B35" t="s">
-        <v>130</v>
-      </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J35" s="1">
         <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
         <v>132</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>133</v>
       </c>
-      <c r="C36" t="s">
-        <v>134</v>
-      </c>
       <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" t="s">
         <v>60</v>
       </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" t="s">
-        <v>61</v>
-      </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J36" s="1">
         <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" t="s">
         <v>136</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" t="s">
         <v>137</v>
       </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" t="s">
-        <v>138</v>
-      </c>
       <c r="N37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" t="s">
         <v>139</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>140</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" t="s">
         <v>141</v>
       </c>
-      <c r="D38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" t="s">
-        <v>142</v>
-      </c>
       <c r="N38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" t="s">
         <v>143</v>
       </c>
-      <c r="B39" t="s">
-        <v>144</v>
-      </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" t="s">
         <v>145</v>
       </c>
-      <c r="B40" t="s">
-        <v>146</v>
-      </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" t="s">
         <v>147</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>338</v>
+      </c>
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s">
         <v>148</v>
       </c>
-      <c r="C41" t="s">
-        <v>339</v>
-      </c>
-      <c r="D41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" t="s">
-        <v>149</v>
-      </c>
       <c r="I41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J41" s="1">
         <v>3</v>
       </c>
       <c r="K41" t="s">
+        <v>304</v>
+      </c>
+      <c r="L41" t="s">
         <v>305</v>
       </c>
-      <c r="L41" t="s">
-        <v>306</v>
-      </c>
       <c r="M41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" t="s">
         <v>150</v>
       </c>
-      <c r="B42" t="s">
-        <v>151</v>
-      </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" t="s">
         <v>152</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>153</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>154</v>
       </c>
-      <c r="D43" t="s">
-        <v>155</v>
-      </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" t="s">
         <v>157</v>
       </c>
-      <c r="B44" t="s">
-        <v>158</v>
-      </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" t="s">
         <v>160</v>
       </c>
-      <c r="B45" t="s">
-        <v>161</v>
-      </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s">
         <v>60</v>
       </c>
-      <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" t="s">
-        <v>61</v>
-      </c>
       <c r="I45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J45" s="1">
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" t="s">
         <v>163</v>
       </c>
-      <c r="B46" t="s">
-        <v>164</v>
-      </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" t="s">
         <v>166</v>
       </c>
-      <c r="B47" t="s">
-        <v>167</v>
-      </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" t="s">
         <v>168</v>
       </c>
-      <c r="B48" t="s">
-        <v>169</v>
-      </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J48" s="1">
         <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" t="s">
         <v>171</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>338</v>
+      </c>
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" t="s">
         <v>172</v>
       </c>
-      <c r="C49" t="s">
-        <v>339</v>
-      </c>
-      <c r="D49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" t="s">
-        <v>173</v>
-      </c>
       <c r="I49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J49" s="1">
         <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" t="s">
         <v>175</v>
       </c>
-      <c r="B50" t="s">
-        <v>176</v>
-      </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" t="s">
         <v>177</v>
       </c>
-      <c r="B51" t="s">
-        <v>178</v>
-      </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J51" s="1">
         <v>3</v>
       </c>
       <c r="K51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" t="s">
         <v>180</v>
       </c>
-      <c r="B52" t="s">
-        <v>181</v>
-      </c>
       <c r="C52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J52" s="1">
         <v>2</v>
       </c>
       <c r="K52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" t="s">
         <v>182</v>
       </c>
-      <c r="B53" t="s">
-        <v>183</v>
-      </c>
       <c r="C53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J53" s="1">
         <v>3</v>
       </c>
       <c r="K53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L53" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" t="s">
         <v>186</v>
       </c>
-      <c r="B54" t="s">
-        <v>187</v>
-      </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J54" s="1">
         <v>7</v>
       </c>
       <c r="K54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" t="s">
         <v>188</v>
       </c>
-      <c r="B55" t="s">
-        <v>189</v>
-      </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J55" s="1">
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" t="s">
         <v>190</v>
       </c>
-      <c r="B56" t="s">
-        <v>191</v>
-      </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J56" s="1">
         <v>2</v>
       </c>
       <c r="K56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L56" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" t="s">
         <v>192</v>
       </c>
-      <c r="B57" t="s">
-        <v>193</v>
-      </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
         <v>60</v>
       </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" t="s">
-        <v>61</v>
-      </c>
       <c r="I57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" t="s">
         <v>195</v>
       </c>
-      <c r="B58" t="s">
-        <v>196</v>
-      </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J58" s="1">
         <v>6</v>
       </c>
       <c r="K58" t="s">
+        <v>320</v>
+      </c>
+      <c r="L58" t="s">
         <v>321</v>
       </c>
-      <c r="L58" t="s">
-        <v>322</v>
-      </c>
       <c r="M58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" t="s">
         <v>197</v>
       </c>
-      <c r="B59" t="s">
-        <v>198</v>
-      </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" t="s">
         <v>199</v>
       </c>
-      <c r="B60" t="s">
-        <v>200</v>
-      </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J60" s="1">
         <v>3</v>
       </c>
       <c r="K60" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" t="s">
         <v>201</v>
       </c>
-      <c r="B61" t="s">
-        <v>202</v>
-      </c>
       <c r="C61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" t="s">
         <v>154</v>
       </c>
-      <c r="D61" t="s">
-        <v>155</v>
-      </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" t="s">
         <v>203</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" t="s">
+        <v>120</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s">
+        <v>60</v>
+      </c>
+      <c r="I62" t="s">
         <v>204</v>
-      </c>
-      <c r="C62" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" t="s">
-        <v>155</v>
-      </c>
-      <c r="E62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" t="s">
-        <v>121</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I62" t="s">
-        <v>205</v>
       </c>
       <c r="J62" s="1">
         <v>5</v>
       </c>
       <c r="K62" t="s">
+        <v>314</v>
+      </c>
+      <c r="L62" t="s">
         <v>315</v>
       </c>
-      <c r="L62" t="s">
-        <v>316</v>
-      </c>
       <c r="M62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" t="s">
         <v>206</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" t="s">
         <v>207</v>
       </c>
-      <c r="C63" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" t="s">
-        <v>208</v>
-      </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" t="s">
         <v>210</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>211</v>
       </c>
-      <c r="C64" t="s">
-        <v>212</v>
-      </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" t="s">
         <v>214</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" t="s">
+        <v>17</v>
+      </c>
+      <c r="M65" t="s">
+        <v>137</v>
+      </c>
+      <c r="N65" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" t="s">
         <v>215</v>
       </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" t="s">
-        <v>43</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" t="s">
-        <v>18</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K65" t="s">
-        <v>18</v>
-      </c>
-      <c r="L65" t="s">
-        <v>18</v>
-      </c>
-      <c r="M65" t="s">
-        <v>138</v>
-      </c>
-      <c r="N65" t="s">
-        <v>21</v>
-      </c>
-      <c r="O65" t="s">
-        <v>216</v>
-      </c>
       <c r="P65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" t="s">
         <v>217</v>
       </c>
-      <c r="B66" t="s">
-        <v>218</v>
-      </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67" t="s">
         <v>219</v>
       </c>
-      <c r="B67" t="s">
-        <v>220</v>
-      </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J67" s="1">
         <v>2</v>
       </c>
       <c r="K67" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" t="s">
         <v>221</v>
       </c>
-      <c r="B68" t="s">
-        <v>222</v>
-      </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J68" s="1">
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5033,7 +5034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5041,7 +5042,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
@@ -5052,2394 +5053,2394 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" t="s">
         <v>230</v>
-      </c>
-      <c r="D22" t="s">
-        <v>229</v>
-      </c>
-      <c r="E22" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
         <v>232</v>
-      </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E68" s="10"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D75" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E77" s="10"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C79" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C83" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D83" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D86" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D88" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D89" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D90" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D91" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C92" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D93" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D94" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C95" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D95" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E95" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D97" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E97" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D101" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C102" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D102" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B103" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D103" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D104" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B105" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D105" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C106" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D106" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D107" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E107" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D108" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E109" s="10"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D110" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E111" s="19"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C112" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D112" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E113" s="10"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C114" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C115" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D115" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E116" s="10"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C117" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E119" s="10"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D120" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E121" s="10"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D122" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B123" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C123" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D123" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B124" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C124" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D124" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E125" s="10"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B126" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C126" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D126" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E127" s="10"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B128" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C128" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D128" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B129" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C129" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D129" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B130" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C130" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D130" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C131" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D131" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B132" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C132" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E133" s="10"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E134" s="10"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E135" s="10"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B136" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B137" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C137" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D137" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E138" s="10"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C139" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D139" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B140" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C140" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D140" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E141" s="10"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B142" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C142" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D142" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B143" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C143" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D143" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E144" s="20"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E145" s="19"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E146" s="10"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B147" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C147" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B148" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C148" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D148" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E149" s="10"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E150" s="10"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E151" s="10"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E152" s="19"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E153" s="19"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E154" s="19"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E155" s="19"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E156" s="19"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E157" s="19"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E158" s="19"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E159" s="19"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E160" s="19"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E161" s="19"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E162" s="10"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E163" s="10"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E164" s="10"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E165" s="10"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B166" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C166" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D166" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -7461,7 +7462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7469,7 +7470,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
@@ -7482,522 +7483,522 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>245</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" t="s">
         <v>247</v>
-      </c>
-      <c r="C2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" t="s">
-        <v>248</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" t="s">
         <v>334</v>
       </c>
-      <c r="B14" t="s">
-        <v>335</v>
-      </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E18">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E19">
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E20">
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
         <v>272</v>
-      </c>
-      <c r="B23" t="s">
-        <v>262</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" t="s">
-        <v>273</v>
       </c>
       <c r="E23">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
         <v>274</v>
-      </c>
-      <c r="B24" t="s">
-        <v>262</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" t="s">
-        <v>275</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
         <v>276</v>
-      </c>
-      <c r="B25" t="s">
-        <v>262</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>277</v>
       </c>
       <c r="E25">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
         <v>278</v>
-      </c>
-      <c r="B26" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" t="s">
-        <v>279</v>
       </c>
       <c r="E26">
         <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="400">
   <si>
     <t>Id</t>
   </si>
@@ -1189,15 +1189,9 @@
     <t>Santra</t>
   </si>
   <si>
-    <t>Minicius Natalis</t>
-  </si>
-  <si>
     <t>Pompeius</t>
   </si>
   <si>
-    <t>Publius Maximus</t>
-  </si>
-  <si>
     <t>Valerius</t>
   </si>
   <si>
@@ -1213,10 +1207,28 @@
     <t>Scaurianus</t>
   </si>
   <si>
-    <t>Vibius Maximus</t>
-  </si>
-  <si>
     <t>Sextus Erucius Clarus</t>
+  </si>
+  <si>
+    <t>Catilius</t>
+  </si>
+  <si>
+    <t>Haterius</t>
+  </si>
+  <si>
+    <t>Natalis</t>
+  </si>
+  <si>
+    <t>Septicius</t>
+  </si>
+  <si>
+    <t>Sosius</t>
+  </si>
+  <si>
+    <t>Publius</t>
+  </si>
+  <si>
+    <t>Vibius</t>
   </si>
 </sst>
 </file>
@@ -1761,10 +1773,10 @@
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2487,7 +2499,7 @@
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="D14" t="s">
         <v>63</v>
@@ -4074,7 +4086,7 @@
         <v>155</v>
       </c>
       <c r="B44" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C44" t="s">
         <v>374</v>
@@ -4289,7 +4301,7 @@
         <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="D48" t="s">
         <v>66</v>
@@ -4819,7 +4831,7 @@
         <v>193</v>
       </c>
       <c r="C58" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D58" t="s">
         <v>103</v>
@@ -4872,7 +4884,7 @@
         <v>195</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>397</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
@@ -4925,7 +4937,7 @@
         <v>197</v>
       </c>
       <c r="C60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D60" t="s">
         <v>66</v>
@@ -4978,7 +4990,7 @@
         <v>199</v>
       </c>
       <c r="C61" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D61" t="s">
         <v>152</v>
@@ -5031,7 +5043,7 @@
         <v>201</v>
       </c>
       <c r="C62" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
@@ -5084,7 +5096,7 @@
         <v>204</v>
       </c>
       <c r="C63" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D63" t="s">
         <v>95</v>
@@ -5137,7 +5149,7 @@
         <v>208</v>
       </c>
       <c r="C64" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D64" t="s">
         <v>209</v>
@@ -5190,7 +5202,7 @@
         <v>212</v>
       </c>
       <c r="C65" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
@@ -5243,7 +5255,7 @@
         <v>215</v>
       </c>
       <c r="C66" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D66" t="s">
         <v>16</v>
@@ -5296,7 +5308,7 @@
         <v>217</v>
       </c>
       <c r="C67" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D67" t="s">
         <v>66</v>
@@ -5349,7 +5361,7 @@
         <v>219</v>
       </c>
       <c r="C68" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>

--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -15,11 +15,12 @@
     <sheet name="attributs" sheetId="1" r:id="rId1"/>
     <sheet name="relations" sheetId="2" r:id="rId2"/>
     <sheet name="postes" sheetId="3" r:id="rId3"/>
+    <sheet name="carrieres" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">relations!$A$1:$E$166</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="444">
   <si>
     <t>Id</t>
   </si>
@@ -1229,13 +1230,145 @@
   </si>
   <si>
     <t>Vibius</t>
+  </si>
+  <si>
+    <t>Carriere</t>
+  </si>
+  <si>
+    <t>Type de carrière</t>
+  </si>
+  <si>
+    <t>Sequence type</t>
+  </si>
+  <si>
+    <t>Sénateur</t>
+  </si>
+  <si>
+    <t>smil1;spol1;spol2;spol3;spol4;smil2;spol5;spol6;smil3/smil4;spol7</t>
+  </si>
+  <si>
+    <t>Chevalier</t>
+  </si>
+  <si>
+    <t>cmil1;cmil2/cmil5;cmil3/cmil6;cmil4/cmil7;cpol1;cpol2;cpol3;cpol4;cpol5;cpol6</t>
+  </si>
+  <si>
+    <t>spol1;spol3;spol4;smil2;spol6;smil3</t>
+  </si>
+  <si>
+    <t>spol1;spol2;spol4;smil2;spol5;spol6;smil3;spol7</t>
+  </si>
+  <si>
+    <t>spol6;smil4</t>
+  </si>
+  <si>
+    <t>spol3;spol4;spol5;smil3</t>
+  </si>
+  <si>
+    <t>spol1;spol3;spol4;smil2;spol5;spol6;smil3;spol7</t>
+  </si>
+  <si>
+    <t>spol4;smil2;spol5;smil3</t>
+  </si>
+  <si>
+    <t>smil2;cpol6</t>
+  </si>
+  <si>
+    <t>spol4;spol6;smil3</t>
+  </si>
+  <si>
+    <t>spol1;spol4;smil2;spol5</t>
+  </si>
+  <si>
+    <t>spol1;spol4;spol5;spol6;smil3</t>
+  </si>
+  <si>
+    <t>spol4;smil2;spol5;spol6;smil3;smil4</t>
+  </si>
+  <si>
+    <t>cpol1;cpol4;cpol5;cpol6;smil2;spol6;smil3</t>
+  </si>
+  <si>
+    <t>spol1;smil2;spol6</t>
+  </si>
+  <si>
+    <t>spol1;spol3;spol4;spol5;spol6;smil3</t>
+  </si>
+  <si>
+    <t>cpol1;cpol5</t>
+  </si>
+  <si>
+    <t>spol5;spol6;smil3</t>
+  </si>
+  <si>
+    <t>cpol4;cpol5</t>
+  </si>
+  <si>
+    <t>spol1;spol4;smil2;spol6;smil3</t>
+  </si>
+  <si>
+    <t>cpol1;cpol6;spol4;spol6;smil3</t>
+  </si>
+  <si>
+    <t>spol1;spol3;spol4;spol5;smil3</t>
+  </si>
+  <si>
+    <t>spol5;spol6;smil3;spol7</t>
+  </si>
+  <si>
+    <t>spol4;spol5;spol6;smil3;smil4</t>
+  </si>
+  <si>
+    <t>spol4;smil3</t>
+  </si>
+  <si>
+    <t>spol1;spol3;spol4;smil2;spol6</t>
+  </si>
+  <si>
+    <t>spol4;spol5;smil3</t>
+  </si>
+  <si>
+    <t>cpol1;spol4;spol6;smil3</t>
+  </si>
+  <si>
+    <t>smil2;spol5</t>
+  </si>
+  <si>
+    <t>spol2;spol5;spol6;smil4</t>
+  </si>
+  <si>
+    <t>spol2;smil2;spol5;spol6;smil4</t>
+  </si>
+  <si>
+    <t>spol1;spol3;spol4;smil2;spol5;smil3</t>
+  </si>
+  <si>
+    <t>spol4;smil2;spol6;smil3</t>
+  </si>
+  <si>
+    <t>spol4;smil2</t>
+  </si>
+  <si>
+    <t>cpol1;spol1;spol3;spol4;smil2;spol5;spol6;smil3;smil4</t>
+  </si>
+  <si>
+    <t>cmil3;cpol1;spol1;spol3;spol4;smil3</t>
+  </si>
+  <si>
+    <t>cmil3;spol1;spol2</t>
+  </si>
+  <si>
+    <t>spol3;spol4;smil2</t>
+  </si>
+  <si>
+    <t>cpol4;cpol6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1264,8 +1397,44 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1344,6 +1513,18 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFBE5D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1375,7 +1556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1411,6 +1592,13 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8384,4 +8572,587 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="79.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>198</v>
+      </c>
+      <c r="B61" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>211</v>
+      </c>
+      <c r="B65" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="477">
   <si>
     <t>Id</t>
   </si>
@@ -368,9 +368,6 @@
     <t>P28</t>
   </si>
   <si>
-    <t>Marcus Rutilius Luous</t>
-  </si>
-  <si>
     <t>Préfet de l'annone</t>
   </si>
   <si>
@@ -431,9 +428,6 @@
     <t>Questeur;Tribun de la plèbe;Préteur;Propréteur</t>
   </si>
   <si>
-    <t>Macédoine;Dacie</t>
-  </si>
-  <si>
     <t>P35</t>
   </si>
   <si>
@@ -494,9 +488,6 @@
     <t>Propréteur</t>
   </si>
   <si>
-    <t>Arabie</t>
-  </si>
-  <si>
     <t>P42</t>
   </si>
   <si>
@@ -509,9 +500,6 @@
     <t>Lucius Fabius Iustus</t>
   </si>
   <si>
-    <t>Mésie inférieure;Dacie;Syrie</t>
-  </si>
-  <si>
     <t>P44</t>
   </si>
   <si>
@@ -560,9 +548,6 @@
     <t>Lucius Iulius Vestinus</t>
   </si>
   <si>
-    <t>Achaïe;Syrie;Égypte</t>
-  </si>
-  <si>
     <t>P50</t>
   </si>
   <si>
@@ -575,9 +560,6 @@
     <t>Frontin</t>
   </si>
   <si>
-    <t>Bretagne;Germanie inférieure;Asie</t>
-  </si>
-  <si>
     <t>Militaire;Politico-militaire</t>
   </si>
   <si>
@@ -794,9 +776,6 @@
     <t>spol7</t>
   </si>
   <si>
-    <t>spol8</t>
-  </si>
-  <si>
     <t>Tribun lacticlave</t>
   </si>
   <si>
@@ -908,15 +887,6 @@
     <t>Mésopotamie;Parthie</t>
   </si>
   <si>
-    <t>Dacie;Dacie</t>
-  </si>
-  <si>
-    <t>Politique;Politico-militaire;Politico-militaire</t>
-  </si>
-  <si>
-    <t>Dalmatie;Mésie;Dacie</t>
-  </si>
-  <si>
     <t>Politico-militaire;Politico-militaire;Militaire</t>
   </si>
   <si>
@@ -944,36 +914,15 @@
     <t>Politico-militaire;Politico-militaire;Politico-militaire</t>
   </si>
   <si>
-    <t>Politique;Politique;Personnel</t>
-  </si>
-  <si>
     <t>Mésie supérieure;Pannonie;Dacie</t>
   </si>
   <si>
-    <t>Mésie;Dacie;Pannonie;Belgique</t>
-  </si>
-  <si>
-    <t>Militaire;Militaire;Politico-militaire;Politico-militaire</t>
-  </si>
-  <si>
     <t>Militaire;Politico-militaire;Politico-militaire;Personnel</t>
   </si>
   <si>
     <t>Politique;Politique;Politique;Politico-militaire</t>
   </si>
   <si>
-    <t>Mésie;Achaïe;Dacie;Parthie;Babylone</t>
-  </si>
-  <si>
-    <t>Militaire;Militaire;Militaire;Militaire;Militaire</t>
-  </si>
-  <si>
-    <t>Achaïe;Mésie;Dacie;Achaïe;Asie</t>
-  </si>
-  <si>
-    <t>Politique;Militaire;Militaire;Politico-militaire;Politique</t>
-  </si>
-  <si>
     <t>Mésie;Dacie;Afrique;Germanie supérieure;Syrie;Afrique</t>
   </si>
   <si>
@@ -986,30 +935,9 @@
     <t>Dacie;Parthie;Palestine;Cyrénaïque;Mésopotamie;Judée</t>
   </si>
   <si>
-    <t>Afrique;Dacie;Mésie;Numidie;Pannonie supérieure;Afrique</t>
-  </si>
-  <si>
-    <t>Politico-militaire;Militaire;Militaire;Militaire;Politico-militaire;Politico-militaire</t>
-  </si>
-  <si>
-    <t>Mésie;Dacie;Judée;Cappadoce;Galatie;Syrie;Dacie</t>
-  </si>
-  <si>
     <t>Asie;Syrie;Syrie;Bretagne;Bétique;Narbonnaise;Afrique</t>
   </si>
   <si>
-    <t>Asie;Germanie;Asie;Cappadoce;Arménie;Syrie;Afrique</t>
-  </si>
-  <si>
-    <t>Grèce;Mésie;Dacie</t>
-  </si>
-  <si>
-    <t>Militaire;Militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire</t>
-  </si>
-  <si>
-    <t>Politique;Militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire</t>
-  </si>
-  <si>
     <t>Politique;Militaire;Militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire</t>
   </si>
   <si>
@@ -1031,9 +959,6 @@
     <t>Equestre</t>
   </si>
   <si>
-    <t>cpol7</t>
-  </si>
-  <si>
     <t>Regulus</t>
   </si>
   <si>
@@ -1362,13 +1287,429 @@
   </si>
   <si>
     <t>cpol4;cpol6</t>
+  </si>
+  <si>
+    <t>Marcus Rutilius Lupus</t>
+  </si>
+  <si>
+    <t>Mésie;Dacie;Pannonie;Belgique;Gaule cisalpine</t>
+  </si>
+  <si>
+    <r>
+      <t>Militaire;Militaire;Politico-militaire;Politico-militaire;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Politico-militaire;Politico-militaire;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Politique;Militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <t>Dalmatie;Mésie supérieure;Dacie</t>
+  </si>
+  <si>
+    <t>Mésie;Achaïe;Dacie;Parthie</t>
+  </si>
+  <si>
+    <t>Militaire;Militaire;Militaire;Militaire</t>
+  </si>
+  <si>
+    <t>Asie;Narbonnaise</t>
+  </si>
+  <si>
+    <r>
+      <t>Politico-militaire;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Militaire;Militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <t>Mésie;Dacie;Judée;Cappadoce;Galatie;Syrie;Dacie;Asie</t>
+  </si>
+  <si>
+    <t>Dacie;Taraconnaise</t>
+  </si>
+  <si>
+    <r>
+      <t>Militaire;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <t>Macédoine;Dacie;Egypte</t>
+  </si>
+  <si>
+    <r>
+      <t>Politique;Politico-militaire;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <t>Arabie;Cappadoce</t>
+  </si>
+  <si>
+    <t>Mésie inférieure;Dacie;Syrie;Lusitanie</t>
+  </si>
+  <si>
+    <r>
+      <t>Politico-militaire;Militaire;Politico-militaire;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <t>Achaïe;Syrie;Égypte;Asie</t>
+  </si>
+  <si>
+    <r>
+      <t>Politique;Politique;Personnel;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <t>Bretagne;Germanie inférieure;Asie;Germanie supérieure</t>
+  </si>
+  <si>
+    <t>Politico-militaire;Militaire;Politico-militaire;NA</t>
+  </si>
+  <si>
+    <r>
+      <t>Afrique;Dacie;Mésie;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mauritanie césarienne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>;Pannonie supérieure;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Taraconnaise</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Politico-militaire;Militaire;Militaire;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Militaire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>;Politico-militaire;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Politico-militaire</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Achaïe;Mésie;Dacie;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bithynie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>;Asie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Politique;Militaire;Militaire;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Politico-militaire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>;Politique</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dacie;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Narbonnaise</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Militaire;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Politico-militaire</t>
+    </r>
+  </si>
+  <si>
+    <t>Mésie;Dacie;Achaïe</t>
+  </si>
+  <si>
+    <t>Asie;Germanie inférieure;Asie;Cappadoce;Arménie;Syrie;Afrique;Bithynie;Parthie</t>
+  </si>
+  <si>
+    <t>Couleur</t>
+  </si>
+  <si>
+    <t>#ffb3b3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #ff8080</t>
+  </si>
+  <si>
+    <t>#ff4d4d</t>
+  </si>
+  <si>
+    <t>#ff1a1a</t>
+  </si>
+  <si>
+    <t>#e60000</t>
+  </si>
+  <si>
+    <t>#990000</t>
+  </si>
+  <si>
+    <t>#660000</t>
+  </si>
+  <si>
+    <t>#ffccff</t>
+  </si>
+  <si>
+    <t>#ff99ff</t>
+  </si>
+  <si>
+    <t>#ff00ff</t>
+  </si>
+  <si>
+    <t>#cc00cc</t>
+  </si>
+  <si>
+    <t>#ccccff</t>
+  </si>
+  <si>
+    <t>#9999ff</t>
+  </si>
+  <si>
+    <t>#6666ff</t>
+  </si>
+  <si>
+    <t>#3333ff</t>
+  </si>
+  <si>
+    <t>#0000e6</t>
+  </si>
+  <si>
+    <t>#000099</t>
+  </si>
+  <si>
+    <t>#b3ffb3</t>
+  </si>
+  <si>
+    <t>#80ff80</t>
+  </si>
+  <si>
+    <t>#33ff33</t>
+  </si>
+  <si>
+    <t>#00ff00</t>
+  </si>
+  <si>
+    <t>#00cc00</t>
+  </si>
+  <si>
+    <t>#009900</t>
+  </si>
+  <si>
+    <t>cmil7</t>
+  </si>
+  <si>
+    <t>#006600</t>
+  </si>
+  <si>
+    <t>CarriereNA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1433,8 +1774,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1525,6 +1878,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1556,7 +1915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1599,6 +1958,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1961,10 +2322,10 @@
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,7 +2342,7 @@
     <col min="10" max="10" width="29.5703125" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="58.85546875" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" customWidth="1"/>
+    <col min="13" max="13" width="105" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" customWidth="1"/>
     <col min="15" max="15" width="16.140625" customWidth="1"/>
     <col min="16" max="16" width="21.140625" customWidth="1"/>
@@ -1995,10 +2356,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -2013,7 +2374,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>5</v>
@@ -2184,10 +2545,10 @@
         <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="M4" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="N4" t="s">
         <v>22</v>
@@ -2237,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M5" t="s">
         <v>21</v>
@@ -2290,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M6" t="s">
         <v>21</v>
@@ -2343,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M7" t="s">
         <v>21</v>
@@ -2399,7 +2760,7 @@
         <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N8" t="s">
         <v>22</v>
@@ -2422,7 +2783,7 @@
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -2475,7 +2836,7 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
@@ -2505,7 +2866,7 @@
         <v>42</v>
       </c>
       <c r="M10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="N10" t="s">
         <v>44</v>
@@ -2528,7 +2889,7 @@
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
@@ -2552,13 +2913,13 @@
         <v>16</v>
       </c>
       <c r="K11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>306</v>
+        <v>420</v>
       </c>
       <c r="M11" t="s">
-        <v>307</v>
+        <v>421</v>
       </c>
       <c r="N11" t="s">
         <v>44</v>
@@ -2581,7 +2942,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -2661,10 +3022,10 @@
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>323</v>
+        <v>448</v>
       </c>
       <c r="M13" t="s">
-        <v>293</v>
+        <v>422</v>
       </c>
       <c r="N13" t="s">
         <v>44</v>
@@ -2687,7 +3048,7 @@
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="D14" t="s">
         <v>63</v>
@@ -2711,13 +3072,13 @@
         <v>16</v>
       </c>
       <c r="K14" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L14" t="s">
-        <v>322</v>
+        <v>449</v>
       </c>
       <c r="M14" t="s">
-        <v>325</v>
+        <v>423</v>
       </c>
       <c r="N14" t="s">
         <v>44</v>
@@ -2740,7 +3101,7 @@
         <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D15" t="s">
         <v>66</v>
@@ -2767,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>294</v>
+        <v>424</v>
       </c>
       <c r="M15" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="N15" t="s">
         <v>44</v>
@@ -2793,7 +3154,7 @@
         <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -2823,7 +3184,7 @@
         <v>70</v>
       </c>
       <c r="M16" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="N16" t="s">
         <v>44</v>
@@ -2846,7 +3207,7 @@
         <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -2870,13 +3231,13 @@
         <v>74</v>
       </c>
       <c r="K17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17" t="s">
-        <v>310</v>
+        <v>425</v>
       </c>
       <c r="M17" t="s">
-        <v>311</v>
+        <v>426</v>
       </c>
       <c r="N17" t="s">
         <v>44</v>
@@ -2899,7 +3260,7 @@
         <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
@@ -2929,7 +3290,7 @@
         <v>77</v>
       </c>
       <c r="M18" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="N18" t="s">
         <v>44</v>
@@ -2952,7 +3313,7 @@
         <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="D19" t="s">
         <v>66</v>
@@ -2976,13 +3337,13 @@
         <v>16</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>53</v>
+        <v>427</v>
       </c>
       <c r="M19" t="s">
-        <v>43</v>
+        <v>428</v>
       </c>
       <c r="N19" t="s">
         <v>44</v>
@@ -3005,7 +3366,7 @@
         <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D20" t="s">
         <v>83</v>
@@ -3029,13 +3390,13 @@
         <v>16</v>
       </c>
       <c r="K20" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="M20" t="s">
-        <v>324</v>
+        <v>429</v>
       </c>
       <c r="N20" t="s">
         <v>44</v>
@@ -3058,7 +3419,7 @@
         <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="D21" t="s">
         <v>86</v>
@@ -3085,10 +3446,10 @@
         <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="M21" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="N21" t="s">
         <v>44</v>
@@ -3111,10 +3472,10 @@
         <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="D22" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
@@ -3138,10 +3499,10 @@
         <v>6</v>
       </c>
       <c r="L22" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="M22" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="N22" t="s">
         <v>44</v>
@@ -3150,7 +3511,7 @@
         <v>16</v>
       </c>
       <c r="P22" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="Q22" t="s">
         <v>19</v>
@@ -3164,7 +3525,7 @@
         <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
@@ -3173,7 +3534,7 @@
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -3191,10 +3552,10 @@
         <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="M23" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="N23" t="s">
         <v>44</v>
@@ -3217,7 +3578,7 @@
         <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="D24" t="s">
         <v>95</v>
@@ -3241,13 +3602,13 @@
         <v>16</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>210</v>
+        <v>431</v>
       </c>
       <c r="M24" t="s">
-        <v>71</v>
+        <v>432</v>
       </c>
       <c r="N24" t="s">
         <v>44</v>
@@ -3270,7 +3631,7 @@
         <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="D25" t="s">
         <v>86</v>
@@ -3297,10 +3658,10 @@
         <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="M25" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="N25" t="s">
         <v>44</v>
@@ -3323,7 +3684,7 @@
         <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
@@ -3429,7 +3790,7 @@
         <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
@@ -3438,7 +3799,7 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G28" t="s">
         <v>106</v>
@@ -3459,7 +3820,7 @@
         <v>107</v>
       </c>
       <c r="M28" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="N28" t="s">
         <v>44</v>
@@ -3482,7 +3843,7 @@
         <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="D29" t="s">
         <v>58</v>
@@ -3512,7 +3873,7 @@
         <v>110</v>
       </c>
       <c r="M29" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="N29" t="s">
         <v>44</v>
@@ -3532,19 +3893,19 @@
         <v>111</v>
       </c>
       <c r="B30" t="s">
+        <v>419</v>
+      </c>
+      <c r="C30" t="s">
+        <v>336</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
         <v>112</v>
-      </c>
-      <c r="C30" t="s">
-        <v>361</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" t="s">
-        <v>113</v>
       </c>
       <c r="G30" t="s">
         <v>106</v>
@@ -3562,10 +3923,10 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M30" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N30" t="s">
         <v>44</v>
@@ -3582,13 +3943,13 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
         <v>115</v>
       </c>
-      <c r="B31" t="s">
-        <v>116</v>
-      </c>
       <c r="C31" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -3635,25 +3996,25 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
         <v>117</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
         <v>118</v>
-      </c>
-      <c r="C32" t="s">
-        <v>363</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>119</v>
       </c>
       <c r="H32" t="s">
         <v>19</v>
@@ -3668,10 +4029,10 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N32" t="s">
         <v>44</v>
@@ -3688,16 +4049,16 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" t="s">
         <v>121</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" t="s">
         <v>122</v>
-      </c>
-      <c r="C33" t="s">
-        <v>364</v>
-      </c>
-      <c r="D33" t="s">
-        <v>123</v>
       </c>
       <c r="E33" t="s">
         <v>27</v>
@@ -3721,10 +4082,10 @@
         <v>6</v>
       </c>
       <c r="L33" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="N33" t="s">
         <v>44</v>
@@ -3741,13 +4102,13 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
         <v>124</v>
       </c>
-      <c r="B34" t="s">
-        <v>125</v>
-      </c>
       <c r="C34" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="D34" t="s">
         <v>66</v>
@@ -3774,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M34" t="s">
         <v>43</v>
@@ -3794,13 +4155,13 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
         <v>127</v>
       </c>
-      <c r="B35" t="s">
-        <v>128</v>
-      </c>
       <c r="C35" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="D35" t="s">
         <v>66</v>
@@ -3809,7 +4170,7 @@
         <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G35" t="s">
         <v>41</v>
@@ -3827,10 +4188,10 @@
         <v>4</v>
       </c>
       <c r="L35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M35" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="N35" t="s">
         <v>44</v>
@@ -3847,16 +4208,16 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" t="s">
         <v>130</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>342</v>
+      </c>
+      <c r="D36" t="s">
         <v>131</v>
-      </c>
-      <c r="C36" t="s">
-        <v>367</v>
-      </c>
-      <c r="D36" t="s">
-        <v>132</v>
       </c>
       <c r="E36" t="s">
         <v>58</v>
@@ -3877,13 +4238,13 @@
         <v>16</v>
       </c>
       <c r="K36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>133</v>
+        <v>433</v>
       </c>
       <c r="M36" t="s">
-        <v>289</v>
+        <v>434</v>
       </c>
       <c r="N36" t="s">
         <v>44</v>
@@ -3900,46 +4261,46 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
+        <v>343</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" t="s">
         <v>134</v>
-      </c>
-      <c r="B37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" t="s">
-        <v>368</v>
-      </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37" t="s">
-        <v>16</v>
-      </c>
-      <c r="M37" t="s">
-        <v>16</v>
-      </c>
-      <c r="N37" t="s">
-        <v>136</v>
       </c>
       <c r="O37" t="s">
         <v>16</v>
@@ -3953,16 +4314,16 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>344</v>
+      </c>
+      <c r="D38" t="s">
         <v>137</v>
-      </c>
-      <c r="B38" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" t="s">
-        <v>369</v>
-      </c>
-      <c r="D38" t="s">
-        <v>139</v>
       </c>
       <c r="E38" t="s">
         <v>48</v>
@@ -3992,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="N38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O38" t="s">
         <v>16</v>
@@ -4006,13 +4367,13 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
@@ -4045,7 +4406,7 @@
         <v>16</v>
       </c>
       <c r="N39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O39" t="s">
         <v>16</v>
@@ -4059,13 +4420,13 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
@@ -4098,7 +4459,7 @@
         <v>16</v>
       </c>
       <c r="N40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O40" t="s">
         <v>16</v>
@@ -4112,16 +4473,16 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="D41" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="E41" t="s">
         <v>27</v>
@@ -4136,7 +4497,7 @@
         <v>19</v>
       </c>
       <c r="I41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J41" t="s">
         <v>16</v>
@@ -4145,13 +4506,13 @@
         <v>3</v>
       </c>
       <c r="L41" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M41" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="N41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O41" t="s">
         <v>19</v>
@@ -4165,13 +4526,13 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C42" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="D42" t="s">
         <v>16</v>
@@ -4204,7 +4565,7 @@
         <v>16</v>
       </c>
       <c r="N42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O42" t="s">
         <v>19</v>
@@ -4218,19 +4579,19 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>321</v>
+      </c>
+      <c r="D43" t="s">
         <v>150</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
         <v>151</v>
-      </c>
-      <c r="C43" t="s">
-        <v>346</v>
-      </c>
-      <c r="D43" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" t="s">
-        <v>153</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -4248,16 +4609,16 @@
         <v>16</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" t="s">
-        <v>154</v>
+        <v>435</v>
       </c>
       <c r="M43" t="s">
-        <v>43</v>
+        <v>428</v>
       </c>
       <c r="N43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O43" t="s">
         <v>16</v>
@@ -4271,16 +4632,16 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="C44" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
         <v>27</v>
@@ -4304,13 +4665,13 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M44" t="s">
         <v>71</v>
       </c>
       <c r="N44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" t="s">
         <v>23</v>
@@ -4324,13 +4685,13 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D45" t="s">
         <v>66</v>
@@ -4354,16 +4715,16 @@
         <v>16</v>
       </c>
       <c r="K45" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L45" t="s">
-        <v>159</v>
+        <v>436</v>
       </c>
       <c r="M45" t="s">
-        <v>297</v>
+        <v>437</v>
       </c>
       <c r="N45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" t="s">
         <v>16</v>
@@ -4377,13 +4738,13 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="D46" t="s">
         <v>66</v>
@@ -4410,19 +4771,19 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M46" t="s">
         <v>43</v>
       </c>
       <c r="N46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" t="s">
         <v>16</v>
       </c>
       <c r="P46" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="Q46" t="s">
         <v>23</v>
@@ -4430,13 +4791,13 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
@@ -4469,7 +4830,7 @@
         <v>16</v>
       </c>
       <c r="N47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O47" t="s">
         <v>19</v>
@@ -4483,13 +4844,13 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C48" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="D48" t="s">
         <v>66</v>
@@ -4501,7 +4862,7 @@
         <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H48" t="s">
         <v>23</v>
@@ -4516,13 +4877,13 @@
         <v>2</v>
       </c>
       <c r="L48" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M48" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="N48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O48" t="s">
         <v>23</v>
@@ -4536,16 +4897,16 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C49" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="D49" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="E49" t="s">
         <v>27</v>
@@ -4560,7 +4921,7 @@
         <v>19</v>
       </c>
       <c r="I49" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J49" t="s">
         <v>16</v>
@@ -4569,13 +4930,13 @@
         <v>2</v>
       </c>
       <c r="L49" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M49" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="N49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O49" t="s">
         <v>16</v>
@@ -4589,13 +4950,13 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
@@ -4622,13 +4983,13 @@
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M50" t="s">
         <v>71</v>
       </c>
       <c r="N50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O50" t="s">
         <v>16</v>
@@ -4642,13 +5003,13 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C51" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
@@ -4660,7 +5021,7 @@
         <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H51" t="s">
         <v>19</v>
@@ -4672,16 +5033,16 @@
         <v>16</v>
       </c>
       <c r="K51" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L51" t="s">
-        <v>176</v>
+        <v>438</v>
       </c>
       <c r="M51" t="s">
-        <v>304</v>
+        <v>439</v>
       </c>
       <c r="N51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O51" t="s">
         <v>23</v>
@@ -4695,16 +5056,16 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="D52" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="E52" t="s">
         <v>27</v>
@@ -4728,13 +5089,13 @@
         <v>2</v>
       </c>
       <c r="L52" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M52" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="N52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O52" t="s">
         <v>16</v>
@@ -4748,16 +5109,16 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D53" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="E53" t="s">
         <v>27</v>
@@ -4778,16 +5139,16 @@
         <v>16</v>
       </c>
       <c r="K53" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L53" t="s">
-        <v>181</v>
+        <v>440</v>
       </c>
       <c r="M53" t="s">
-        <v>297</v>
+        <v>441</v>
       </c>
       <c r="N53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O53" t="s">
         <v>16</v>
@@ -4801,16 +5162,16 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" t="s">
         <v>58</v>
@@ -4834,13 +5195,13 @@
         <v>7</v>
       </c>
       <c r="L54" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="M54" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="N54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O54" t="s">
         <v>19</v>
@@ -4854,13 +5215,13 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="D55" t="s">
         <v>66</v>
@@ -4887,13 +5248,13 @@
         <v>6</v>
       </c>
       <c r="L55" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="M55" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="N55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O55" t="s">
         <v>19</v>
@@ -4907,19 +5268,19 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -4940,13 +5301,13 @@
         <v>2</v>
       </c>
       <c r="L56" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M56" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="N56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O56" t="s">
         <v>16</v>
@@ -4960,13 +5321,13 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B57" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="D57" t="s">
         <v>66</v>
@@ -4993,13 +5354,13 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M57" t="s">
         <v>43</v>
       </c>
       <c r="N57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O57" t="s">
         <v>19</v>
@@ -5013,13 +5374,13 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="D58" t="s">
         <v>103</v>
@@ -5031,13 +5392,13 @@
         <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H58" t="s">
         <v>23</v>
       </c>
       <c r="I58" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J58" t="s">
         <v>16</v>
@@ -5046,13 +5407,13 @@
         <v>6</v>
       </c>
       <c r="L58" t="s">
-        <v>318</v>
+        <v>442</v>
       </c>
       <c r="M58" t="s">
-        <v>319</v>
+        <v>443</v>
       </c>
       <c r="N58" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O58" t="s">
         <v>19</v>
@@ -5066,13 +5427,13 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B59" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
@@ -5105,7 +5466,7 @@
         <v>16</v>
       </c>
       <c r="N59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O59" t="s">
         <v>23</v>
@@ -5119,13 +5480,13 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B60" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C60" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="D60" t="s">
         <v>66</v>
@@ -5152,13 +5513,13 @@
         <v>3</v>
       </c>
       <c r="L60" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="M60" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="N60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O60" t="s">
         <v>19</v>
@@ -5172,19 +5533,19 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C61" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
@@ -5205,13 +5566,13 @@
         <v>16</v>
       </c>
       <c r="L61" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M61" t="s">
         <v>43</v>
       </c>
       <c r="N61" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O61" t="s">
         <v>16</v>
@@ -5225,25 +5586,25 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
       </c>
       <c r="E62" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H62" t="s">
         <v>23</v>
@@ -5252,19 +5613,19 @@
         <v>59</v>
       </c>
       <c r="J62" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K62" s="1">
         <v>5</v>
       </c>
       <c r="L62" t="s">
-        <v>312</v>
+        <v>444</v>
       </c>
       <c r="M62" t="s">
-        <v>313</v>
+        <v>445</v>
       </c>
       <c r="N62" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O62" t="s">
         <v>23</v>
@@ -5278,19 +5639,19 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B63" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C63" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="D63" t="s">
         <v>95</v>
       </c>
       <c r="E63" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
@@ -5305,19 +5666,19 @@
         <v>16</v>
       </c>
       <c r="J63" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K63" s="1">
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M63" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N63" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O63" t="s">
         <v>23</v>
@@ -5331,19 +5692,19 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="D64" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
@@ -5364,13 +5725,13 @@
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M64" t="s">
         <v>71</v>
       </c>
       <c r="N64" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O64" t="s">
         <v>16</v>
@@ -5384,13 +5745,13 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C65" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
@@ -5423,13 +5784,13 @@
         <v>16</v>
       </c>
       <c r="N65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O65" t="s">
         <v>19</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Q65" t="s">
         <v>19</v>
@@ -5437,13 +5798,13 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B66" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C66" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="D66" t="s">
         <v>16</v>
@@ -5452,7 +5813,7 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G66" t="s">
         <v>41</v>
@@ -5470,13 +5831,13 @@
         <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M66" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O66" t="s">
         <v>23</v>
@@ -5490,13 +5851,13 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C67" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="D67" t="s">
         <v>66</v>
@@ -5523,13 +5884,13 @@
         <v>2</v>
       </c>
       <c r="L67" t="s">
-        <v>292</v>
+        <v>446</v>
       </c>
       <c r="M67" t="s">
-        <v>182</v>
+        <v>447</v>
       </c>
       <c r="N67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O67" t="s">
         <v>16</v>
@@ -5543,13 +5904,13 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C68" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
@@ -5576,13 +5937,13 @@
         <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M68" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N68" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O68" t="s">
         <v>16</v>
@@ -5620,19 +5981,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5643,10 +6004,10 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5657,10 +6018,10 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5671,10 +6032,10 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5685,10 +6046,10 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5699,10 +6060,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5713,10 +6074,10 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5727,7 +6088,7 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -5741,10 +6102,10 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5755,10 +6116,10 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5769,10 +6130,10 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5783,10 +6144,10 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5797,10 +6158,10 @@
         <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5811,10 +6172,10 @@
         <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5825,10 +6186,10 @@
         <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5839,10 +6200,10 @@
         <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5853,10 +6214,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5881,10 +6242,10 @@
         <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5895,10 +6256,10 @@
         <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5909,10 +6270,10 @@
         <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5923,13 +6284,13 @@
         <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E22" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -5940,10 +6301,10 @@
         <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5954,10 +6315,10 @@
         <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5968,10 +6329,10 @@
         <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D25" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -5982,10 +6343,10 @@
         <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -5996,10 +6357,10 @@
         <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -6010,10 +6371,10 @@
         <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D28" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -6024,10 +6385,10 @@
         <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -6035,13 +6396,13 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D30" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -6049,16 +6410,16 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -6066,13 +6427,13 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D32" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -6080,13 +6441,13 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D33" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -6094,13 +6455,13 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D34" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -6108,13 +6469,13 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D35" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -6122,10 +6483,10 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
@@ -6136,13 +6497,13 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D37" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -6150,16 +6511,16 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -6167,13 +6528,13 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D39" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -6181,13 +6542,13 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D40" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -6195,13 +6556,13 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C41" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D41" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -6209,13 +6570,13 @@
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -6223,13 +6584,13 @@
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C43" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -6237,13 +6598,13 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -6251,13 +6612,13 @@
         <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D45" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -6265,13 +6626,13 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -6279,7 +6640,7 @@
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -6293,13 +6654,13 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -6307,13 +6668,13 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D49" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -6321,7 +6682,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
@@ -6335,10 +6696,10 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
@@ -6349,13 +6710,13 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C52" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D52" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -6363,13 +6724,13 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D53" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -6377,13 +6738,13 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C54" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D54" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -6391,13 +6752,13 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D55" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -6405,16 +6766,16 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -6422,13 +6783,13 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C57" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -6436,10 +6797,10 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D58" t="s">
         <v>16</v>
@@ -6450,13 +6811,13 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D59" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -6464,13 +6825,13 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D60" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -6478,13 +6839,13 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D61" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -6492,13 +6853,13 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C62" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D62" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -6506,13 +6867,13 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C63" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D63" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -6520,13 +6881,13 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -6534,13 +6895,13 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C65" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D65" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -6548,13 +6909,13 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -6562,13 +6923,13 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D67" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -6579,10 +6940,10 @@
         <v>24</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E68" s="10"/>
     </row>
@@ -6594,13 +6955,13 @@
         <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -6611,10 +6972,10 @@
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D70" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -6625,7 +6986,7 @@
         <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
@@ -6639,7 +7000,7 @@
         <v>37</v>
       </c>
       <c r="C72" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D72" t="s">
         <v>16</v>
@@ -6653,10 +7014,10 @@
         <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D73" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -6670,7 +7031,7 @@
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -6681,10 +7042,10 @@
         <v>101</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -6692,13 +7053,13 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C76" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -6709,10 +7070,10 @@
         <v>28</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E77" s="10"/>
     </row>
@@ -6724,10 +7085,10 @@
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D78" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -6738,10 +7099,10 @@
         <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D79" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -6752,7 +7113,7 @@
         <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D80" t="s">
         <v>16</v>
@@ -6766,13 +7127,13 @@
         <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D81" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E81" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -6783,10 +7144,10 @@
         <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D82" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -6797,10 +7158,10 @@
         <v>61</v>
       </c>
       <c r="C83" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D83" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -6811,10 +7172,10 @@
         <v>67</v>
       </c>
       <c r="C84" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D84" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -6825,10 +7186,10 @@
         <v>75</v>
       </c>
       <c r="C85" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D85" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -6839,10 +7200,10 @@
         <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D86" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -6853,10 +7214,10 @@
         <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D87" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -6867,10 +7228,10 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D88" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -6881,10 +7242,10 @@
         <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D89" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -6895,10 +7256,10 @@
         <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D90" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -6909,10 +7270,10 @@
         <v>108</v>
       </c>
       <c r="C91" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D91" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -6923,7 +7284,7 @@
         <v>111</v>
       </c>
       <c r="C92" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D92" t="s">
         <v>16</v>
@@ -6934,13 +7295,13 @@
         <v>24</v>
       </c>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C93" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D93" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -6948,13 +7309,13 @@
         <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D94" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -6962,16 +7323,16 @@
         <v>24</v>
       </c>
       <c r="B95" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D95" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E95" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -6979,10 +7340,10 @@
         <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C96" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D96" t="s">
         <v>16</v>
@@ -6993,16 +7354,16 @@
         <v>24</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D97" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E97" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -7010,10 +7371,10 @@
         <v>24</v>
       </c>
       <c r="B98" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C98" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D98" t="s">
         <v>16</v>
@@ -7024,13 +7385,13 @@
         <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C99" t="s">
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -7038,13 +7399,13 @@
         <v>24</v>
       </c>
       <c r="B100" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C100" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D100" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -7052,13 +7413,13 @@
         <v>24</v>
       </c>
       <c r="B101" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C101" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D101" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -7066,13 +7427,13 @@
         <v>24</v>
       </c>
       <c r="B102" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C102" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D102" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -7080,13 +7441,13 @@
         <v>24</v>
       </c>
       <c r="B103" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C103" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D103" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -7094,13 +7455,13 @@
         <v>24</v>
       </c>
       <c r="B104" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C104" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D104" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -7108,13 +7469,13 @@
         <v>24</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C105" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D105" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -7122,13 +7483,13 @@
         <v>24</v>
       </c>
       <c r="B106" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C106" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D106" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -7136,16 +7497,16 @@
         <v>24</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C107" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D107" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E107" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -7153,13 +7514,13 @@
         <v>24</v>
       </c>
       <c r="B108" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C108" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D108" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -7170,10 +7531,10 @@
         <v>30</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E109" s="10"/>
     </row>
@@ -7185,10 +7546,10 @@
         <v>32</v>
       </c>
       <c r="C110" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D110" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -7199,7 +7560,7 @@
         <v>34</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>16</v>
@@ -7214,10 +7575,10 @@
         <v>37</v>
       </c>
       <c r="C112" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D112" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -7228,10 +7589,10 @@
         <v>32</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E113" s="10"/>
     </row>
@@ -7243,7 +7604,7 @@
         <v>34</v>
       </c>
       <c r="C114" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D114" t="s">
         <v>16</v>
@@ -7257,10 +7618,10 @@
         <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D115" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -7271,7 +7632,7 @@
         <v>34</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>16</v>
@@ -7286,7 +7647,7 @@
         <v>37</v>
       </c>
       <c r="C117" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D117" t="s">
         <v>16</v>
@@ -7297,16 +7658,16 @@
         <v>32</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -7317,7 +7678,7 @@
         <v>37</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>16</v>
@@ -7335,7 +7696,7 @@
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -7346,10 +7707,10 @@
         <v>55</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E121" s="10"/>
     </row>
@@ -7361,10 +7722,10 @@
         <v>75</v>
       </c>
       <c r="C122" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D122" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -7375,10 +7736,10 @@
         <v>108</v>
       </c>
       <c r="C123" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D123" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -7386,13 +7747,13 @@
         <v>39</v>
       </c>
       <c r="B124" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C124" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D124" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -7400,13 +7761,13 @@
         <v>50</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E125" s="10"/>
     </row>
@@ -7415,13 +7776,13 @@
         <v>50</v>
       </c>
       <c r="B126" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C126" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D126" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -7432,10 +7793,10 @@
         <v>75</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E127" s="10"/>
     </row>
@@ -7447,10 +7808,10 @@
         <v>78</v>
       </c>
       <c r="C128" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D128" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -7461,10 +7822,10 @@
         <v>84</v>
       </c>
       <c r="C129" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D129" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -7475,10 +7836,10 @@
         <v>108</v>
       </c>
       <c r="C130" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D130" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -7486,13 +7847,13 @@
         <v>55</v>
       </c>
       <c r="B131" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C131" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D131" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -7500,13 +7861,13 @@
         <v>55</v>
       </c>
       <c r="B132" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C132" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D132" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -7517,10 +7878,10 @@
         <v>101</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E133" s="10"/>
     </row>
@@ -7532,10 +7893,10 @@
         <v>93</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E134" s="10"/>
     </row>
@@ -7547,10 +7908,10 @@
         <v>84</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E135" s="10"/>
     </row>
@@ -7562,10 +7923,10 @@
         <v>108</v>
       </c>
       <c r="C136" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D136" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -7573,13 +7934,13 @@
         <v>75</v>
       </c>
       <c r="B137" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C137" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D137" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -7590,10 +7951,10 @@
         <v>101</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E138" s="10"/>
     </row>
@@ -7602,13 +7963,13 @@
         <v>78</v>
       </c>
       <c r="B139" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C139" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D139" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -7616,13 +7977,13 @@
         <v>78</v>
       </c>
       <c r="B140" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C140" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D140" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -7633,10 +7994,10 @@
         <v>93</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E141" s="10"/>
     </row>
@@ -7648,10 +8009,10 @@
         <v>101</v>
       </c>
       <c r="C142" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D142" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -7662,10 +8023,10 @@
         <v>108</v>
       </c>
       <c r="C143" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D143" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -7673,13 +8034,13 @@
         <v>84</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E144" s="20"/>
     </row>
@@ -7694,7 +8055,7 @@
         <v>16</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E145" s="19"/>
     </row>
@@ -7706,10 +8067,10 @@
         <v>101</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E146" s="10"/>
     </row>
@@ -7718,10 +8079,10 @@
         <v>93</v>
       </c>
       <c r="B147" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C147" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D147" t="s">
         <v>16</v>
@@ -7732,13 +8093,13 @@
         <v>93</v>
       </c>
       <c r="B148" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C148" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D148" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -7749,10 +8110,10 @@
         <v>108</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E149" s="10"/>
     </row>
@@ -7764,10 +8125,10 @@
         <v>101</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E150" s="10"/>
     </row>
@@ -7776,13 +8137,13 @@
         <v>101</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E151" s="10"/>
     </row>
@@ -7791,13 +8152,13 @@
         <v>101</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E152" s="19"/>
     </row>
@@ -7806,13 +8167,13 @@
         <v>101</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E153" s="19"/>
     </row>
@@ -7821,13 +8182,13 @@
         <v>101</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E154" s="19"/>
     </row>
@@ -7836,13 +8197,13 @@
         <v>101</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E155" s="19"/>
     </row>
@@ -7851,13 +8212,13 @@
         <v>101</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E156" s="19"/>
     </row>
@@ -7866,13 +8227,13 @@
         <v>101</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E157" s="19"/>
     </row>
@@ -7881,13 +8242,13 @@
         <v>101</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E158" s="19"/>
     </row>
@@ -7896,13 +8257,13 @@
         <v>101</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E159" s="19"/>
     </row>
@@ -7911,13 +8272,13 @@
         <v>101</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E160" s="19"/>
     </row>
@@ -7926,13 +8287,13 @@
         <v>101</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E161" s="19"/>
     </row>
@@ -7941,13 +8302,13 @@
         <v>104</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E162" s="10"/>
     </row>
@@ -7956,13 +8317,13 @@
         <v>108</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E163" s="10"/>
     </row>
@@ -7971,10 +8332,10 @@
         <v>111</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>16</v>
@@ -7983,31 +8344,31 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E165" s="10"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B166" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C166" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D166" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -8030,7 +8391,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8041,125 +8402,141 @@
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="G3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" t="s">
         <v>244</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>250</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -8167,405 +8544,445 @@
       <c r="F6" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="33" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
         <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
         <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15">
         <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>338</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>331</v>
-      </c>
-      <c r="B14" t="s">
-        <v>332</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>260</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" t="s">
-        <v>262</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="33" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>246</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
         <v>261</v>
       </c>
-      <c r="B16" t="s">
-        <v>259</v>
-      </c>
-      <c r="C16" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" t="s">
-        <v>263</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" t="s">
-        <v>259</v>
-      </c>
-      <c r="C17" t="s">
-        <v>220</v>
-      </c>
-      <c r="D17" t="s">
-        <v>264</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" t="s">
-        <v>220</v>
-      </c>
-      <c r="D18" t="s">
-        <v>265</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D19" t="s">
-        <v>266</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" t="s">
-        <v>220</v>
-      </c>
-      <c r="D20" t="s">
-        <v>333</v>
-      </c>
-      <c r="E20">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>259</v>
       </c>
       <c r="C21" t="s">
         <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C22" t="s">
         <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C23" t="s">
         <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C24" t="s">
         <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
+        <v>246</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>273</v>
-      </c>
-      <c r="B25" t="s">
-        <v>259</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>274</v>
+        <v>474</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>275</v>
-      </c>
-      <c r="B26" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>276</v>
-      </c>
-      <c r="E26">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
-        <v>252</v>
+        <v>246</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -8576,71 +8993,77 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="79.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>401</v>
+        <v>375</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -8648,7 +9071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -8656,7 +9079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -8664,7 +9087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -8672,7 +9095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -8680,60 +9103,60 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8741,7 +9164,7 @@
         <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8749,7 +9172,7 @@
         <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8757,7 +9180,7 @@
         <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8765,7 +9188,7 @@
         <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8773,7 +9196,7 @@
         <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8781,7 +9204,7 @@
         <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8789,7 +9212,7 @@
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8797,7 +9220,7 @@
         <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8805,7 +9228,7 @@
         <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8813,7 +9236,7 @@
         <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8821,7 +9244,7 @@
         <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8829,7 +9252,7 @@
         <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -8837,7 +9260,7 @@
         <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -8845,60 +9268,60 @@
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -8906,175 +9329,175 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B50" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B51" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B53" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B57" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B58" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
@@ -9082,74 +9505,74 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B60" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B61" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B63" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B64" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B66" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="516">
   <si>
     <t>Id</t>
   </si>
@@ -1295,67 +1295,6 @@
     <t>Mésie;Dacie;Pannonie;Belgique;Gaule cisalpine</t>
   </si>
   <si>
-    <r>
-      <t>Militaire;Militaire;Politico-militaire;Politico-militaire;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Politico-militaire;Politico-militaire;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Politique;Militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-  </si>
-  <si>
     <t>Dalmatie;Mésie supérieure;Dacie</t>
   </si>
   <si>
@@ -1368,256 +1307,27 @@
     <t>Asie;Narbonnaise</t>
   </si>
   <si>
-    <r>
-      <t>Politico-militaire;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Militaire;Militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-  </si>
-  <si>
     <t>Mésie;Dacie;Judée;Cappadoce;Galatie;Syrie;Dacie;Asie</t>
   </si>
   <si>
     <t>Dacie;Taraconnaise</t>
   </si>
   <si>
-    <r>
-      <t>Militaire;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-  </si>
-  <si>
     <t>Macédoine;Dacie;Egypte</t>
   </si>
   <si>
-    <r>
-      <t>Politique;Politico-militaire;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-  </si>
-  <si>
     <t>Arabie;Cappadoce</t>
   </si>
   <si>
     <t>Mésie inférieure;Dacie;Syrie;Lusitanie</t>
   </si>
   <si>
-    <r>
-      <t>Politico-militaire;Militaire;Politico-militaire;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-  </si>
-  <si>
     <t>Achaïe;Syrie;Égypte;Asie</t>
   </si>
   <si>
-    <r>
-      <t>Politique;Politique;Personnel;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-  </si>
-  <si>
     <t>Bretagne;Germanie inférieure;Asie;Germanie supérieure</t>
   </si>
   <si>
-    <t>Politico-militaire;Militaire;Politico-militaire;NA</t>
-  </si>
-  <si>
-    <r>
-      <t>Afrique;Dacie;Mésie;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mauritanie césarienne</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>;Pannonie supérieure;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Taraconnaise</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Politico-militaire;Militaire;Militaire;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Militaire</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>;Politico-militaire;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Politico-militaire</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Achaïe;Mésie;Dacie;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bithynie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>;Asie</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Politique;Militaire;Militaire;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Politico-militaire</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>;Politique</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dacie;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Narbonnaise</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Militaire;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Politico-militaire</t>
-    </r>
-  </si>
-  <si>
     <t>Mésie;Dacie;Achaïe</t>
   </si>
   <si>
@@ -1630,9 +1340,6 @@
     <t>#ffb3b3</t>
   </si>
   <si>
-    <t xml:space="preserve"> #ff8080</t>
-  </si>
-  <si>
     <t>#ff4d4d</t>
   </si>
   <si>
@@ -1648,15 +1355,6 @@
     <t>#660000</t>
   </si>
   <si>
-    <t>#ffccff</t>
-  </si>
-  <si>
-    <t>#ff99ff</t>
-  </si>
-  <si>
-    <t>#ff00ff</t>
-  </si>
-  <si>
     <t>#cc00cc</t>
   </si>
   <si>
@@ -1703,6 +1401,183 @@
   </si>
   <si>
     <t>CarriereNA</t>
+  </si>
+  <si>
+    <t>#ff8080</t>
+  </si>
+  <si>
+    <t>Politico-militaire;Militaire;Politico-militaire;Militaire</t>
+  </si>
+  <si>
+    <t>Militaire;Militaire;Politico-militaire;Politico-militaire;Politique</t>
+  </si>
+  <si>
+    <t>Politique;Militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;Personnel;Militaire</t>
+  </si>
+  <si>
+    <t>Militaire;Militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire;Politico-militaire</t>
+  </si>
+  <si>
+    <t>Militaire;Personnel</t>
+  </si>
+  <si>
+    <t>Politique;Politico-militaire;Politique</t>
+  </si>
+  <si>
+    <t>Politico-militaire;Personnel</t>
+  </si>
+  <si>
+    <t>Politico-militaire;Militaire;Politico-militaire;Personnel</t>
+  </si>
+  <si>
+    <t>Politique;Politique;Personnel;Politique</t>
+  </si>
+  <si>
+    <t>Politico-militaire;Militaire;Militaire;Militaire;Politico-militaire;Personnel</t>
+  </si>
+  <si>
+    <t>Politique;Militaire;Militaire;Politique;Politique</t>
+  </si>
+  <si>
+    <t>NA;spol2;spol3;spol4;smil2;NA;spol6;smil3</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;NA;NA;NA;NA;NA;cpol6</t>
+  </si>
+  <si>
+    <t>NA;spol1;spol2;spol4;smil2;spol5;spol6;smil3;spol7</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;NA;NA;NA;spol6;smil4</t>
+  </si>
+  <si>
+    <t>NA;NA;spol3;spol4;NA;spol5;NA;smil3</t>
+  </si>
+  <si>
+    <t>NA;spol1;NA;spol3;spol4;smil2;spol5;spol6;smil3;spol7</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;spol4;smil2;spol5;smil3</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>NA;cmil2</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;spol4;NA;NA;spol6;smil3</t>
+  </si>
+  <si>
+    <t>NA;spol1;NA;NA;spol4;smil2;spol5</t>
+  </si>
+  <si>
+    <t>NA;spol1;NA;NA;spol4;NAspol5;spol6;smil3</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;spol4;smil2;spol5;spol6;smil3;smil4</t>
+  </si>
+  <si>
+    <t>NA;spol1;NA;NA;NA;smil2;NA;spol6</t>
+  </si>
+  <si>
+    <t>NA;spol1;NA;NA;spol4;NA;spol5;spol6;smil3</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;NA;NA;cpol3</t>
+  </si>
+  <si>
+    <t>NA;spol1;NA;spol3;spol4;NA;spol5;spol6;smil3</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;cpol1;NA;NA;NA;cpol5</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;NA;NA;spol5;spol6;smil3</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;NA;NA;NA;cpol4;cpol5</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;NA;NA;spol5</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;cpol1</t>
+  </si>
+  <si>
+    <t>NA;spol1;NA;NA;spol4;smil2;NA;spol6;smil3</t>
+  </si>
+  <si>
+    <t>NA;spol1;NA;spol3;spol4;NA;NA;smil3</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;NA;NA;spol5;spol6;smil3;spol7</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;NA;NA;NA;spol6</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;spol4;NA;spol5;spol6;smil3;smil4</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;spol4;NA;NA;NA;smil3</t>
+  </si>
+  <si>
+    <t>NA;spol1;NA;spol3;spol4;smil2;NA;spol6</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;spol4;NA;spol5;NA;smil3</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;NA;smil2;spol5</t>
+  </si>
+  <si>
+    <t>NA;NA;spol2;NA;NA;NA;spol5;spol6;smil4</t>
+  </si>
+  <si>
+    <t>NA;NA;spol2;NA;NA;smil2;spol5;spol6;smil4</t>
+  </si>
+  <si>
+    <t>NA;spol1;NA;spol3;spol4;smil2;spol5;NA;smil3</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;spol4;smil2;NA;spol6;smil3</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;spol4;smil2</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;spol4;smil2;spol5;NA;smil3</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;spol4;NA;NA;smil3</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;spol3;spol4;smil2</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;NA;NA;NA;cpol4;NA;cpol6</t>
+  </si>
+  <si>
+    <t>NA;NA;NA;NA;NA;NA;NA;NA;cpol5</t>
+  </si>
+  <si>
+    <t>Afrique;Dacie;Mésie;Mauritanie césarienne;Pannonie supérieure;Taraconnaise</t>
+  </si>
+  <si>
+    <t>Achaïe;Mésie;Dacie;Bithynie;Asie</t>
+  </si>
+  <si>
+    <t>Dacie;Narbonnaise</t>
+  </si>
+  <si>
+    <t>#ffff99</t>
+  </si>
+  <si>
+    <t>#ffff00</t>
+  </si>
+  <si>
+    <t>#ff9900</t>
   </si>
 </sst>
 </file>
@@ -1776,15 +1651,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1915,7 +1791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1959,7 +1835,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2319,7 +2198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2342,7 +2221,7 @@
     <col min="10" max="10" width="29.5703125" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="58.85546875" customWidth="1"/>
-    <col min="13" max="13" width="105" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="105" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" customWidth="1"/>
     <col min="15" max="15" width="16.140625" customWidth="1"/>
     <col min="16" max="16" width="21.140625" customWidth="1"/>
@@ -2388,7 +2267,7 @@
       <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="34" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="7" t="s">
@@ -2441,7 +2320,7 @@
       <c r="L2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="35" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="10" t="s">
@@ -2494,7 +2373,7 @@
       <c r="L3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="36" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="12" t="s">
@@ -2547,7 +2426,7 @@
       <c r="L4" t="s">
         <v>278</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="14" t="s">
         <v>304</v>
       </c>
       <c r="N4" t="s">
@@ -2600,7 +2479,7 @@
       <c r="L5" t="s">
         <v>276</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="14" t="s">
         <v>21</v>
       </c>
       <c r="N5" t="s">
@@ -2653,7 +2532,7 @@
       <c r="L6" t="s">
         <v>277</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="N6" t="s">
@@ -2706,7 +2585,7 @@
       <c r="L7" t="s">
         <v>277</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="N7" t="s">
@@ -2759,7 +2638,7 @@
       <c r="L8" t="s">
         <v>36</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="14" t="s">
         <v>214</v>
       </c>
       <c r="N8" t="s">
@@ -2812,7 +2691,7 @@
       <c r="L9" t="s">
         <v>16</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="N9" t="s">
@@ -2865,7 +2744,7 @@
       <c r="L10" t="s">
         <v>42</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="14" t="s">
         <v>279</v>
       </c>
       <c r="N10" t="s">
@@ -2918,8 +2797,8 @@
       <c r="L11" t="s">
         <v>420</v>
       </c>
-      <c r="M11" t="s">
-        <v>421</v>
+      <c r="M11" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="N11" t="s">
         <v>44</v>
@@ -2971,7 +2850,7 @@
       <c r="L12" t="s">
         <v>53</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="14" t="s">
         <v>43</v>
       </c>
       <c r="N12" t="s">
@@ -3022,10 +2901,10 @@
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>448</v>
-      </c>
-      <c r="M13" t="s">
-        <v>422</v>
+        <v>432</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="N13" t="s">
         <v>44</v>
@@ -3075,10 +2954,10 @@
         <v>9</v>
       </c>
       <c r="L14" t="s">
-        <v>449</v>
-      </c>
-      <c r="M14" t="s">
-        <v>423</v>
+        <v>433</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>460</v>
       </c>
       <c r="N14" t="s">
         <v>44</v>
@@ -3128,9 +3007,9 @@
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>424</v>
-      </c>
-      <c r="M15" t="s">
+        <v>421</v>
+      </c>
+      <c r="M15" s="14" t="s">
         <v>285</v>
       </c>
       <c r="N15" t="s">
@@ -3183,7 +3062,7 @@
       <c r="L16" t="s">
         <v>70</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="14" t="s">
         <v>281</v>
       </c>
       <c r="N16" t="s">
@@ -3234,10 +3113,10 @@
         <v>4</v>
       </c>
       <c r="L17" t="s">
-        <v>425</v>
-      </c>
-      <c r="M17" t="s">
-        <v>426</v>
+        <v>422</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>423</v>
       </c>
       <c r="N17" t="s">
         <v>44</v>
@@ -3289,7 +3168,7 @@
       <c r="L18" t="s">
         <v>77</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="14" t="s">
         <v>295</v>
       </c>
       <c r="N18" t="s">
@@ -3340,10 +3219,10 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>427</v>
-      </c>
-      <c r="M19" t="s">
-        <v>428</v>
+        <v>424</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="N19" t="s">
         <v>44</v>
@@ -3393,10 +3272,10 @@
         <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>430</v>
-      </c>
-      <c r="M20" t="s">
-        <v>429</v>
+        <v>425</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>461</v>
       </c>
       <c r="N20" t="s">
         <v>44</v>
@@ -3448,7 +3327,7 @@
       <c r="L21" t="s">
         <v>286</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="14" t="s">
         <v>287</v>
       </c>
       <c r="N21" t="s">
@@ -3501,7 +3380,7 @@
       <c r="L22" t="s">
         <v>297</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="14" t="s">
         <v>305</v>
       </c>
       <c r="N22" t="s">
@@ -3554,7 +3433,7 @@
       <c r="L23" t="s">
         <v>288</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="14" t="s">
         <v>289</v>
       </c>
       <c r="N23" t="s">
@@ -3605,10 +3484,10 @@
         <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>431</v>
-      </c>
-      <c r="M24" t="s">
-        <v>432</v>
+        <v>426</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>462</v>
       </c>
       <c r="N24" t="s">
         <v>44</v>
@@ -3660,7 +3539,7 @@
       <c r="L25" t="s">
         <v>290</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="14" t="s">
         <v>287</v>
       </c>
       <c r="N25" t="s">
@@ -3713,7 +3592,7 @@
       <c r="L26" t="s">
         <v>16</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="14" t="s">
         <v>16</v>
       </c>
       <c r="N26" t="s">
@@ -3766,7 +3645,7 @@
       <c r="L27" t="s">
         <v>36</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="14" t="s">
         <v>43</v>
       </c>
       <c r="N27" t="s">
@@ -3819,7 +3698,7 @@
       <c r="L28" t="s">
         <v>107</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="14" t="s">
         <v>291</v>
       </c>
       <c r="N28" t="s">
@@ -3872,7 +3751,7 @@
       <c r="L29" t="s">
         <v>110</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="14" t="s">
         <v>281</v>
       </c>
       <c r="N29" t="s">
@@ -3925,7 +3804,7 @@
       <c r="L30" t="s">
         <v>113</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="14" t="s">
         <v>214</v>
       </c>
       <c r="N30" t="s">
@@ -3978,7 +3857,7 @@
       <c r="L31" t="s">
         <v>16</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="14" t="s">
         <v>16</v>
       </c>
       <c r="N31" t="s">
@@ -4031,7 +3910,7 @@
       <c r="L32" t="s">
         <v>204</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="14" t="s">
         <v>119</v>
       </c>
       <c r="N32" t="s">
@@ -4084,7 +3963,7 @@
       <c r="L33" t="s">
         <v>298</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="14" t="s">
         <v>299</v>
       </c>
       <c r="N33" t="s">
@@ -4137,7 +4016,7 @@
       <c r="L34" t="s">
         <v>125</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="14" t="s">
         <v>43</v>
       </c>
       <c r="N34" t="s">
@@ -4190,7 +4069,7 @@
       <c r="L35" t="s">
         <v>128</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="14" t="s">
         <v>296</v>
       </c>
       <c r="N35" t="s">
@@ -4241,10 +4120,10 @@
         <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>433</v>
-      </c>
-      <c r="M36" t="s">
-        <v>434</v>
+        <v>427</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="N36" t="s">
         <v>44</v>
@@ -4296,7 +4175,7 @@
       <c r="L37" t="s">
         <v>16</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="14" t="s">
         <v>16</v>
       </c>
       <c r="N37" t="s">
@@ -4349,7 +4228,7 @@
       <c r="L38" t="s">
         <v>16</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="14" t="s">
         <v>16</v>
       </c>
       <c r="N38" t="s">
@@ -4402,7 +4281,7 @@
       <c r="L39" t="s">
         <v>16</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="14" t="s">
         <v>16</v>
       </c>
       <c r="N39" t="s">
@@ -4455,7 +4334,7 @@
       <c r="L40" t="s">
         <v>16</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="14" t="s">
         <v>16</v>
       </c>
       <c r="N40" t="s">
@@ -4508,7 +4387,7 @@
       <c r="L41" t="s">
         <v>292</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="14" t="s">
         <v>293</v>
       </c>
       <c r="N41" t="s">
@@ -4561,7 +4440,7 @@
       <c r="L42" t="s">
         <v>16</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="14" t="s">
         <v>16</v>
       </c>
       <c r="N42" t="s">
@@ -4612,10 +4491,10 @@
         <v>2</v>
       </c>
       <c r="L43" t="s">
-        <v>435</v>
-      </c>
-      <c r="M43" t="s">
         <v>428</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>464</v>
       </c>
       <c r="N43" t="s">
         <v>138</v>
@@ -4667,7 +4546,7 @@
       <c r="L44" t="s">
         <v>153</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="14" t="s">
         <v>71</v>
       </c>
       <c r="N44" t="s">
@@ -4718,10 +4597,10 @@
         <v>4</v>
       </c>
       <c r="L45" t="s">
-        <v>436</v>
-      </c>
-      <c r="M45" t="s">
-        <v>437</v>
+        <v>429</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>465</v>
       </c>
       <c r="N45" t="s">
         <v>138</v>
@@ -4773,7 +4652,7 @@
       <c r="L46" t="s">
         <v>158</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="14" t="s">
         <v>43</v>
       </c>
       <c r="N46" t="s">
@@ -4826,7 +4705,7 @@
       <c r="L47" t="s">
         <v>16</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="14" t="s">
         <v>16</v>
       </c>
       <c r="N47" t="s">
@@ -4879,7 +4758,7 @@
       <c r="L48" t="s">
         <v>163</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="14" t="s">
         <v>282</v>
       </c>
       <c r="N48" t="s">
@@ -4932,7 +4811,7 @@
       <c r="L49" t="s">
         <v>167</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="14" t="s">
         <v>283</v>
       </c>
       <c r="N49" t="s">
@@ -4985,7 +4864,7 @@
       <c r="L50" t="s">
         <v>153</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="14" t="s">
         <v>71</v>
       </c>
       <c r="N50" t="s">
@@ -5036,10 +4915,10 @@
         <v>4</v>
       </c>
       <c r="L51" t="s">
-        <v>438</v>
-      </c>
-      <c r="M51" t="s">
-        <v>439</v>
+        <v>430</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>466</v>
       </c>
       <c r="N51" t="s">
         <v>134</v>
@@ -5091,7 +4970,7 @@
       <c r="L52" t="s">
         <v>280</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="14" t="s">
         <v>176</v>
       </c>
       <c r="N52" t="s">
@@ -5142,10 +5021,10 @@
         <v>4</v>
       </c>
       <c r="L53" t="s">
-        <v>440</v>
-      </c>
-      <c r="M53" t="s">
-        <v>441</v>
+        <v>431</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>458</v>
       </c>
       <c r="N53" t="s">
         <v>138</v>
@@ -5194,10 +5073,10 @@
       <c r="K54" s="1">
         <v>7</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="14" t="s">
         <v>302</v>
       </c>
       <c r="N54" t="s">
@@ -5247,10 +5126,10 @@
       <c r="K55" s="1">
         <v>6</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="14" t="s">
         <v>303</v>
       </c>
       <c r="N55" t="s">
@@ -5300,10 +5179,10 @@
       <c r="K56" s="1">
         <v>2</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="14" t="s">
         <v>281</v>
       </c>
       <c r="N56" t="s">
@@ -5353,10 +5232,10 @@
       <c r="K57" s="1">
         <v>1</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="14" t="s">
         <v>43</v>
       </c>
       <c r="N57" t="s">
@@ -5406,11 +5285,11 @@
       <c r="K58" s="1">
         <v>6</v>
       </c>
-      <c r="L58" t="s">
-        <v>442</v>
-      </c>
-      <c r="M58" t="s">
-        <v>443</v>
+      <c r="L58" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>467</v>
       </c>
       <c r="N58" t="s">
         <v>138</v>
@@ -5459,10 +5338,10 @@
       <c r="K59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L59" t="s">
-        <v>16</v>
-      </c>
-      <c r="M59" t="s">
+      <c r="L59" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="14" t="s">
         <v>16</v>
       </c>
       <c r="N59" t="s">
@@ -5512,10 +5391,10 @@
       <c r="K60" s="1">
         <v>3</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="14" t="s">
         <v>285</v>
       </c>
       <c r="N60" t="s">
@@ -5565,10 +5444,10 @@
       <c r="K61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" s="14" t="s">
         <v>43</v>
       </c>
       <c r="N61" t="s">
@@ -5618,11 +5497,11 @@
       <c r="K62" s="1">
         <v>5</v>
       </c>
-      <c r="L62" t="s">
-        <v>444</v>
-      </c>
-      <c r="M62" t="s">
-        <v>445</v>
+      <c r="L62" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="M62" s="14" t="s">
+        <v>468</v>
       </c>
       <c r="N62" t="s">
         <v>138</v>
@@ -5671,10 +5550,10 @@
       <c r="K63" s="1">
         <v>1</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="14" t="s">
         <v>214</v>
       </c>
       <c r="N63" t="s">
@@ -5724,10 +5603,10 @@
       <c r="K64" s="1">
         <v>1</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" s="14" t="s">
         <v>71</v>
       </c>
       <c r="N64" t="s">
@@ -5777,10 +5656,10 @@
       <c r="K65" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L65" t="s">
-        <v>16</v>
-      </c>
-      <c r="M65" t="s">
+      <c r="L65" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65" s="14" t="s">
         <v>16</v>
       </c>
       <c r="N65" t="s">
@@ -5830,10 +5709,10 @@
       <c r="K66" s="1">
         <v>1</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L66" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" s="14" t="s">
         <v>214</v>
       </c>
       <c r="N66" t="s">
@@ -5883,11 +5762,11 @@
       <c r="K67" s="1">
         <v>2</v>
       </c>
-      <c r="L67" t="s">
-        <v>446</v>
-      </c>
-      <c r="M67" t="s">
-        <v>447</v>
+      <c r="L67" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="M67" s="14" t="s">
+        <v>462</v>
       </c>
       <c r="N67" t="s">
         <v>138</v>
@@ -5936,10 +5815,10 @@
       <c r="K68" s="1">
         <v>1</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" s="14" t="s">
         <v>214</v>
       </c>
       <c r="N68" t="s">
@@ -5955,9 +5834,12 @@
         <v>19</v>
       </c>
     </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L69" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8430,7 +8312,7 @@
         <v>237</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8453,7 +8335,7 @@
         <v>240</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8476,7 +8358,7 @@
         <v>240</v>
       </c>
       <c r="G3" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8499,7 +8381,7 @@
         <v>240</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8522,7 +8404,7 @@
         <v>240</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8545,7 +8427,7 @@
         <v>246</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8568,7 +8450,7 @@
         <v>246</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8591,7 +8473,7 @@
         <v>246</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8614,7 +8496,7 @@
         <v>249</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -8637,7 +8519,7 @@
         <v>249</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8660,7 +8542,7 @@
         <v>249</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8683,7 +8565,7 @@
         <v>240</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -8706,7 +8588,7 @@
         <v>240</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -8729,7 +8611,7 @@
         <v>246</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -8752,7 +8634,7 @@
         <v>246</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -8775,7 +8657,7 @@
         <v>246</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -8798,7 +8680,7 @@
         <v>113</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -8821,7 +8703,7 @@
         <v>246</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -8844,7 +8726,7 @@
         <v>246</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -8867,7 +8749,7 @@
         <v>249</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -8890,7 +8772,7 @@
         <v>249</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -8913,7 +8795,7 @@
         <v>249</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -8936,7 +8818,7 @@
         <v>246</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -8959,7 +8841,7 @@
         <v>246</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -8973,7 +8855,7 @@
         <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -8982,7 +8864,7 @@
         <v>246</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -8995,15 +8877,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="79.140625" bestFit="1" customWidth="1"/>
@@ -9018,7 +8898,7 @@
         <v>375</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>376</v>
@@ -9062,6 +8942,9 @@
       <c r="B4" t="s">
         <v>382</v>
       </c>
+      <c r="C4" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -9110,6 +8993,9 @@
       <c r="B10" t="s">
         <v>259</v>
       </c>
+      <c r="C10" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -9118,6 +9004,9 @@
       <c r="B11" t="s">
         <v>383</v>
       </c>
+      <c r="C11" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -9126,6 +9015,9 @@
       <c r="B12" t="s">
         <v>384</v>
       </c>
+      <c r="C12" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -9134,6 +9026,9 @@
       <c r="B13" t="s">
         <v>385</v>
       </c>
+      <c r="C13" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -9142,6 +9037,9 @@
       <c r="B14" t="s">
         <v>386</v>
       </c>
+      <c r="C14" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -9150,6 +9048,9 @@
       <c r="B15" t="s">
         <v>387</v>
       </c>
+      <c r="C15" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -9158,168 +9059,231 @@
       <c r="B16" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
       <c r="B17" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
       <c r="B18" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
       <c r="B19" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
       <c r="B20" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>88</v>
       </c>
       <c r="B22" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
       <c r="B23" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>93</v>
       </c>
       <c r="B24" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>96</v>
       </c>
       <c r="B25" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>98</v>
       </c>
       <c r="B26" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>101</v>
       </c>
       <c r="B27" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
       <c r="B28" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>108</v>
       </c>
       <c r="B29" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>111</v>
       </c>
       <c r="B30" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>114</v>
       </c>
       <c r="B31" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
       <c r="B32" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>120</v>
       </c>
       <c r="B33" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>123</v>
       </c>
       <c r="B34" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>126</v>
       </c>
       <c r="B35" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>129</v>
       </c>
       <c r="B36" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>132</v>
       </c>
@@ -9327,175 +9291,238 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>135</v>
       </c>
       <c r="B38" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>139</v>
       </c>
       <c r="B39" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>141</v>
       </c>
       <c r="B40" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>143</v>
       </c>
       <c r="B41" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>146</v>
       </c>
       <c r="B42" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>148</v>
       </c>
       <c r="B43" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>152</v>
       </c>
       <c r="B44" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>154</v>
       </c>
       <c r="B45" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>156</v>
       </c>
       <c r="B46" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>159</v>
       </c>
       <c r="B47" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>161</v>
       </c>
       <c r="B48" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>164</v>
       </c>
       <c r="B49" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>168</v>
       </c>
       <c r="B50" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>170</v>
       </c>
       <c r="B51" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>172</v>
       </c>
       <c r="B52" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>174</v>
       </c>
       <c r="B53" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>177</v>
       </c>
       <c r="B54" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>179</v>
       </c>
       <c r="B55" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>181</v>
       </c>
       <c r="B56" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>183</v>
       </c>
       <c r="B57" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>186</v>
       </c>
       <c r="B58" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>188</v>
       </c>
@@ -9503,76 +9530,103 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>190</v>
       </c>
       <c r="B60" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>192</v>
       </c>
       <c r="B61" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>194</v>
       </c>
       <c r="B62" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>197</v>
       </c>
       <c r="B63" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>201</v>
       </c>
       <c r="B64" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>205</v>
       </c>
       <c r="B65" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>208</v>
       </c>
       <c r="B66" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>210</v>
       </c>
       <c r="B67" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>212</v>
       </c>
       <c r="B68" t="s">
         <v>258</v>
+      </c>
+      <c r="C68" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="attributs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="528">
   <si>
     <t>Id</t>
   </si>
@@ -1160,15 +1160,9 @@
     <t>Carriere</t>
   </si>
   <si>
-    <t>Type de carrière</t>
-  </si>
-  <si>
     <t>Sequence type</t>
   </si>
   <si>
-    <t>Sénateur</t>
-  </si>
-  <si>
     <t>smil1;spol1;spol2;spol3;spol4;smil2;spol5;spol6;smil3/smil4;spol7</t>
   </si>
   <si>
@@ -1578,13 +1572,55 @@
   </si>
   <si>
     <t>#ff9900</t>
+  </si>
+  <si>
+    <t>Type de carriere</t>
+  </si>
+  <si>
+    <t>Senateur</t>
+  </si>
+  <si>
+    <t>smil1;spol1;spol2;spol3;spol4;smil2;spol5;spol6;smil3;spol7</t>
+  </si>
+  <si>
+    <t>smil1;spol1;spol2;spol3;spol4;smil2;spol5;spol6;smil4;spol7</t>
+  </si>
+  <si>
+    <t>cmil1;cmil2;cmil3;cmil4;cpol1;cpol2;cpol3;cpol4;cpol5;cpol6</t>
+  </si>
+  <si>
+    <t>cmil1;cmil2;cmil3;cmil7;cpol1;cpol2;cpol3;cpol4;cpol5;cpol6</t>
+  </si>
+  <si>
+    <t>cmil1;cmil2;cmil6;cmil4;cpol1;cpol2;cpol3;cpol4;cpol5;cpol6</t>
+  </si>
+  <si>
+    <t>cmil1;cmil2;cmil6;cmil7;cpol1;cpol2;cpol3;cpol4;cpol5;cpol6</t>
+  </si>
+  <si>
+    <t>cmil1;cmil5;cmil3;cmil4;cpol1;cpol2;cpol3;cpol4;cpol5;cpol6</t>
+  </si>
+  <si>
+    <t>cmil1;cmil5;cmil3;cmil7;cpol1;cpol2;cpol3;cpol4;cpol5;cpol6</t>
+  </si>
+  <si>
+    <t>cmil1;cmil5;cmil6;cmil4;cpol1;cpol2;cpol3;cpol4;cpol5;cpol6</t>
+  </si>
+  <si>
+    <t>cmil1;cmil5;cmil6;cmil7;cpol1;cpol2;cpol3;cpol4;cpol5;cpol6</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Sequence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1620,24 +1656,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1791,7 +1811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1832,11 +1852,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -2200,7 +2218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
@@ -2267,7 +2285,7 @@
       <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="32" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="7" t="s">
@@ -2320,7 +2338,7 @@
       <c r="L2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="33" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="10" t="s">
@@ -2373,7 +2391,7 @@
       <c r="L3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="34" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="12" t="s">
@@ -2795,10 +2813,10 @@
         <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="N11" t="s">
         <v>44</v>
@@ -2901,7 +2919,7 @@
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>293</v>
@@ -2954,10 +2972,10 @@
         <v>9</v>
       </c>
       <c r="L14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N14" t="s">
         <v>44</v>
@@ -3007,7 +3025,7 @@
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>285</v>
@@ -3113,10 +3131,10 @@
         <v>4</v>
       </c>
       <c r="L17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N17" t="s">
         <v>44</v>
@@ -3219,7 +3237,7 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M19" s="14" t="s">
         <v>283</v>
@@ -3272,10 +3290,10 @@
         <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N20" t="s">
         <v>44</v>
@@ -3484,10 +3502,10 @@
         <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N24" t="s">
         <v>44</v>
@@ -3772,7 +3790,7 @@
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C30" t="s">
         <v>336</v>
@@ -4120,10 +4138,10 @@
         <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N36" t="s">
         <v>44</v>
@@ -4491,10 +4509,10 @@
         <v>2</v>
       </c>
       <c r="L43" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="N43" t="s">
         <v>138</v>
@@ -4597,10 +4615,10 @@
         <v>4</v>
       </c>
       <c r="L45" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N45" t="s">
         <v>138</v>
@@ -4915,10 +4933,10 @@
         <v>4</v>
       </c>
       <c r="L51" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N51" t="s">
         <v>134</v>
@@ -5021,10 +5039,10 @@
         <v>4</v>
       </c>
       <c r="L53" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N53" t="s">
         <v>138</v>
@@ -5286,10 +5304,10 @@
         <v>6</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N58" t="s">
         <v>138</v>
@@ -5498,10 +5516,10 @@
         <v>5</v>
       </c>
       <c r="L62" s="14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="N62" t="s">
         <v>138</v>
@@ -5763,10 +5781,10 @@
         <v>2</v>
       </c>
       <c r="L67" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N67" t="s">
         <v>138</v>
@@ -8311,8 +8329,8 @@
       <c r="F1" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="32" t="s">
-        <v>434</v>
+      <c r="G1" s="30" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8334,8 +8352,8 @@
       <c r="F2" t="s">
         <v>240</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>435</v>
+      <c r="G2" s="31" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8358,7 +8376,7 @@
         <v>240</v>
       </c>
       <c r="G3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8380,8 +8398,8 @@
       <c r="F4" t="s">
         <v>240</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>436</v>
+      <c r="G4" s="31" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8403,8 +8421,8 @@
       <c r="F5" t="s">
         <v>240</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>437</v>
+      <c r="G5" s="31" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8426,8 +8444,8 @@
       <c r="F6" t="s">
         <v>246</v>
       </c>
-      <c r="G6" s="33" t="s">
-        <v>438</v>
+      <c r="G6" s="31" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8449,8 +8467,8 @@
       <c r="F7" t="s">
         <v>246</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>439</v>
+      <c r="G7" s="31" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8472,8 +8490,8 @@
       <c r="F8" t="s">
         <v>246</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>440</v>
+      <c r="G8" s="31" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8495,8 +8513,8 @@
       <c r="F9" t="s">
         <v>249</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>513</v>
+      <c r="G9" s="31" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -8518,8 +8536,8 @@
       <c r="F10" t="s">
         <v>249</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>514</v>
+      <c r="G10" s="31" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8541,8 +8559,8 @@
       <c r="F11" t="s">
         <v>249</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>515</v>
+      <c r="G11" s="31" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8564,8 +8582,8 @@
       <c r="F12" t="s">
         <v>240</v>
       </c>
-      <c r="G12" s="33" t="s">
-        <v>441</v>
+      <c r="G12" s="31" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -8587,8 +8605,8 @@
       <c r="F13" t="s">
         <v>240</v>
       </c>
-      <c r="G13" s="33" t="s">
-        <v>442</v>
+      <c r="G13" s="31" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -8610,8 +8628,8 @@
       <c r="F14" t="s">
         <v>246</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>443</v>
+      <c r="G14" s="31" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -8633,8 +8651,8 @@
       <c r="F15" t="s">
         <v>246</v>
       </c>
-      <c r="G15" s="33" t="s">
-        <v>444</v>
+      <c r="G15" s="31" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -8656,8 +8674,8 @@
       <c r="F16" t="s">
         <v>246</v>
       </c>
-      <c r="G16" s="33" t="s">
-        <v>445</v>
+      <c r="G16" s="31" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -8679,8 +8697,8 @@
       <c r="F17" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="33" t="s">
-        <v>446</v>
+      <c r="G17" s="31" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -8702,8 +8720,8 @@
       <c r="F18" t="s">
         <v>246</v>
       </c>
-      <c r="G18" s="33" t="s">
-        <v>447</v>
+      <c r="G18" s="31" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -8725,8 +8743,8 @@
       <c r="F19" t="s">
         <v>246</v>
       </c>
-      <c r="G19" s="33" t="s">
-        <v>448</v>
+      <c r="G19" s="31" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -8748,8 +8766,8 @@
       <c r="F20" t="s">
         <v>249</v>
       </c>
-      <c r="G20" s="33" t="s">
-        <v>449</v>
+      <c r="G20" s="31" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -8771,8 +8789,8 @@
       <c r="F21" t="s">
         <v>249</v>
       </c>
-      <c r="G21" s="33" t="s">
-        <v>450</v>
+      <c r="G21" s="31" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -8794,8 +8812,8 @@
       <c r="F22" t="s">
         <v>249</v>
       </c>
-      <c r="G22" s="33" t="s">
-        <v>451</v>
+      <c r="G22" s="31" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -8817,8 +8835,8 @@
       <c r="F23" t="s">
         <v>246</v>
       </c>
-      <c r="G23" s="33" t="s">
-        <v>452</v>
+      <c r="G23" s="31" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -8840,8 +8858,8 @@
       <c r="F24" t="s">
         <v>246</v>
       </c>
-      <c r="G24" s="33" t="s">
-        <v>453</v>
+      <c r="G24" s="31" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -8855,7 +8873,7 @@
         <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -8863,8 +8881,8 @@
       <c r="F25" t="s">
         <v>246</v>
       </c>
-      <c r="G25" s="33" t="s">
-        <v>455</v>
+      <c r="G25" s="31" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -8877,7 +8895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8898,13 +8918,13 @@
         <v>375</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E1" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>376</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8915,10 +8935,10 @@
         <v>16</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>379</v>
+        <v>515</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8928,11 +8948,11 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>381</v>
+      <c r="E3" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8940,10 +8960,10 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8953,6 +8973,12 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
+      <c r="E5" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -8961,6 +8987,12 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -8969,6 +9001,12 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
+      <c r="E7" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -8977,6 +9015,12 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
+      <c r="E8" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -8985,6 +9029,12 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
+      <c r="E9" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -8994,7 +9044,13 @@
         <v>259</v>
       </c>
       <c r="C10" t="s">
-        <v>470</v>
+        <v>468</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9002,10 +9058,16 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C11" t="s">
-        <v>471</v>
+        <v>469</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9013,10 +9075,16 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C12" t="s">
-        <v>472</v>
+        <v>470</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9024,10 +9092,16 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
-        <v>473</v>
+        <v>471</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9035,10 +9109,16 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C14" t="s">
-        <v>474</v>
+        <v>472</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9046,10 +9126,16 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C15" t="s">
-        <v>475</v>
+        <v>473</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9057,10 +9143,10 @@
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -9071,7 +9157,7 @@
         <v>261</v>
       </c>
       <c r="C17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -9079,10 +9165,10 @@
         <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -9090,10 +9176,10 @@
         <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C19" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -9101,10 +9187,10 @@
         <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -9112,10 +9198,10 @@
         <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -9123,10 +9209,10 @@
         <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -9134,10 +9220,10 @@
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C23" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -9145,10 +9231,10 @@
         <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -9156,10 +9242,10 @@
         <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C25" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -9170,7 +9256,7 @@
         <v>256</v>
       </c>
       <c r="C26" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -9178,10 +9264,10 @@
         <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C27" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -9189,10 +9275,10 @@
         <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C28" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -9200,10 +9286,10 @@
         <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -9211,10 +9297,10 @@
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C30" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -9225,7 +9311,7 @@
         <v>244</v>
       </c>
       <c r="C31" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -9236,7 +9322,7 @@
         <v>253</v>
       </c>
       <c r="C32" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -9244,10 +9330,10 @@
         <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C33" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -9255,10 +9341,10 @@
         <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C34" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -9266,10 +9352,10 @@
         <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C35" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -9277,10 +9363,10 @@
         <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C36" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -9296,10 +9382,10 @@
         <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C38" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -9310,7 +9396,7 @@
         <v>244</v>
       </c>
       <c r="C39" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -9321,7 +9407,7 @@
         <v>245</v>
       </c>
       <c r="C40" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -9329,10 +9415,10 @@
         <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C41" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -9343,7 +9429,7 @@
         <v>245</v>
       </c>
       <c r="C42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -9351,10 +9437,10 @@
         <v>148</v>
       </c>
       <c r="B43" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C43" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -9362,10 +9448,10 @@
         <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C44" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -9373,10 +9459,10 @@
         <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C45" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -9384,10 +9470,10 @@
         <v>156</v>
       </c>
       <c r="B46" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C46" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -9398,7 +9484,7 @@
         <v>244</v>
       </c>
       <c r="C47" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -9406,10 +9492,10 @@
         <v>161</v>
       </c>
       <c r="B48" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C48" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -9417,10 +9503,10 @@
         <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C49" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -9428,10 +9514,10 @@
         <v>168</v>
       </c>
       <c r="B50" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C50" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -9442,7 +9528,7 @@
         <v>253</v>
       </c>
       <c r="C51" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -9450,10 +9536,10 @@
         <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C52" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -9461,10 +9547,10 @@
         <v>174</v>
       </c>
       <c r="B53" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C53" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -9472,10 +9558,10 @@
         <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C54" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -9483,10 +9569,10 @@
         <v>179</v>
       </c>
       <c r="B55" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C55" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -9494,10 +9580,10 @@
         <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C56" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -9505,10 +9591,10 @@
         <v>183</v>
       </c>
       <c r="B57" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C57" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -9516,10 +9602,10 @@
         <v>186</v>
       </c>
       <c r="B58" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C58" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -9535,10 +9621,10 @@
         <v>190</v>
       </c>
       <c r="B60" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C60" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -9546,10 +9632,10 @@
         <v>192</v>
       </c>
       <c r="B61" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C61" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -9557,10 +9643,10 @@
         <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C62" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -9568,10 +9654,10 @@
         <v>197</v>
       </c>
       <c r="B63" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C63" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -9579,10 +9665,10 @@
         <v>201</v>
       </c>
       <c r="B64" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C64" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -9593,7 +9679,7 @@
         <v>259</v>
       </c>
       <c r="C65" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -9601,10 +9687,10 @@
         <v>208</v>
       </c>
       <c r="B66" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C66" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -9612,10 +9698,10 @@
         <v>210</v>
       </c>
       <c r="B67" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C67" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -9626,10 +9712,11 @@
         <v>258</v>
       </c>
       <c r="C68" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="attributs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="526">
   <si>
     <t>Id</t>
   </si>
@@ -1454,9 +1454,6 @@
     <t>NA;NA;NA;NA;spol4;smil2;spol5;smil3</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>NA;cmil2</t>
   </si>
   <si>
@@ -1464,9 +1461,6 @@
   </si>
   <si>
     <t>NA;spol1;NA;NA;spol4;smil2;spol5</t>
-  </si>
-  <si>
-    <t>NA;spol1;NA;NA;spol4;NAspol5;spol6;smil3</t>
   </si>
   <si>
     <t>NA;NA;NA;NA;spol4;smil2;spol5;spol6;smil3;smil4</t>
@@ -1683,7 +1677,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1780,6 +1774,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1811,7 +1811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1857,6 +1857,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5304,7 +5305,7 @@
         <v>6</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M58" s="14" t="s">
         <v>465</v>
@@ -5516,7 +5517,7 @@
         <v>5</v>
       </c>
       <c r="L62" s="14" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M62" s="14" t="s">
         <v>466</v>
@@ -5781,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="L67" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M67" s="14" t="s">
         <v>460</v>
@@ -8293,9 +8294,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8514,7 +8515,7 @@
         <v>249</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -8537,7 +8538,7 @@
         <v>249</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8560,7 +8561,7 @@
         <v>249</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8895,9 +8896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8921,7 +8920,7 @@
         <v>454</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>376</v>
@@ -8934,8 +8933,11 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="28" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>377</v>
@@ -8948,6 +8950,9 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" s="29" t="s">
         <v>378</v>
       </c>
@@ -8973,11 +8978,14 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="26" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8987,11 +8995,14 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="28" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9001,11 +9012,14 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>515</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9015,11 +9029,14 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="29" t="s">
         <v>378</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9029,11 +9046,14 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" s="29" t="s">
         <v>378</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9050,7 +9070,7 @@
         <v>378</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9067,7 +9087,7 @@
         <v>378</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9084,7 +9104,7 @@
         <v>378</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9101,7 +9121,7 @@
         <v>378</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9118,7 +9138,7 @@
         <v>378</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9135,7 +9155,7 @@
         <v>378</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9145,8 +9165,8 @@
       <c r="B16" t="s">
         <v>386</v>
       </c>
-      <c r="C16" t="s">
-        <v>474</v>
+      <c r="C16" s="35" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -9157,7 +9177,7 @@
         <v>261</v>
       </c>
       <c r="C17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -9168,7 +9188,7 @@
         <v>387</v>
       </c>
       <c r="C18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -9179,7 +9199,7 @@
         <v>387</v>
       </c>
       <c r="C19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -9190,7 +9210,7 @@
         <v>388</v>
       </c>
       <c r="C20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -9201,7 +9221,7 @@
         <v>389</v>
       </c>
       <c r="C21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -9212,7 +9232,7 @@
         <v>390</v>
       </c>
       <c r="C22" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -9222,8 +9242,8 @@
       <c r="B23" t="s">
         <v>391</v>
       </c>
-      <c r="C23" t="s">
-        <v>474</v>
+      <c r="C23" s="35" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -9234,7 +9254,7 @@
         <v>392</v>
       </c>
       <c r="C24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -9245,7 +9265,7 @@
         <v>389</v>
       </c>
       <c r="C25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -9256,7 +9276,7 @@
         <v>256</v>
       </c>
       <c r="C26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -9267,7 +9287,7 @@
         <v>393</v>
       </c>
       <c r="C27" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -9278,7 +9298,7 @@
         <v>394</v>
       </c>
       <c r="C28" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -9289,7 +9309,7 @@
         <v>395</v>
       </c>
       <c r="C29" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -9300,7 +9320,7 @@
         <v>396</v>
       </c>
       <c r="C30" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -9311,7 +9331,7 @@
         <v>244</v>
       </c>
       <c r="C31" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -9322,7 +9342,7 @@
         <v>253</v>
       </c>
       <c r="C32" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -9333,7 +9353,7 @@
         <v>397</v>
       </c>
       <c r="C33" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -9344,7 +9364,7 @@
         <v>387</v>
       </c>
       <c r="C34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -9354,8 +9374,8 @@
       <c r="B35" t="s">
         <v>398</v>
       </c>
-      <c r="C35" t="s">
-        <v>474</v>
+      <c r="C35" s="35" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -9366,7 +9386,7 @@
         <v>399</v>
       </c>
       <c r="C36" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -9376,6 +9396,9 @@
       <c r="B37" t="s">
         <v>16</v>
       </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -9385,7 +9408,7 @@
         <v>400</v>
       </c>
       <c r="C38" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -9396,7 +9419,7 @@
         <v>244</v>
       </c>
       <c r="C39" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -9407,7 +9430,7 @@
         <v>245</v>
       </c>
       <c r="C40" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -9418,7 +9441,7 @@
         <v>401</v>
       </c>
       <c r="C41" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -9429,7 +9452,7 @@
         <v>245</v>
       </c>
       <c r="C42" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -9440,7 +9463,7 @@
         <v>402</v>
       </c>
       <c r="C43" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -9451,7 +9474,7 @@
         <v>403</v>
       </c>
       <c r="C44" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -9462,7 +9485,7 @@
         <v>404</v>
       </c>
       <c r="C45" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -9473,7 +9496,7 @@
         <v>387</v>
       </c>
       <c r="C46" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -9484,7 +9507,7 @@
         <v>244</v>
       </c>
       <c r="C47" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -9494,8 +9517,8 @@
       <c r="B48" t="s">
         <v>405</v>
       </c>
-      <c r="C48" t="s">
-        <v>474</v>
+      <c r="C48" s="35" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -9506,7 +9529,7 @@
         <v>390</v>
       </c>
       <c r="C49" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -9517,7 +9540,7 @@
         <v>406</v>
       </c>
       <c r="C50" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -9528,7 +9551,7 @@
         <v>253</v>
       </c>
       <c r="C51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -9539,7 +9562,7 @@
         <v>407</v>
       </c>
       <c r="C52" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -9550,7 +9573,7 @@
         <v>408</v>
       </c>
       <c r="C53" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -9561,7 +9584,7 @@
         <v>409</v>
       </c>
       <c r="C54" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -9572,7 +9595,7 @@
         <v>410</v>
       </c>
       <c r="C55" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -9583,7 +9606,7 @@
         <v>411</v>
       </c>
       <c r="C56" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -9594,7 +9617,7 @@
         <v>404</v>
       </c>
       <c r="C57" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -9604,8 +9627,8 @@
       <c r="B58" t="s">
         <v>412</v>
       </c>
-      <c r="C58" t="s">
-        <v>474</v>
+      <c r="C58" s="35" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -9615,6 +9638,9 @@
       <c r="B59" t="s">
         <v>16</v>
       </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -9624,7 +9650,7 @@
         <v>385</v>
       </c>
       <c r="C60" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -9635,7 +9661,7 @@
         <v>402</v>
       </c>
       <c r="C61" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -9645,8 +9671,8 @@
       <c r="B62" t="s">
         <v>413</v>
       </c>
-      <c r="C62" t="s">
-        <v>474</v>
+      <c r="C62" s="35" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -9656,8 +9682,8 @@
       <c r="B63" t="s">
         <v>414</v>
       </c>
-      <c r="C63" t="s">
-        <v>474</v>
+      <c r="C63" s="35" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -9668,7 +9694,7 @@
         <v>415</v>
       </c>
       <c r="C64" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -9690,7 +9716,7 @@
         <v>416</v>
       </c>
       <c r="C66" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -9701,7 +9727,7 @@
         <v>410</v>
       </c>
       <c r="C67" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -9712,7 +9738,7 @@
         <v>258</v>
       </c>
       <c r="C68" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/data/tables/trajan_tout.xlsx
+++ b/data/tables/trajan_tout.xlsx
@@ -1811,7 +1811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1858,6 +1858,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8296,7 +8298,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8335,25 +8337,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="36">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="37" t="s">
         <v>433</v>
       </c>
     </row>
@@ -8588,25 +8590,25 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="36">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="37" t="s">
         <v>440</v>
       </c>
     </row>
